--- a/Livrable 2/Statistics/Stats.xlsx
+++ b/Livrable 2/Statistics/Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Documents\CESI\A3\NoSQL\projet\VRP---Ant-Colony-Optimization---Python\Livrable 2\Statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA3B3C9-92FF-4489-85C6-874FDD27A690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7489E357-B23F-4AE9-A9BA-5E01C6618D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17025" yWindow="4215" windowWidth="22560" windowHeight="13005" xr2:uid="{F3020E98-56CC-4353-9D5B-CD3FFF333CBC}"/>
+    <workbookView xWindow="30795" yWindow="1815" windowWidth="24750" windowHeight="13005" xr2:uid="{F3020E98-56CC-4353-9D5B-CD3FFF333CBC}"/>
   </bookViews>
   <sheets>
     <sheet name="50" sheetId="1" r:id="rId1"/>
@@ -217,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -282,6 +282,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -290,21 +305,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E579287D-8AA6-4A4B-9EBB-CDF6378CF4F7}">
   <dimension ref="A1:Y98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,58 +662,58 @@
       <c r="B1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="29">
+      <c r="C2" s="34">
         <v>5</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29">
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34">
         <v>20</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29">
+      <c r="G2" s="34"/>
+      <c r="H2" s="34">
         <v>50</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29">
+      <c r="I2" s="34"/>
+      <c r="J2" s="34">
         <v>100</v>
       </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="28" t="s">
+      <c r="K2" s="34"/>
+      <c r="L2" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
       <c r="R2" s="13"/>
-      <c r="S2" s="28" t="s">
+      <c r="S2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="30">
+      <c r="B3" s="29">
         <v>50</v>
       </c>
       <c r="C3" s="18" t="s">
@@ -782,7 +783,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="30"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
@@ -810,59 +811,59 @@
       <c r="K4" s="8">
         <v>485.21143268701002</v>
       </c>
-      <c r="L4" s="27">
+      <c r="L4" s="30">
         <f>AVERAGE(D4:D13,F4:F13,H4:H13,J4:J13)</f>
         <v>12.415921998023963</v>
       </c>
-      <c r="M4" s="27">
+      <c r="M4" s="30">
         <f>MIN(D4:D13,F4:F13,H4:H13,J4:J13)</f>
         <v>1.45933365821838</v>
       </c>
-      <c r="N4" s="27">
+      <c r="N4" s="30">
         <f>MAX(D4:D13,F4:F13,H4:H13,J4:J13)</f>
         <v>28.583232879638601</v>
       </c>
-      <c r="O4" s="27">
+      <c r="O4" s="30">
         <f>MEDIAN(D4:D13,F4:F13,H4:H13,J4:J13)</f>
         <v>9.9674706459044984</v>
       </c>
-      <c r="P4" s="27">
+      <c r="P4" s="30">
         <f>VAR(D4:D13,F4:F13,H4:H13,J4:J13)</f>
         <v>106.43294585722458</v>
       </c>
-      <c r="Q4" s="27">
+      <c r="Q4" s="30">
         <f>_xlfn.STDEV.S(D4:D13,F4:F13,H4:H13,J4:J13)</f>
         <v>10.316634424909346</v>
       </c>
       <c r="R4" s="15"/>
-      <c r="S4" s="27">
+      <c r="S4" s="30">
         <f>AVERAGE(E4:E13,G4:G13,I4:I13,K4:K13)</f>
         <v>562.25321242435689</v>
       </c>
-      <c r="T4" s="27">
+      <c r="T4" s="30">
         <f>MIN(E4:E13,G4:G13,I4:I13,K4:K13)</f>
         <v>449.33762842934999</v>
       </c>
-      <c r="U4" s="27">
+      <c r="U4" s="30">
         <f>MAX(E4:E13,G4:G13,I4:I13,K4:K13)</f>
         <v>734.398243166425</v>
       </c>
-      <c r="V4" s="27">
+      <c r="V4" s="30">
         <f>MEDIAN(E4:E13,G4:G13,I4:I13,K4:K13)</f>
         <v>536.66939823994301</v>
       </c>
-      <c r="W4" s="27">
+      <c r="W4" s="30">
         <f>VAR(E4:E13,G4:G13,I4:I13,K4:K13)</f>
         <v>6840.847815946795</v>
       </c>
-      <c r="X4" s="27">
+      <c r="X4" s="30">
         <f>_xlfn.STDEV.S(E4:E13,G4:G13,I4:I13,K4:K13)</f>
         <v>82.709417939837991</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="30"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
@@ -890,23 +891,23 @@
       <c r="K5" s="8">
         <v>473.41211678709197</v>
       </c>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
       <c r="R5" s="15"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="30"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
@@ -934,23 +935,23 @@
       <c r="K6" s="8">
         <v>491.48005197118601</v>
       </c>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
       <c r="R6" s="15"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="30"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
@@ -978,23 +979,23 @@
       <c r="K7" s="8">
         <v>495.80616872886998</v>
       </c>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
       <c r="R7" s="15"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="30"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
@@ -1022,23 +1023,23 @@
       <c r="K8" s="8">
         <v>493.36683275231701</v>
       </c>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
       <c r="R8" s="15"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="30"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
@@ -1066,23 +1067,23 @@
       <c r="K9" s="8">
         <v>486.82473114676498</v>
       </c>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
       <c r="R9" s="15"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="30"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="7" t="s">
         <v>15</v>
       </c>
@@ -1110,23 +1111,23 @@
       <c r="K10" s="8">
         <v>486.62536425676501</v>
       </c>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
       <c r="R10" s="15"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="30"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
@@ -1154,23 +1155,23 @@
       <c r="K11" s="8">
         <v>493.932175668409</v>
       </c>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
       <c r="R11" s="15"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="30"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="7" t="s">
         <v>17</v>
       </c>
@@ -1198,23 +1199,23 @@
       <c r="K12" s="8">
         <v>478.951750525043</v>
       </c>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
       <c r="R12" s="15"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="30"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="7" t="s">
         <v>18</v>
       </c>
@@ -1242,23 +1243,23 @@
       <c r="K13" s="8">
         <v>488.06407744493703</v>
       </c>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
       <c r="R13" s="15"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="30">
+      <c r="B14" s="29">
         <v>100</v>
       </c>
       <c r="C14" s="18" t="s">
@@ -1328,7 +1329,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="B15" s="30"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="7" t="s">
         <v>9</v>
       </c>
@@ -1356,59 +1357,59 @@
       <c r="K15" s="8">
         <v>469.77770801823402</v>
       </c>
-      <c r="L15" s="27">
+      <c r="L15" s="30">
         <f>AVERAGE(D15:D24,F15:F24,H15:H24,J15:J24)</f>
         <v>24.523306155204736</v>
       </c>
-      <c r="M15" s="27">
+      <c r="M15" s="30">
         <f>MIN(D15:D24,F15:F24,H15:H24,J15:J24)</f>
         <v>2.93487524986267</v>
       </c>
-      <c r="N15" s="27">
+      <c r="N15" s="30">
         <f>MAX(D15:D24,F15:F24,H15:H24,J15:J24)</f>
         <v>57.229600667953399</v>
       </c>
-      <c r="O15" s="27">
+      <c r="O15" s="30">
         <f>MEDIAN(D15:D24,F15:F24,H15:H24,J15:J24)</f>
         <v>19.5083376169204</v>
       </c>
-      <c r="P15" s="27">
+      <c r="P15" s="30">
         <f>VAR(D15:D24,F15:F24,H15:H24,J15:J24)</f>
         <v>414.76233355347546</v>
       </c>
-      <c r="Q15" s="27">
+      <c r="Q15" s="30">
         <f>_xlfn.STDEV.S(D15:D24,F15:F24,H15:H24,J15:J24)</f>
         <v>20.36571465854993</v>
       </c>
       <c r="R15" s="15"/>
-      <c r="S15" s="27">
+      <c r="S15" s="30">
         <f>AVERAGE(E15:E24,G15:G24,I15:I24,K15:K24)</f>
         <v>526.55673551298423</v>
       </c>
-      <c r="T15" s="27">
+      <c r="T15" s="30">
         <f>MIN(E15:E24,G15:G24,I15:I24,K15:K24)</f>
         <v>458.25495031869798</v>
       </c>
-      <c r="U15" s="27">
+      <c r="U15" s="30">
         <f>MAX(E15:E24,G15:G24,I15:I24,K15:K24)</f>
         <v>641.20049285024004</v>
       </c>
-      <c r="V15" s="27">
+      <c r="V15" s="30">
         <f>MEDIAN(E15:E24,G15:G24,I15:I24,K15:K24)</f>
         <v>508.33988696045651</v>
       </c>
-      <c r="W15" s="27">
+      <c r="W15" s="30">
         <f>VAR(E15:E24,G15:G24,I15:I24,K15:K24)</f>
         <v>4016.5509968429615</v>
       </c>
-      <c r="X15" s="27">
+      <c r="X15" s="30">
         <f>_xlfn.STDEV.S(E15:E24,G15:G24,I15:I24,K15:K24)</f>
         <v>63.376265248458445</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="30"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="7" t="s">
         <v>10</v>
       </c>
@@ -1436,23 +1437,23 @@
       <c r="K16" s="8">
         <v>458.25495031869798</v>
       </c>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
       <c r="R16" s="15"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" s="30"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="7" t="s">
         <v>11</v>
       </c>
@@ -1480,23 +1481,23 @@
       <c r="K17" s="8">
         <v>465.88078762415898</v>
       </c>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
       <c r="R17" s="15"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="27"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
-      <c r="B18" s="30"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="7" t="s">
         <v>12</v>
       </c>
@@ -1524,23 +1525,23 @@
       <c r="K18" s="8">
         <v>471.0680330582</v>
       </c>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
       <c r="R18" s="15"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
-      <c r="X18" s="27"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
-      <c r="B19" s="30"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="7" t="s">
         <v>13</v>
       </c>
@@ -1568,23 +1569,23 @@
       <c r="K19" s="8">
         <v>461.406636913223</v>
       </c>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
       <c r="R19" s="15"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
-      <c r="B20" s="30"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="7" t="s">
         <v>14</v>
       </c>
@@ -1612,23 +1613,23 @@
       <c r="K20" s="8">
         <v>480.44893901290698</v>
       </c>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
       <c r="R20" s="15"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="27"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
-      <c r="B21" s="30"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="7" t="s">
         <v>15</v>
       </c>
@@ -1656,23 +1657,23 @@
       <c r="K21" s="8">
         <v>472.01896065071799</v>
       </c>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
       <c r="R21" s="15"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="27"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
-      <c r="B22" s="30"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="7" t="s">
         <v>16</v>
       </c>
@@ -1700,23 +1701,23 @@
       <c r="K22" s="8">
         <v>464.358319503129</v>
       </c>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
       <c r="R22" s="15"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="27"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
-      <c r="B23" s="30"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="7" t="s">
         <v>17</v>
       </c>
@@ -1744,23 +1745,23 @@
       <c r="K23" s="8">
         <v>476.59473072208198</v>
       </c>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
       <c r="R23" s="15"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
-      <c r="B24" s="30"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="7" t="s">
         <v>18</v>
       </c>
@@ -1788,19 +1789,19 @@
       <c r="K24" s="8">
         <v>460.57042391861</v>
       </c>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
       <c r="R24" s="15"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
@@ -1872,7 +1873,7 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
-      <c r="B26" s="30">
+      <c r="B26" s="29">
         <v>250</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -1902,59 +1903,59 @@
       <c r="K26" s="11">
         <v>453.78564191436101</v>
       </c>
-      <c r="L26" s="27">
+      <c r="L26" s="30">
         <f>AVERAGE(D26:D35,F26:F35,H26:H35,J26:J35)</f>
         <v>62.778372329473328</v>
       </c>
-      <c r="M26" s="27">
+      <c r="M26" s="30">
         <f>MIN(D26:D35,F26:F35,H26:H35,J26:J35)</f>
         <v>6.8491511344909597</v>
       </c>
-      <c r="N26" s="27">
+      <c r="N26" s="30">
         <f>MAX(D26:D35,F26:F35,H26:H35,J26:J35)</f>
         <v>148.26669311523401</v>
       </c>
-      <c r="O26" s="27">
+      <c r="O26" s="30">
         <f>MEDIAN(D26:D35,F26:F35,H26:H35,J26:J35)</f>
         <v>48.835330843925448</v>
       </c>
-      <c r="P26" s="27">
+      <c r="P26" s="30">
         <f>VAR(D26:D35,F26:F35,H26:H35,J26:J35)</f>
         <v>2857.0804910024954</v>
       </c>
-      <c r="Q26" s="27">
+      <c r="Q26" s="30">
         <f>_xlfn.STDEV.S(D26:D35,F26:F35,H26:H35,J26:J35)</f>
         <v>53.451664997476882</v>
       </c>
       <c r="R26" s="15"/>
-      <c r="S26" s="27">
+      <c r="S26" s="30">
         <f>AVERAGE(E26:E35,G26:G35,I26:I35,K26:K35)</f>
         <v>492.16580135671046</v>
       </c>
-      <c r="T26" s="27">
+      <c r="T26" s="30">
         <f>MIN(E26:E35,G26:G35,I26:I35,K26:K35)</f>
         <v>453.78564191436101</v>
       </c>
-      <c r="U26" s="27">
+      <c r="U26" s="30">
         <f>MAX(E26:E35,G26:G35,I26:I35,K26:K35)</f>
         <v>581.33373104623104</v>
       </c>
-      <c r="V26" s="27">
+      <c r="V26" s="30">
         <f>MEDIAN(E26:E35,G26:G35,I26:I35,K26:K35)</f>
         <v>475.79672077069051</v>
       </c>
-      <c r="W26" s="27">
+      <c r="W26" s="30">
         <f>VAR(E26:E35,G26:G35,I26:I35,K26:K35)</f>
         <v>1469.529122635412</v>
       </c>
-      <c r="X26" s="27">
+      <c r="X26" s="30">
         <f>_xlfn.STDEV.S(E26:E35,G26:G35,I26:I35,K26:K35)</f>
         <v>38.334437815564897</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
-      <c r="B27" s="30"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="7" t="s">
         <v>10</v>
       </c>
@@ -1982,23 +1983,23 @@
       <c r="K27" s="11">
         <v>463.34273580014201</v>
       </c>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
       <c r="R27" s="15"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="27"/>
-      <c r="W27" s="27"/>
-      <c r="X27" s="27"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="30"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
-      <c r="B28" s="30"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="7" t="s">
         <v>11</v>
       </c>
@@ -2026,23 +2027,23 @@
       <c r="K28" s="11">
         <v>459.28697566556701</v>
       </c>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
       <c r="R28" s="15"/>
-      <c r="S28" s="27"/>
-      <c r="T28" s="27"/>
-      <c r="U28" s="27"/>
-      <c r="V28" s="27"/>
-      <c r="W28" s="27"/>
-      <c r="X28" s="27"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
-      <c r="B29" s="30"/>
+      <c r="B29" s="29"/>
       <c r="C29" s="7" t="s">
         <v>12</v>
       </c>
@@ -2070,23 +2071,23 @@
       <c r="K29" s="11">
         <v>460.07939665561099</v>
       </c>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
       <c r="R29" s="15"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="27"/>
-      <c r="W29" s="27"/>
-      <c r="X29" s="27"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="30"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
-      <c r="B30" s="30"/>
+      <c r="B30" s="29"/>
       <c r="C30" s="7" t="s">
         <v>13</v>
       </c>
@@ -2114,23 +2115,23 @@
       <c r="K30" s="11">
         <v>461.325971039009</v>
       </c>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
       <c r="R30" s="15"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="27"/>
-      <c r="W30" s="27"/>
-      <c r="X30" s="27"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
-      <c r="B31" s="30"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="7" t="s">
         <v>14</v>
       </c>
@@ -2158,23 +2159,23 @@
       <c r="K31" s="11">
         <v>460.997924677161</v>
       </c>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
       <c r="R31" s="15"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="27"/>
-      <c r="W31" s="27"/>
-      <c r="X31" s="27"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="30"/>
+      <c r="V31" s="30"/>
+      <c r="W31" s="30"/>
+      <c r="X31" s="30"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
-      <c r="B32" s="30"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="7" t="s">
         <v>15</v>
       </c>
@@ -2202,23 +2203,23 @@
       <c r="K32" s="11">
         <v>465.665988054911</v>
       </c>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
       <c r="R32" s="15"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="27"/>
-      <c r="U32" s="27"/>
-      <c r="V32" s="27"/>
-      <c r="W32" s="27"/>
-      <c r="X32" s="27"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="30"/>
+      <c r="V32" s="30"/>
+      <c r="W32" s="30"/>
+      <c r="X32" s="30"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
-      <c r="B33" s="30"/>
+      <c r="B33" s="29"/>
       <c r="C33" s="7" t="s">
         <v>16</v>
       </c>
@@ -2246,23 +2247,23 @@
       <c r="K33" s="11">
         <v>457.76527973216503</v>
       </c>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
       <c r="R33" s="15"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="27"/>
-      <c r="U33" s="27"/>
-      <c r="V33" s="27"/>
-      <c r="W33" s="27"/>
-      <c r="X33" s="27"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="30"/>
+      <c r="U33" s="30"/>
+      <c r="V33" s="30"/>
+      <c r="W33" s="30"/>
+      <c r="X33" s="30"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
-      <c r="B34" s="30"/>
+      <c r="B34" s="29"/>
       <c r="C34" s="7" t="s">
         <v>17</v>
       </c>
@@ -2290,23 +2291,23 @@
       <c r="K34" s="11">
         <v>464.267127557219</v>
       </c>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="27"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
       <c r="R34" s="15"/>
-      <c r="S34" s="27"/>
-      <c r="T34" s="27"/>
-      <c r="U34" s="27"/>
-      <c r="V34" s="27"/>
-      <c r="W34" s="27"/>
-      <c r="X34" s="27"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="30"/>
+      <c r="U34" s="30"/>
+      <c r="V34" s="30"/>
+      <c r="W34" s="30"/>
+      <c r="X34" s="30"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
-      <c r="B35" s="30"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="7" t="s">
         <v>18</v>
       </c>
@@ -2334,23 +2335,23 @@
       <c r="K35" s="11">
         <v>458.66324928507998</v>
       </c>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="27"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
       <c r="R35" s="15"/>
-      <c r="S35" s="27"/>
-      <c r="T35" s="27"/>
-      <c r="U35" s="27"/>
-      <c r="V35" s="27"/>
-      <c r="W35" s="27"/>
-      <c r="X35" s="27"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="30"/>
+      <c r="U35" s="30"/>
+      <c r="V35" s="30"/>
+      <c r="W35" s="30"/>
+      <c r="X35" s="30"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
-      <c r="B36" s="30">
+      <c r="B36" s="29">
         <v>500</v>
       </c>
       <c r="C36" s="18" t="s">
@@ -2420,7 +2421,7 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
-      <c r="B37" s="30"/>
+      <c r="B37" s="29"/>
       <c r="C37" s="7" t="s">
         <v>9</v>
       </c>
@@ -2448,59 +2449,59 @@
       <c r="K37" s="11">
         <v>423.74307498071897</v>
       </c>
-      <c r="L37" s="27">
+      <c r="L37" s="30">
         <f>AVERAGE(D37:D46,F37:F46,H37:H46,J37:J46)</f>
         <v>124.32166391611077</v>
       </c>
-      <c r="M37" s="27">
+      <c r="M37" s="30">
         <f>MIN(D37:D46,F37:F46,H37:H46,J37:J46)</f>
         <v>14.159195423126199</v>
       </c>
-      <c r="N37" s="27">
+      <c r="N37" s="30">
         <f>MAX(D37:D46,F37:F46,H37:H46,J37:J46)</f>
         <v>300.055415391922</v>
       </c>
-      <c r="O37" s="27">
+      <c r="O37" s="30">
         <f>MEDIAN(D37:D46,F37:F46,H37:H46,J37:J46)</f>
         <v>95.272099256515247</v>
       </c>
-      <c r="P37" s="27">
+      <c r="P37" s="30">
         <f>VAR(D37:D46,F37:F46,H37:H46,J37:J46)</f>
         <v>11480.826601330937</v>
       </c>
-      <c r="Q37" s="27">
+      <c r="Q37" s="30">
         <f>_xlfn.STDEV.S(D37:D46,F37:F46,H37:H46,J37:J46)</f>
         <v>107.14861922269898</v>
       </c>
       <c r="R37" s="15"/>
-      <c r="S37" s="27">
+      <c r="S37" s="30">
         <f>AVERAGE(E37:E46,G37:G46,I37:I46,K37:K46)</f>
         <v>461.30096814589513</v>
       </c>
-      <c r="T37" s="27">
+      <c r="T37" s="30">
         <f>MIN(E37:E46,G37:G46,I37:I46,K37:K46)</f>
         <v>406.656475665806</v>
       </c>
-      <c r="U37" s="27">
+      <c r="U37" s="30">
         <f>MAX(E37:E46,G37:G46,I37:I46,K37:K46)</f>
         <v>519.07470892240599</v>
       </c>
-      <c r="V37" s="27">
+      <c r="V37" s="30">
         <f>MEDIAN(E37:E46,G37:G46,I37:I46,K37:K46)</f>
         <v>458.898882642579</v>
       </c>
-      <c r="W37" s="27">
+      <c r="W37" s="30">
         <f>VAR(E37:E46,G37:G46,I37:I46,K37:K46)</f>
         <v>1036.3811177795212</v>
       </c>
-      <c r="X37" s="27">
+      <c r="X37" s="30">
         <f>_xlfn.STDEV.S(E37:E46,G37:G46,I37:I46,K37:K46)</f>
         <v>32.192873711110678</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
-      <c r="B38" s="30"/>
+      <c r="B38" s="29"/>
       <c r="C38" s="7" t="s">
         <v>10</v>
       </c>
@@ -2528,23 +2529,23 @@
       <c r="K38" s="11">
         <v>422.53220220143203</v>
       </c>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="27"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
       <c r="R38" s="15"/>
-      <c r="S38" s="27"/>
-      <c r="T38" s="27"/>
-      <c r="U38" s="27"/>
-      <c r="V38" s="27"/>
-      <c r="W38" s="27"/>
-      <c r="X38" s="27"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="30"/>
+      <c r="V38" s="30"/>
+      <c r="W38" s="30"/>
+      <c r="X38" s="30"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
-      <c r="B39" s="30"/>
+      <c r="B39" s="29"/>
       <c r="C39" s="7" t="s">
         <v>11</v>
       </c>
@@ -2572,23 +2573,23 @@
       <c r="K39" s="11">
         <v>418.346860761823</v>
       </c>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30"/>
       <c r="R39" s="15"/>
-      <c r="S39" s="27"/>
-      <c r="T39" s="27"/>
-      <c r="U39" s="27"/>
-      <c r="V39" s="27"/>
-      <c r="W39" s="27"/>
-      <c r="X39" s="27"/>
+      <c r="S39" s="30"/>
+      <c r="T39" s="30"/>
+      <c r="U39" s="30"/>
+      <c r="V39" s="30"/>
+      <c r="W39" s="30"/>
+      <c r="X39" s="30"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
-      <c r="B40" s="30"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="7" t="s">
         <v>12</v>
       </c>
@@ -2616,23 +2617,23 @@
       <c r="K40" s="11">
         <v>408.67555931818401</v>
       </c>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="30"/>
       <c r="R40" s="15"/>
-      <c r="S40" s="27"/>
-      <c r="T40" s="27"/>
-      <c r="U40" s="27"/>
-      <c r="V40" s="27"/>
-      <c r="W40" s="27"/>
-      <c r="X40" s="27"/>
+      <c r="S40" s="30"/>
+      <c r="T40" s="30"/>
+      <c r="U40" s="30"/>
+      <c r="V40" s="30"/>
+      <c r="W40" s="30"/>
+      <c r="X40" s="30"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
-      <c r="B41" s="30"/>
+      <c r="B41" s="29"/>
       <c r="C41" s="7" t="s">
         <v>13</v>
       </c>
@@ -2660,23 +2661,23 @@
       <c r="K41" s="11">
         <v>422.93846795332701</v>
       </c>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30"/>
       <c r="R41" s="15"/>
-      <c r="S41" s="27"/>
-      <c r="T41" s="27"/>
-      <c r="U41" s="27"/>
-      <c r="V41" s="27"/>
-      <c r="W41" s="27"/>
-      <c r="X41" s="27"/>
+      <c r="S41" s="30"/>
+      <c r="T41" s="30"/>
+      <c r="U41" s="30"/>
+      <c r="V41" s="30"/>
+      <c r="W41" s="30"/>
+      <c r="X41" s="30"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
-      <c r="B42" s="30"/>
+      <c r="B42" s="29"/>
       <c r="C42" s="7" t="s">
         <v>14</v>
       </c>
@@ -2704,23 +2705,23 @@
       <c r="K42" s="11">
         <v>423.44463829622202</v>
       </c>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="27"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="30"/>
       <c r="R42" s="15"/>
-      <c r="S42" s="27"/>
-      <c r="T42" s="27"/>
-      <c r="U42" s="27"/>
-      <c r="V42" s="27"/>
-      <c r="W42" s="27"/>
-      <c r="X42" s="27"/>
+      <c r="S42" s="30"/>
+      <c r="T42" s="30"/>
+      <c r="U42" s="30"/>
+      <c r="V42" s="30"/>
+      <c r="W42" s="30"/>
+      <c r="X42" s="30"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
-      <c r="B43" s="30"/>
+      <c r="B43" s="29"/>
       <c r="C43" s="7" t="s">
         <v>15</v>
       </c>
@@ -2748,23 +2749,23 @@
       <c r="K43" s="11">
         <v>409.85120636463802</v>
       </c>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="27"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="30"/>
       <c r="R43" s="15"/>
-      <c r="S43" s="27"/>
-      <c r="T43" s="27"/>
-      <c r="U43" s="27"/>
-      <c r="V43" s="27"/>
-      <c r="W43" s="27"/>
-      <c r="X43" s="27"/>
+      <c r="S43" s="30"/>
+      <c r="T43" s="30"/>
+      <c r="U43" s="30"/>
+      <c r="V43" s="30"/>
+      <c r="W43" s="30"/>
+      <c r="X43" s="30"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
-      <c r="B44" s="30"/>
+      <c r="B44" s="29"/>
       <c r="C44" s="7" t="s">
         <v>16</v>
       </c>
@@ -2792,23 +2793,23 @@
       <c r="K44" s="11">
         <v>406.656475665806</v>
       </c>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27"/>
-      <c r="N44" s="27"/>
-      <c r="O44" s="27"/>
-      <c r="P44" s="27"/>
-      <c r="Q44" s="27"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="30"/>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="30"/>
       <c r="R44" s="15"/>
-      <c r="S44" s="27"/>
-      <c r="T44" s="27"/>
-      <c r="U44" s="27"/>
-      <c r="V44" s="27"/>
-      <c r="W44" s="27"/>
-      <c r="X44" s="27"/>
+      <c r="S44" s="30"/>
+      <c r="T44" s="30"/>
+      <c r="U44" s="30"/>
+      <c r="V44" s="30"/>
+      <c r="W44" s="30"/>
+      <c r="X44" s="30"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
-      <c r="B45" s="30"/>
+      <c r="B45" s="29"/>
       <c r="C45" s="7" t="s">
         <v>17</v>
       </c>
@@ -2836,22 +2837,22 @@
       <c r="K45" s="11">
         <v>420.163221605128</v>
       </c>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="27"/>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="27"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="30"/>
       <c r="R45" s="15"/>
-      <c r="S45" s="27"/>
-      <c r="T45" s="27"/>
-      <c r="U45" s="27"/>
-      <c r="V45" s="27"/>
-      <c r="W45" s="27"/>
-      <c r="X45" s="27"/>
+      <c r="S45" s="30"/>
+      <c r="T45" s="30"/>
+      <c r="U45" s="30"/>
+      <c r="V45" s="30"/>
+      <c r="W45" s="30"/>
+      <c r="X45" s="30"/>
     </row>
     <row r="46" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="30"/>
+      <c r="B46" s="29"/>
       <c r="C46" s="21" t="s">
         <v>18</v>
       </c>
@@ -2879,22 +2880,22 @@
       <c r="K46" s="20">
         <v>420.22029867459503</v>
       </c>
-      <c r="L46" s="27"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="27"/>
-      <c r="P46" s="27"/>
-      <c r="Q46" s="27"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="30"/>
+      <c r="Q46" s="30"/>
       <c r="R46" s="15"/>
-      <c r="S46" s="27"/>
-      <c r="T46" s="27"/>
-      <c r="U46" s="27"/>
-      <c r="V46" s="27"/>
-      <c r="W46" s="27"/>
-      <c r="X46" s="27"/>
+      <c r="S46" s="30"/>
+      <c r="T46" s="30"/>
+      <c r="U46" s="30"/>
+      <c r="V46" s="30"/>
+      <c r="W46" s="30"/>
+      <c r="X46" s="30"/>
     </row>
     <row r="47" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="30">
+      <c r="B47" s="29">
         <v>750</v>
       </c>
       <c r="C47" s="18" t="s">
@@ -2963,7 +2964,7 @@
       </c>
     </row>
     <row r="48" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="30"/>
+      <c r="B48" s="29"/>
       <c r="C48" s="7" t="s">
         <v>9</v>
       </c>
@@ -2983,58 +2984,58 @@
       <c r="I48" s="20"/>
       <c r="J48" s="20"/>
       <c r="K48" s="20"/>
-      <c r="L48" s="27">
+      <c r="L48" s="30">
         <f>AVERAGE(D48:D57,F48:F57,H48:H57,J48:J57)</f>
         <v>53.43014444112773</v>
       </c>
-      <c r="M48" s="27">
+      <c r="M48" s="30">
         <f>MIN(D48:D57,F48:F57,H48:H57,J48:J57)</f>
         <v>21.336215972900298</v>
       </c>
-      <c r="N48" s="27">
+      <c r="N48" s="30">
         <f>MAX(D48:D57,F48:F57,H48:H57,J48:J57)</f>
         <v>86.652469396591101</v>
       </c>
-      <c r="O48" s="27">
+      <c r="O48" s="30">
         <f>MEDIAN(D48:D57,F48:F57,H48:H57,J48:J57)</f>
         <v>53.309928297996493</v>
       </c>
-      <c r="P48" s="27">
+      <c r="P48" s="30">
         <f>VAR(D48:D57,F48:F57,H48:H57,J48:J57)</f>
         <v>1066.7994341686158</v>
       </c>
-      <c r="Q48" s="27">
+      <c r="Q48" s="30">
         <f>_xlfn.STDEV.S(D48:D57,F48:F57,H48:H57,J48:J57)</f>
         <v>32.661895752828187</v>
       </c>
       <c r="R48" s="15"/>
-      <c r="S48" s="27">
+      <c r="S48" s="30">
         <f>AVERAGE(E48:E57,G48:G57,I48:I57,K48:K57)</f>
         <v>477.60547902757679</v>
       </c>
-      <c r="T48" s="27">
+      <c r="T48" s="30">
         <f>MIN(E48:E57,G48:G57,I48:I57,K48:K57)</f>
         <v>455.07176516118398</v>
       </c>
-      <c r="U48" s="27">
+      <c r="U48" s="30">
         <f>MAX(E48:E57,G48:G57,I48:I57,K48:K57)</f>
         <v>511.280606631762</v>
       </c>
-      <c r="V48" s="27">
+      <c r="V48" s="30">
         <f>MEDIAN(E48:E57,G48:G57,I48:I57,K48:K57)</f>
         <v>472.92081592093052</v>
       </c>
-      <c r="W48" s="27">
+      <c r="W48" s="30">
         <f>VAR(E48:E57,G48:G57,I48:I57,K48:K57)</f>
         <v>316.81695084558351</v>
       </c>
-      <c r="X48" s="27">
+      <c r="X48" s="30">
         <f>_xlfn.STDEV.S(E48:E57,G48:G57,I48:I57,K48:K57)</f>
         <v>17.799352540066831</v>
       </c>
     </row>
     <row r="49" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="30"/>
+      <c r="B49" s="29"/>
       <c r="C49" s="7" t="s">
         <v>10</v>
       </c>
@@ -3054,22 +3055,22 @@
       <c r="I49" s="20"/>
       <c r="J49" s="20"/>
       <c r="K49" s="20"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="27"/>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="27"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="30"/>
+      <c r="Q49" s="30"/>
       <c r="R49" s="15"/>
-      <c r="S49" s="27"/>
-      <c r="T49" s="27"/>
-      <c r="U49" s="27"/>
-      <c r="V49" s="27"/>
-      <c r="W49" s="27"/>
-      <c r="X49" s="27"/>
+      <c r="S49" s="30"/>
+      <c r="T49" s="30"/>
+      <c r="U49" s="30"/>
+      <c r="V49" s="30"/>
+      <c r="W49" s="30"/>
+      <c r="X49" s="30"/>
     </row>
     <row r="50" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="30"/>
+      <c r="B50" s="29"/>
       <c r="C50" s="7" t="s">
         <v>11</v>
       </c>
@@ -3089,22 +3090,22 @@
       <c r="I50" s="20"/>
       <c r="J50" s="20"/>
       <c r="K50" s="20"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="27"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="27"/>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="27"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="30"/>
+      <c r="N50" s="30"/>
+      <c r="O50" s="30"/>
+      <c r="P50" s="30"/>
+      <c r="Q50" s="30"/>
       <c r="R50" s="15"/>
-      <c r="S50" s="27"/>
-      <c r="T50" s="27"/>
-      <c r="U50" s="27"/>
-      <c r="V50" s="27"/>
-      <c r="W50" s="27"/>
-      <c r="X50" s="27"/>
+      <c r="S50" s="30"/>
+      <c r="T50" s="30"/>
+      <c r="U50" s="30"/>
+      <c r="V50" s="30"/>
+      <c r="W50" s="30"/>
+      <c r="X50" s="30"/>
     </row>
     <row r="51" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="30"/>
+      <c r="B51" s="29"/>
       <c r="C51" s="7" t="s">
         <v>12</v>
       </c>
@@ -3124,22 +3125,22 @@
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
       <c r="K51" s="20"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="27"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="27"/>
-      <c r="P51" s="27"/>
-      <c r="Q51" s="27"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="30"/>
+      <c r="P51" s="30"/>
+      <c r="Q51" s="30"/>
       <c r="R51" s="15"/>
-      <c r="S51" s="27"/>
-      <c r="T51" s="27"/>
-      <c r="U51" s="27"/>
-      <c r="V51" s="27"/>
-      <c r="W51" s="27"/>
-      <c r="X51" s="27"/>
+      <c r="S51" s="30"/>
+      <c r="T51" s="30"/>
+      <c r="U51" s="30"/>
+      <c r="V51" s="30"/>
+      <c r="W51" s="30"/>
+      <c r="X51" s="30"/>
     </row>
     <row r="52" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="30"/>
+      <c r="B52" s="29"/>
       <c r="C52" s="7" t="s">
         <v>13</v>
       </c>
@@ -3159,22 +3160,22 @@
       <c r="I52" s="20"/>
       <c r="J52" s="20"/>
       <c r="K52" s="20"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="27"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="27"/>
-      <c r="P52" s="27"/>
-      <c r="Q52" s="27"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="30"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="30"/>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="30"/>
       <c r="R52" s="15"/>
-      <c r="S52" s="27"/>
-      <c r="T52" s="27"/>
-      <c r="U52" s="27"/>
-      <c r="V52" s="27"/>
-      <c r="W52" s="27"/>
-      <c r="X52" s="27"/>
+      <c r="S52" s="30"/>
+      <c r="T52" s="30"/>
+      <c r="U52" s="30"/>
+      <c r="V52" s="30"/>
+      <c r="W52" s="30"/>
+      <c r="X52" s="30"/>
     </row>
     <row r="53" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="30"/>
+      <c r="B53" s="29"/>
       <c r="C53" s="7" t="s">
         <v>14</v>
       </c>
@@ -3194,22 +3195,22 @@
       <c r="I53" s="20"/>
       <c r="J53" s="20"/>
       <c r="K53" s="20"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="27"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="27"/>
-      <c r="P53" s="27"/>
-      <c r="Q53" s="27"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="30"/>
       <c r="R53" s="15"/>
-      <c r="S53" s="27"/>
-      <c r="T53" s="27"/>
-      <c r="U53" s="27"/>
-      <c r="V53" s="27"/>
-      <c r="W53" s="27"/>
-      <c r="X53" s="27"/>
+      <c r="S53" s="30"/>
+      <c r="T53" s="30"/>
+      <c r="U53" s="30"/>
+      <c r="V53" s="30"/>
+      <c r="W53" s="30"/>
+      <c r="X53" s="30"/>
     </row>
     <row r="54" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="30"/>
+      <c r="B54" s="29"/>
       <c r="C54" s="7" t="s">
         <v>15</v>
       </c>
@@ -3229,22 +3230,22 @@
       <c r="I54" s="20"/>
       <c r="J54" s="20"/>
       <c r="K54" s="20"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="27"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="27"/>
-      <c r="P54" s="27"/>
-      <c r="Q54" s="27"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="30"/>
+      <c r="N54" s="30"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="30"/>
+      <c r="Q54" s="30"/>
       <c r="R54" s="15"/>
-      <c r="S54" s="27"/>
-      <c r="T54" s="27"/>
-      <c r="U54" s="27"/>
-      <c r="V54" s="27"/>
-      <c r="W54" s="27"/>
-      <c r="X54" s="27"/>
+      <c r="S54" s="30"/>
+      <c r="T54" s="30"/>
+      <c r="U54" s="30"/>
+      <c r="V54" s="30"/>
+      <c r="W54" s="30"/>
+      <c r="X54" s="30"/>
     </row>
     <row r="55" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="30"/>
+      <c r="B55" s="29"/>
       <c r="C55" s="7" t="s">
         <v>16</v>
       </c>
@@ -3264,22 +3265,22 @@
       <c r="I55" s="20"/>
       <c r="J55" s="20"/>
       <c r="K55" s="20"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="27"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="27"/>
-      <c r="P55" s="27"/>
-      <c r="Q55" s="27"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="30"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="30"/>
+      <c r="Q55" s="30"/>
       <c r="R55" s="15"/>
-      <c r="S55" s="27"/>
-      <c r="T55" s="27"/>
-      <c r="U55" s="27"/>
-      <c r="V55" s="27"/>
-      <c r="W55" s="27"/>
-      <c r="X55" s="27"/>
+      <c r="S55" s="30"/>
+      <c r="T55" s="30"/>
+      <c r="U55" s="30"/>
+      <c r="V55" s="30"/>
+      <c r="W55" s="30"/>
+      <c r="X55" s="30"/>
     </row>
     <row r="56" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="30"/>
+      <c r="B56" s="29"/>
       <c r="C56" s="7" t="s">
         <v>17</v>
       </c>
@@ -3299,22 +3300,22 @@
       <c r="I56" s="20"/>
       <c r="J56" s="20"/>
       <c r="K56" s="20"/>
-      <c r="L56" s="27"/>
-      <c r="M56" s="27"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="27"/>
-      <c r="P56" s="27"/>
-      <c r="Q56" s="27"/>
+      <c r="L56" s="30"/>
+      <c r="M56" s="30"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="30"/>
       <c r="R56" s="15"/>
-      <c r="S56" s="27"/>
-      <c r="T56" s="27"/>
-      <c r="U56" s="27"/>
-      <c r="V56" s="27"/>
-      <c r="W56" s="27"/>
-      <c r="X56" s="27"/>
+      <c r="S56" s="30"/>
+      <c r="T56" s="30"/>
+      <c r="U56" s="30"/>
+      <c r="V56" s="30"/>
+      <c r="W56" s="30"/>
+      <c r="X56" s="30"/>
     </row>
     <row r="57" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="30"/>
+      <c r="B57" s="29"/>
       <c r="C57" s="21" t="s">
         <v>18</v>
       </c>
@@ -3334,22 +3335,22 @@
       <c r="I57" s="20"/>
       <c r="J57" s="20"/>
       <c r="K57" s="20"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="27"/>
-      <c r="N57" s="27"/>
-      <c r="O57" s="27"/>
-      <c r="P57" s="27"/>
-      <c r="Q57" s="27"/>
+      <c r="L57" s="30"/>
+      <c r="M57" s="30"/>
+      <c r="N57" s="30"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="30"/>
+      <c r="Q57" s="30"/>
       <c r="R57" s="15"/>
-      <c r="S57" s="27"/>
-      <c r="T57" s="27"/>
-      <c r="U57" s="27"/>
-      <c r="V57" s="27"/>
-      <c r="W57" s="27"/>
-      <c r="X57" s="27"/>
+      <c r="S57" s="30"/>
+      <c r="T57" s="30"/>
+      <c r="U57" s="30"/>
+      <c r="V57" s="30"/>
+      <c r="W57" s="30"/>
+      <c r="X57" s="30"/>
     </row>
     <row r="58" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="30">
+      <c r="B58" s="29">
         <v>1000</v>
       </c>
       <c r="C58" s="18" t="s">
@@ -3418,7 +3419,7 @@
       </c>
     </row>
     <row r="59" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="30"/>
+      <c r="B59" s="29"/>
       <c r="C59" s="7" t="s">
         <v>9</v>
       </c>
@@ -3442,58 +3443,58 @@
       <c r="K59" s="20">
         <v>452.613779275262</v>
       </c>
-      <c r="L59" s="27">
+      <c r="L59" s="30">
         <f>AVERAGE(D59:D68,F59:F68,H59:H68,J59:J68)</f>
         <v>242.06378208796158</v>
       </c>
-      <c r="M59" s="27">
+      <c r="M59" s="30">
         <f>MIN(D59:D68,F59:F68,H59:H68,J59:J68)</f>
         <v>27.254004240036</v>
       </c>
-      <c r="N59" s="27">
+      <c r="N59" s="30">
         <f>MAX(D59:D68,F59:F68,H59:H68,J59:J68)</f>
         <v>616.38961219787598</v>
       </c>
-      <c r="O59" s="27">
+      <c r="O59" s="30">
         <f>MEDIAN(D59:D68,F59:F68,H59:H68,J59:J68)</f>
         <v>112.089841008186</v>
       </c>
-      <c r="P59" s="27">
+      <c r="P59" s="30">
         <f>VAR(D59:D68,F59:F68,H59:H68,J59:J68)</f>
         <v>63055.865526861322</v>
       </c>
-      <c r="Q59" s="27">
+      <c r="Q59" s="30">
         <f>_xlfn.STDEV.S(D59:D68,F59:F68,H59:H68,J59:J68)</f>
         <v>251.10927009344223</v>
       </c>
       <c r="R59" s="15"/>
-      <c r="S59" s="27">
+      <c r="S59" s="30">
         <f>AVERAGE(E59:E68,G59:G68,I59:I68,K59:K68)</f>
         <v>461.84014244810197</v>
       </c>
-      <c r="T59" s="27">
+      <c r="T59" s="30">
         <f>MIN(E59:E68,G59:G68,I59:I68,K59:K68)</f>
         <v>429.15289325320498</v>
       </c>
-      <c r="U59" s="27">
+      <c r="U59" s="30">
         <f>MAX(E59:E68,G59:G68,I59:I68,K59:K68)</f>
         <v>490.86805243450198</v>
       </c>
-      <c r="V59" s="27">
+      <c r="V59" s="30">
         <f>MEDIAN(E59:E68,G59:G68,I59:I68,K59:K68)</f>
         <v>459.9764869864735</v>
       </c>
-      <c r="W59" s="27">
+      <c r="W59" s="30">
         <f>VAR(E59:E68,G59:G68,I59:I68,K59:K68)</f>
         <v>248.37041504574566</v>
       </c>
-      <c r="X59" s="27">
+      <c r="X59" s="30">
         <f>_xlfn.STDEV.S(E59:E68,G59:G68,I59:I68,K59:K68)</f>
         <v>15.759772049295181</v>
       </c>
     </row>
     <row r="60" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="30"/>
+      <c r="B60" s="29"/>
       <c r="C60" s="7" t="s">
         <v>10</v>
       </c>
@@ -3517,22 +3518,22 @@
       <c r="K60" s="20">
         <v>440.399679180943</v>
       </c>
-      <c r="L60" s="27"/>
-      <c r="M60" s="27"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="27"/>
-      <c r="P60" s="27"/>
-      <c r="Q60" s="27"/>
+      <c r="L60" s="30"/>
+      <c r="M60" s="30"/>
+      <c r="N60" s="30"/>
+      <c r="O60" s="30"/>
+      <c r="P60" s="30"/>
+      <c r="Q60" s="30"/>
       <c r="R60" s="15"/>
-      <c r="S60" s="27"/>
-      <c r="T60" s="27"/>
-      <c r="U60" s="27"/>
-      <c r="V60" s="27"/>
-      <c r="W60" s="27"/>
-      <c r="X60" s="27"/>
+      <c r="S60" s="30"/>
+      <c r="T60" s="30"/>
+      <c r="U60" s="30"/>
+      <c r="V60" s="30"/>
+      <c r="W60" s="30"/>
+      <c r="X60" s="30"/>
     </row>
     <row r="61" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="30"/>
+      <c r="B61" s="29"/>
       <c r="C61" s="7" t="s">
         <v>11</v>
       </c>
@@ -3556,22 +3557,22 @@
       <c r="K61" s="20">
         <v>429.15289325320498</v>
       </c>
-      <c r="L61" s="27"/>
-      <c r="M61" s="27"/>
-      <c r="N61" s="27"/>
-      <c r="O61" s="27"/>
-      <c r="P61" s="27"/>
-      <c r="Q61" s="27"/>
+      <c r="L61" s="30"/>
+      <c r="M61" s="30"/>
+      <c r="N61" s="30"/>
+      <c r="O61" s="30"/>
+      <c r="P61" s="30"/>
+      <c r="Q61" s="30"/>
       <c r="R61" s="15"/>
-      <c r="S61" s="27"/>
-      <c r="T61" s="27"/>
-      <c r="U61" s="27"/>
-      <c r="V61" s="27"/>
-      <c r="W61" s="27"/>
-      <c r="X61" s="27"/>
+      <c r="S61" s="30"/>
+      <c r="T61" s="30"/>
+      <c r="U61" s="30"/>
+      <c r="V61" s="30"/>
+      <c r="W61" s="30"/>
+      <c r="X61" s="30"/>
     </row>
     <row r="62" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="30"/>
+      <c r="B62" s="29"/>
       <c r="C62" s="7" t="s">
         <v>12</v>
       </c>
@@ -3595,22 +3596,22 @@
       <c r="K62" s="20">
         <v>442.03793630006697</v>
       </c>
-      <c r="L62" s="27"/>
-      <c r="M62" s="27"/>
-      <c r="N62" s="27"/>
-      <c r="O62" s="27"/>
-      <c r="P62" s="27"/>
-      <c r="Q62" s="27"/>
+      <c r="L62" s="30"/>
+      <c r="M62" s="30"/>
+      <c r="N62" s="30"/>
+      <c r="O62" s="30"/>
+      <c r="P62" s="30"/>
+      <c r="Q62" s="30"/>
       <c r="R62" s="15"/>
-      <c r="S62" s="27"/>
-      <c r="T62" s="27"/>
-      <c r="U62" s="27"/>
-      <c r="V62" s="27"/>
-      <c r="W62" s="27"/>
-      <c r="X62" s="27"/>
+      <c r="S62" s="30"/>
+      <c r="T62" s="30"/>
+      <c r="U62" s="30"/>
+      <c r="V62" s="30"/>
+      <c r="W62" s="30"/>
+      <c r="X62" s="30"/>
     </row>
     <row r="63" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="30"/>
+      <c r="B63" s="29"/>
       <c r="C63" s="7" t="s">
         <v>13</v>
       </c>
@@ -3634,22 +3635,22 @@
       <c r="K63" s="20">
         <v>449.90797469645702</v>
       </c>
-      <c r="L63" s="27"/>
-      <c r="M63" s="27"/>
-      <c r="N63" s="27"/>
-      <c r="O63" s="27"/>
-      <c r="P63" s="27"/>
-      <c r="Q63" s="27"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="30"/>
+      <c r="N63" s="30"/>
+      <c r="O63" s="30"/>
+      <c r="P63" s="30"/>
+      <c r="Q63" s="30"/>
       <c r="R63" s="15"/>
-      <c r="S63" s="27"/>
-      <c r="T63" s="27"/>
-      <c r="U63" s="27"/>
-      <c r="V63" s="27"/>
-      <c r="W63" s="27"/>
-      <c r="X63" s="27"/>
+      <c r="S63" s="30"/>
+      <c r="T63" s="30"/>
+      <c r="U63" s="30"/>
+      <c r="V63" s="30"/>
+      <c r="W63" s="30"/>
+      <c r="X63" s="30"/>
     </row>
     <row r="64" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="30"/>
+      <c r="B64" s="29"/>
       <c r="C64" s="7" t="s">
         <v>14</v>
       </c>
@@ -3673,22 +3674,22 @@
       <c r="K64" s="20">
         <v>451.53588037137399</v>
       </c>
-      <c r="L64" s="27"/>
-      <c r="M64" s="27"/>
-      <c r="N64" s="27"/>
-      <c r="O64" s="27"/>
-      <c r="P64" s="27"/>
-      <c r="Q64" s="27"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="30"/>
+      <c r="N64" s="30"/>
+      <c r="O64" s="30"/>
+      <c r="P64" s="30"/>
+      <c r="Q64" s="30"/>
       <c r="R64" s="15"/>
-      <c r="S64" s="27"/>
-      <c r="T64" s="27"/>
-      <c r="U64" s="27"/>
-      <c r="V64" s="27"/>
-      <c r="W64" s="27"/>
-      <c r="X64" s="27"/>
+      <c r="S64" s="30"/>
+      <c r="T64" s="30"/>
+      <c r="U64" s="30"/>
+      <c r="V64" s="30"/>
+      <c r="W64" s="30"/>
+      <c r="X64" s="30"/>
     </row>
     <row r="65" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="30"/>
+      <c r="B65" s="29"/>
       <c r="C65" s="7" t="s">
         <v>15</v>
       </c>
@@ -3712,22 +3713,22 @@
       <c r="K65" s="20">
         <v>443.97298556984998</v>
       </c>
-      <c r="L65" s="27"/>
-      <c r="M65" s="27"/>
-      <c r="N65" s="27"/>
-      <c r="O65" s="27"/>
-      <c r="P65" s="27"/>
-      <c r="Q65" s="27"/>
+      <c r="L65" s="30"/>
+      <c r="M65" s="30"/>
+      <c r="N65" s="30"/>
+      <c r="O65" s="30"/>
+      <c r="P65" s="30"/>
+      <c r="Q65" s="30"/>
       <c r="R65" s="15"/>
-      <c r="S65" s="27"/>
-      <c r="T65" s="27"/>
-      <c r="U65" s="27"/>
-      <c r="V65" s="27"/>
-      <c r="W65" s="27"/>
-      <c r="X65" s="27"/>
+      <c r="S65" s="30"/>
+      <c r="T65" s="30"/>
+      <c r="U65" s="30"/>
+      <c r="V65" s="30"/>
+      <c r="W65" s="30"/>
+      <c r="X65" s="30"/>
     </row>
     <row r="66" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="30"/>
+      <c r="B66" s="29"/>
       <c r="C66" s="7" t="s">
         <v>16</v>
       </c>
@@ -3751,22 +3752,22 @@
       <c r="K66" s="20">
         <v>449.90666773779901</v>
       </c>
-      <c r="L66" s="27"/>
-      <c r="M66" s="27"/>
-      <c r="N66" s="27"/>
-      <c r="O66" s="27"/>
-      <c r="P66" s="27"/>
-      <c r="Q66" s="27"/>
+      <c r="L66" s="30"/>
+      <c r="M66" s="30"/>
+      <c r="N66" s="30"/>
+      <c r="O66" s="30"/>
+      <c r="P66" s="30"/>
+      <c r="Q66" s="30"/>
       <c r="R66" s="15"/>
-      <c r="S66" s="27"/>
-      <c r="T66" s="27"/>
-      <c r="U66" s="27"/>
-      <c r="V66" s="27"/>
-      <c r="W66" s="27"/>
-      <c r="X66" s="27"/>
+      <c r="S66" s="30"/>
+      <c r="T66" s="30"/>
+      <c r="U66" s="30"/>
+      <c r="V66" s="30"/>
+      <c r="W66" s="30"/>
+      <c r="X66" s="30"/>
     </row>
     <row r="67" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="30"/>
+      <c r="B67" s="29"/>
       <c r="C67" s="7" t="s">
         <v>17</v>
       </c>
@@ -3790,22 +3791,22 @@
       <c r="K67" s="20">
         <v>449.71886039304297</v>
       </c>
-      <c r="L67" s="27"/>
-      <c r="M67" s="27"/>
-      <c r="N67" s="27"/>
-      <c r="O67" s="27"/>
-      <c r="P67" s="27"/>
-      <c r="Q67" s="27"/>
+      <c r="L67" s="30"/>
+      <c r="M67" s="30"/>
+      <c r="N67" s="30"/>
+      <c r="O67" s="30"/>
+      <c r="P67" s="30"/>
+      <c r="Q67" s="30"/>
       <c r="R67" s="15"/>
-      <c r="S67" s="27"/>
-      <c r="T67" s="27"/>
-      <c r="U67" s="27"/>
-      <c r="V67" s="27"/>
-      <c r="W67" s="27"/>
-      <c r="X67" s="27"/>
+      <c r="S67" s="30"/>
+      <c r="T67" s="30"/>
+      <c r="U67" s="30"/>
+      <c r="V67" s="30"/>
+      <c r="W67" s="30"/>
+      <c r="X67" s="30"/>
     </row>
     <row r="68" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="30"/>
+      <c r="B68" s="29"/>
       <c r="C68" s="21" t="s">
         <v>18</v>
       </c>
@@ -3829,22 +3830,22 @@
       <c r="K68" s="20">
         <v>444.79255281414299</v>
       </c>
-      <c r="L68" s="27"/>
-      <c r="M68" s="27"/>
-      <c r="N68" s="27"/>
-      <c r="O68" s="27"/>
-      <c r="P68" s="27"/>
-      <c r="Q68" s="27"/>
+      <c r="L68" s="30"/>
+      <c r="M68" s="30"/>
+      <c r="N68" s="30"/>
+      <c r="O68" s="30"/>
+      <c r="P68" s="30"/>
+      <c r="Q68" s="30"/>
       <c r="R68" s="15"/>
-      <c r="S68" s="27"/>
-      <c r="T68" s="27"/>
-      <c r="U68" s="27"/>
-      <c r="V68" s="27"/>
-      <c r="W68" s="27"/>
-      <c r="X68" s="27"/>
+      <c r="S68" s="30"/>
+      <c r="T68" s="30"/>
+      <c r="U68" s="30"/>
+      <c r="V68" s="30"/>
+      <c r="W68" s="30"/>
+      <c r="X68" s="30"/>
     </row>
     <row r="69" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="28" t="s">
+      <c r="B69" s="33" t="s">
         <v>2</v>
       </c>
       <c r="C69" s="25"/>
@@ -3872,14 +3873,14 @@
       <c r="K69" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="L69" s="33" t="s">
+      <c r="L69" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="M69" s="33"/>
-      <c r="N69" s="33"/>
-      <c r="O69" s="33"/>
-      <c r="P69" s="34"/>
-      <c r="Q69" s="34"/>
+      <c r="M69" s="32"/>
+      <c r="N69" s="32"/>
+      <c r="O69" s="32"/>
+      <c r="P69" s="27"/>
+      <c r="Q69" s="27"/>
       <c r="R69" s="15"/>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
@@ -3890,7 +3891,7 @@
       <c r="Y69" s="1"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B70" s="28"/>
+      <c r="B70" s="33"/>
       <c r="C70" s="26" t="s">
         <v>26</v>
       </c>
@@ -3932,7 +3933,7 @@
       <c r="R70" s="12"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B71" s="28"/>
+      <c r="B71" s="33"/>
       <c r="C71" s="26" t="s">
         <v>3</v>
       </c>
@@ -3974,7 +3975,7 @@
       <c r="R71" s="12"/>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B72" s="28"/>
+      <c r="B72" s="33"/>
       <c r="C72" s="26" t="s">
         <v>4</v>
       </c>
@@ -4016,7 +4017,7 @@
       <c r="R72" s="12"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B73" s="28"/>
+      <c r="B73" s="33"/>
       <c r="C73" s="26" t="s">
         <v>27</v>
       </c>
@@ -4061,7 +4062,7 @@
       <c r="R73" s="12"/>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B74" s="28"/>
+      <c r="B74" s="33"/>
       <c r="C74" s="26" t="s">
         <v>5</v>
       </c>
@@ -4082,7 +4083,7 @@
       <c r="R74" s="12"/>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B75" s="28"/>
+      <c r="B75" s="33"/>
       <c r="C75" s="26" t="s">
         <v>6</v>
       </c>
@@ -4103,7 +4104,7 @@
       <c r="R75" s="12"/>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B76" s="28"/>
+      <c r="B76" s="33"/>
       <c r="C76" s="26" t="s">
         <v>7</v>
       </c>
@@ -4148,7 +4149,7 @@
       <c r="R76" s="12"/>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B77" s="28"/>
+      <c r="B77" s="33"/>
       <c r="C77" s="26" t="s">
         <v>28</v>
       </c>
@@ -4221,114 +4222,121 @@
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="31"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="35"/>
       <c r="O80" s="12"/>
       <c r="P80" s="12"/>
       <c r="Q80" s="12"/>
       <c r="R80" s="12"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81" s="7"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="15"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="15"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="15"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="15"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B88" s="7"/>
       <c r="C88" s="15"/>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="8"/>
       <c r="D90" s="31"/>
       <c r="E90" s="31"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="8"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="8"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="8"/>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="8"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="8"/>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="8"/>
@@ -4349,47 +4357,45 @@
       <c r="E98" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="90">
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B36:B46"/>
-    <mergeCell ref="B47:B57"/>
-    <mergeCell ref="B58:B68"/>
-    <mergeCell ref="L4:L13"/>
-    <mergeCell ref="M4:M13"/>
-    <mergeCell ref="N4:N13"/>
-    <mergeCell ref="O4:O13"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="L69:O69"/>
-    <mergeCell ref="P4:P13"/>
-    <mergeCell ref="Q4:Q13"/>
-    <mergeCell ref="L2:Q2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B3:B13"/>
-    <mergeCell ref="B14:B24"/>
-    <mergeCell ref="B26:B35"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L15:L24"/>
-    <mergeCell ref="M15:M24"/>
-    <mergeCell ref="N15:N24"/>
-    <mergeCell ref="O15:O24"/>
-    <mergeCell ref="P15:P24"/>
-    <mergeCell ref="Q15:Q24"/>
-    <mergeCell ref="L26:L35"/>
-    <mergeCell ref="M26:M35"/>
-    <mergeCell ref="N26:N35"/>
-    <mergeCell ref="O26:O35"/>
-    <mergeCell ref="P26:P35"/>
-    <mergeCell ref="Q26:Q35"/>
-    <mergeCell ref="L37:L46"/>
-    <mergeCell ref="M37:M46"/>
-    <mergeCell ref="N37:N46"/>
-    <mergeCell ref="O37:O46"/>
-    <mergeCell ref="P37:P46"/>
-    <mergeCell ref="Q37:Q46"/>
+  <mergeCells count="89">
+    <mergeCell ref="W59:W68"/>
+    <mergeCell ref="X59:X68"/>
+    <mergeCell ref="B69:B77"/>
+    <mergeCell ref="S59:S68"/>
+    <mergeCell ref="T59:T68"/>
+    <mergeCell ref="U59:U68"/>
+    <mergeCell ref="V59:V68"/>
+    <mergeCell ref="W37:W46"/>
+    <mergeCell ref="X37:X46"/>
+    <mergeCell ref="S48:S57"/>
+    <mergeCell ref="T48:T57"/>
+    <mergeCell ref="U48:U57"/>
+    <mergeCell ref="V48:V57"/>
+    <mergeCell ref="W48:W57"/>
+    <mergeCell ref="X48:X57"/>
+    <mergeCell ref="S37:S46"/>
+    <mergeCell ref="T37:T46"/>
+    <mergeCell ref="U37:U46"/>
+    <mergeCell ref="V37:V46"/>
+    <mergeCell ref="W15:W24"/>
+    <mergeCell ref="X15:X24"/>
+    <mergeCell ref="S26:S35"/>
+    <mergeCell ref="T26:T35"/>
+    <mergeCell ref="U26:U35"/>
+    <mergeCell ref="V26:V35"/>
+    <mergeCell ref="W26:W35"/>
+    <mergeCell ref="X26:X35"/>
+    <mergeCell ref="S15:S24"/>
+    <mergeCell ref="T15:T24"/>
+    <mergeCell ref="U15:U24"/>
+    <mergeCell ref="V15:V24"/>
+    <mergeCell ref="S2:X2"/>
+    <mergeCell ref="S4:S13"/>
+    <mergeCell ref="T4:T13"/>
+    <mergeCell ref="U4:U13"/>
+    <mergeCell ref="V4:V13"/>
+    <mergeCell ref="W4:W13"/>
+    <mergeCell ref="X4:X13"/>
     <mergeCell ref="P48:P57"/>
     <mergeCell ref="Q48:Q57"/>
     <mergeCell ref="L59:L68"/>
@@ -4402,44 +4408,45 @@
     <mergeCell ref="M48:M57"/>
     <mergeCell ref="N48:N57"/>
     <mergeCell ref="O48:O57"/>
-    <mergeCell ref="S2:X2"/>
-    <mergeCell ref="S4:S13"/>
-    <mergeCell ref="T4:T13"/>
-    <mergeCell ref="U4:U13"/>
-    <mergeCell ref="V4:V13"/>
-    <mergeCell ref="W4:W13"/>
-    <mergeCell ref="X4:X13"/>
-    <mergeCell ref="W15:W24"/>
-    <mergeCell ref="X15:X24"/>
-    <mergeCell ref="S26:S35"/>
-    <mergeCell ref="T26:T35"/>
-    <mergeCell ref="U26:U35"/>
-    <mergeCell ref="V26:V35"/>
-    <mergeCell ref="W26:W35"/>
-    <mergeCell ref="X26:X35"/>
-    <mergeCell ref="S15:S24"/>
-    <mergeCell ref="T15:T24"/>
-    <mergeCell ref="U15:U24"/>
-    <mergeCell ref="V15:V24"/>
-    <mergeCell ref="W37:W46"/>
-    <mergeCell ref="X37:X46"/>
-    <mergeCell ref="S48:S57"/>
-    <mergeCell ref="T48:T57"/>
-    <mergeCell ref="U48:U57"/>
-    <mergeCell ref="V48:V57"/>
-    <mergeCell ref="W48:W57"/>
-    <mergeCell ref="X48:X57"/>
-    <mergeCell ref="S37:S46"/>
-    <mergeCell ref="T37:T46"/>
-    <mergeCell ref="U37:U46"/>
-    <mergeCell ref="V37:V46"/>
-    <mergeCell ref="W59:W68"/>
-    <mergeCell ref="X59:X68"/>
-    <mergeCell ref="B69:B77"/>
-    <mergeCell ref="S59:S68"/>
-    <mergeCell ref="T59:T68"/>
-    <mergeCell ref="U59:U68"/>
-    <mergeCell ref="V59:V68"/>
+    <mergeCell ref="P26:P35"/>
+    <mergeCell ref="Q26:Q35"/>
+    <mergeCell ref="L37:L46"/>
+    <mergeCell ref="M37:M46"/>
+    <mergeCell ref="N37:N46"/>
+    <mergeCell ref="O37:O46"/>
+    <mergeCell ref="P37:P46"/>
+    <mergeCell ref="Q37:Q46"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="L69:O69"/>
+    <mergeCell ref="P4:P13"/>
+    <mergeCell ref="Q4:Q13"/>
+    <mergeCell ref="L2:Q2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L15:L24"/>
+    <mergeCell ref="M15:M24"/>
+    <mergeCell ref="N15:N24"/>
+    <mergeCell ref="O15:O24"/>
+    <mergeCell ref="P15:P24"/>
+    <mergeCell ref="Q15:Q24"/>
+    <mergeCell ref="L26:L35"/>
+    <mergeCell ref="L4:L13"/>
+    <mergeCell ref="M4:M13"/>
+    <mergeCell ref="N4:N13"/>
+    <mergeCell ref="O4:O13"/>
+    <mergeCell ref="M26:M35"/>
+    <mergeCell ref="N26:N35"/>
+    <mergeCell ref="O26:O35"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B36:B46"/>
+    <mergeCell ref="B47:B57"/>
+    <mergeCell ref="B58:B68"/>
+    <mergeCell ref="B3:B13"/>
+    <mergeCell ref="B14:B24"/>
+    <mergeCell ref="B26:B35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4479,14 +4486,14 @@
         <v>21</v>
       </c>
       <c r="C1" s="7"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -4516,40 +4523,40 @@
         <v>22</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="29">
+      <c r="C2" s="34">
         <v>5</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29">
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34">
         <v>20</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29">
+      <c r="G2" s="34"/>
+      <c r="H2" s="34">
         <v>50</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29">
+      <c r="I2" s="34"/>
+      <c r="J2" s="34">
         <v>100</v>
       </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="28" t="s">
+      <c r="K2" s="34"/>
+      <c r="L2" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
       <c r="R2" s="14"/>
-      <c r="S2" s="28" t="s">
+      <c r="S2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
@@ -4563,7 +4570,7 @@
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="30">
+      <c r="B3" s="29">
         <v>50</v>
       </c>
       <c r="C3" s="18" t="s">
@@ -4643,7 +4650,7 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="30"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
@@ -4659,52 +4666,52 @@
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="27">
+      <c r="L4" s="30">
         <f>AVERAGE(D4:D13,F4:F13,H4:H13,J4:J13)</f>
         <v>88.252122879028263</v>
       </c>
-      <c r="M4" s="27">
+      <c r="M4" s="30">
         <f>MIN(D4:D13,F4:F13,H4:H13,J4:J13)</f>
         <v>83.680971145629798</v>
       </c>
-      <c r="N4" s="27">
+      <c r="N4" s="30">
         <f>MAX(D4:D13,F4:F13,H4:H13,J4:J13)</f>
         <v>91.546074390411306</v>
       </c>
-      <c r="O4" s="27">
+      <c r="O4" s="30">
         <f>MEDIAN(D4:D13,F4:F13,H4:H13,J4:J13)</f>
         <v>88.757582902908297</v>
       </c>
-      <c r="P4" s="27">
+      <c r="P4" s="30">
         <f>VAR(D4:D13,F4:F13,H4:H13,J4:J13)</f>
         <v>5.1977240625321901</v>
       </c>
-      <c r="Q4" s="27">
+      <c r="Q4" s="30">
         <f>_xlfn.STDEV.S(D4:D13,F4:F13,H4:H13,J4:J13)</f>
         <v>2.2798517632802775</v>
       </c>
       <c r="R4" s="22"/>
-      <c r="S4" s="27">
+      <c r="S4" s="30">
         <f>AVERAGE(E4:E13,G4:G13,I4:I13,K4:K13)</f>
         <v>4572.1837767978477</v>
       </c>
-      <c r="T4" s="27">
+      <c r="T4" s="30">
         <f>MIN(E4:E13,G4:G13,I4:I13,K4:K13)</f>
         <v>4408.5625956854401</v>
       </c>
-      <c r="U4" s="27">
+      <c r="U4" s="30">
         <f>MAX(E4:E13,G4:G13,I4:I13,K4:K13)</f>
         <v>4721.7645688300099</v>
       </c>
-      <c r="V4" s="27">
+      <c r="V4" s="30">
         <f>MEDIAN(E4:E13,G4:G13,I4:I13,K4:K13)</f>
         <v>4581.1399190534348</v>
       </c>
-      <c r="W4" s="27">
+      <c r="W4" s="30">
         <f>VAR(E4:E13,G4:G13,I4:I13,K4:K13)</f>
         <v>9362.3705908744341</v>
       </c>
-      <c r="X4" s="27">
+      <c r="X4" s="30">
         <f>_xlfn.STDEV.S(E4:E13,G4:G13,I4:I13,K4:K13)</f>
         <v>96.759343687699925</v>
       </c>
@@ -4721,7 +4728,7 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="30"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
@@ -4737,19 +4744,19 @@
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
       <c r="R5" s="22"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
@@ -4763,7 +4770,7 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="30"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
@@ -4779,19 +4786,19 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
       <c r="R6" s="22"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
@@ -4805,7 +4812,7 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="30"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
@@ -4821,19 +4828,19 @@
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
       <c r="R7" s="22"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
@@ -4847,7 +4854,7 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="30"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
@@ -4863,19 +4870,19 @@
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
       <c r="R8" s="22"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
@@ -4889,7 +4896,7 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="30"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
@@ -4905,19 +4912,19 @@
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
       <c r="R9" s="22"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
@@ -4931,7 +4938,7 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="30"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="7" t="s">
         <v>15</v>
       </c>
@@ -4947,19 +4954,19 @@
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
       <c r="R10" s="22"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
@@ -4973,7 +4980,7 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="30"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
@@ -4989,19 +4996,19 @@
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
       <c r="R11" s="22"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
@@ -5015,7 +5022,7 @@
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="30"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="7" t="s">
         <v>17</v>
       </c>
@@ -5031,19 +5038,19 @@
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
       <c r="R12" s="22"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
@@ -5057,7 +5064,7 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="30"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="7" t="s">
         <v>18</v>
       </c>
@@ -5073,19 +5080,19 @@
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
       <c r="R13" s="22"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
@@ -5099,7 +5106,7 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="30">
+      <c r="B14" s="29">
         <v>100</v>
       </c>
       <c r="C14" s="18" t="s">
@@ -5179,7 +5186,7 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="B15" s="30"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="7" t="s">
         <v>9</v>
       </c>
@@ -5191,52 +5198,52 @@
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="27" t="e">
+      <c r="L15" s="30" t="e">
         <f>AVERAGE(D15:D24,F15:F24,H15:H24,J15:J24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M15" s="27">
+      <c r="M15" s="30">
         <f>MIN(D15:D24,F15:F24,H15:H24,J15:J24)</f>
         <v>0</v>
       </c>
-      <c r="N15" s="27">
+      <c r="N15" s="30">
         <f>MAX(D15:D24,F15:F24,H15:H24,J15:J24)</f>
         <v>0</v>
       </c>
-      <c r="O15" s="27" t="e">
+      <c r="O15" s="30" t="e">
         <f>MEDIAN(D15:D24,F15:F24,H15:H24,J15:J24)</f>
         <v>#NUM!</v>
       </c>
-      <c r="P15" s="27" t="e">
+      <c r="P15" s="30" t="e">
         <f>VAR(D15:D24,F15:F24,H15:H24,J15:J24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q15" s="27" t="e">
+      <c r="Q15" s="30" t="e">
         <f>_xlfn.STDEV.S(D15:D24,F15:F24,H15:H24,J15:J24)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R15" s="22"/>
-      <c r="S15" s="27" t="e">
+      <c r="S15" s="30" t="e">
         <f>AVERAGE(E15:E24,G15:G24,I15:I24,K15:K24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T15" s="27">
+      <c r="T15" s="30">
         <f>MIN(E15:E24,G15:G24,I15:I24,K15:K24)</f>
         <v>0</v>
       </c>
-      <c r="U15" s="27">
+      <c r="U15" s="30">
         <f>MAX(E15:E24,G15:G24,I15:I24,K15:K24)</f>
         <v>0</v>
       </c>
-      <c r="V15" s="27" t="e">
+      <c r="V15" s="30" t="e">
         <f>MEDIAN(E15:E24,G15:G24,I15:I24,K15:K24)</f>
         <v>#NUM!</v>
       </c>
-      <c r="W15" s="27" t="e">
+      <c r="W15" s="30" t="e">
         <f>VAR(E15:E24,G15:G24,I15:I24,K15:K24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X15" s="27" t="e">
+      <c r="X15" s="30" t="e">
         <f>_xlfn.STDEV.S(E15:E24,G15:G24,I15:I24,K15:K24)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5253,7 +5260,7 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="30"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="7" t="s">
         <v>10</v>
       </c>
@@ -5265,19 +5272,19 @@
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
       <c r="R16" s="22"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
@@ -5291,7 +5298,7 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" s="30"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="7" t="s">
         <v>11</v>
       </c>
@@ -5303,19 +5310,19 @@
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
       <c r="R17" s="22"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="27"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
@@ -5329,7 +5336,7 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
-      <c r="B18" s="30"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="7" t="s">
         <v>12</v>
       </c>
@@ -5341,19 +5348,19 @@
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
       <c r="R18" s="22"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
-      <c r="X18" s="27"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
@@ -5367,7 +5374,7 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
-      <c r="B19" s="30"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="7" t="s">
         <v>13</v>
       </c>
@@ -5379,19 +5386,19 @@
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
       <c r="R19" s="22"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
@@ -5405,7 +5412,7 @@
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
-      <c r="B20" s="30"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="7" t="s">
         <v>14</v>
       </c>
@@ -5417,19 +5424,19 @@
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
       <c r="R20" s="22"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="27"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
@@ -5443,7 +5450,7 @@
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
-      <c r="B21" s="30"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="7" t="s">
         <v>15</v>
       </c>
@@ -5455,19 +5462,19 @@
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
       <c r="R21" s="22"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="27"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
@@ -5481,7 +5488,7 @@
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
-      <c r="B22" s="30"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="7" t="s">
         <v>16</v>
       </c>
@@ -5493,19 +5500,19 @@
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
       <c r="R22" s="22"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="27"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
@@ -5519,7 +5526,7 @@
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
-      <c r="B23" s="30"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="7" t="s">
         <v>17</v>
       </c>
@@ -5531,19 +5538,19 @@
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
       <c r="R23" s="22"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
       <c r="AA23" s="7"/>
@@ -5557,7 +5564,7 @@
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
-      <c r="B24" s="30"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="7" t="s">
         <v>18</v>
       </c>
@@ -5569,19 +5576,19 @@
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
       <c r="R24" s="22"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
@@ -5673,7 +5680,7 @@
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
-      <c r="B26" s="30">
+      <c r="B26" s="29">
         <v>250</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -5687,52 +5694,52 @@
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
-      <c r="L26" s="27" t="e">
+      <c r="L26" s="30" t="e">
         <f>AVERAGE(D26:D35,F26:F35,H26:H35,J26:J35)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M26" s="27">
+      <c r="M26" s="30">
         <f>MIN(D26:D35,F26:F35,H26:H35,J26:J35)</f>
         <v>0</v>
       </c>
-      <c r="N26" s="27">
+      <c r="N26" s="30">
         <f>MAX(D26:D35,F26:F35,H26:H35,J26:J35)</f>
         <v>0</v>
       </c>
-      <c r="O26" s="27" t="e">
+      <c r="O26" s="30" t="e">
         <f>MEDIAN(D26:D35,F26:F35,H26:H35,J26:J35)</f>
         <v>#NUM!</v>
       </c>
-      <c r="P26" s="27" t="e">
+      <c r="P26" s="30" t="e">
         <f>VAR(D26:D35,F26:F35,H26:H35,J26:J35)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q26" s="27" t="e">
+      <c r="Q26" s="30" t="e">
         <f>_xlfn.STDEV.S(D26:D35,F26:F35,H26:H35,J26:J35)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R26" s="22"/>
-      <c r="S26" s="27" t="e">
+      <c r="S26" s="30" t="e">
         <f>AVERAGE(E26:E35,G26:G35,I26:I35,K26:K35)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T26" s="27">
+      <c r="T26" s="30">
         <f>MIN(E26:E35,G26:G35,I26:I35,K26:K35)</f>
         <v>0</v>
       </c>
-      <c r="U26" s="27">
+      <c r="U26" s="30">
         <f>MAX(E26:E35,G26:G35,I26:I35,K26:K35)</f>
         <v>0</v>
       </c>
-      <c r="V26" s="27" t="e">
+      <c r="V26" s="30" t="e">
         <f>MEDIAN(E26:E35,G26:G35,I26:I35,K26:K35)</f>
         <v>#NUM!</v>
       </c>
-      <c r="W26" s="27" t="e">
+      <c r="W26" s="30" t="e">
         <f>VAR(E26:E35,G26:G35,I26:I35,K26:K35)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X26" s="27" t="e">
+      <c r="X26" s="30" t="e">
         <f>_xlfn.STDEV.S(E26:E35,G26:G35,I26:I35,K26:K35)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5749,7 +5756,7 @@
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
-      <c r="B27" s="30"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="7" t="s">
         <v>10</v>
       </c>
@@ -5761,19 +5768,19 @@
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
       <c r="R27" s="22"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="27"/>
-      <c r="W27" s="27"/>
-      <c r="X27" s="27"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="30"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
       <c r="AA27" s="7"/>
@@ -5787,7 +5794,7 @@
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
-      <c r="B28" s="30"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="7" t="s">
         <v>11</v>
       </c>
@@ -5799,19 +5806,19 @@
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
       <c r="R28" s="22"/>
-      <c r="S28" s="27"/>
-      <c r="T28" s="27"/>
-      <c r="U28" s="27"/>
-      <c r="V28" s="27"/>
-      <c r="W28" s="27"/>
-      <c r="X28" s="27"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
@@ -5825,7 +5832,7 @@
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
-      <c r="B29" s="30"/>
+      <c r="B29" s="29"/>
       <c r="C29" s="7" t="s">
         <v>12</v>
       </c>
@@ -5837,19 +5844,19 @@
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
       <c r="R29" s="22"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="27"/>
-      <c r="W29" s="27"/>
-      <c r="X29" s="27"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="30"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="7"/>
       <c r="AA29" s="7"/>
@@ -5863,7 +5870,7 @@
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
-      <c r="B30" s="30"/>
+      <c r="B30" s="29"/>
       <c r="C30" s="7" t="s">
         <v>13</v>
       </c>
@@ -5875,19 +5882,19 @@
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
       <c r="R30" s="22"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="27"/>
-      <c r="W30" s="27"/>
-      <c r="X30" s="27"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
@@ -5901,7 +5908,7 @@
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
-      <c r="B31" s="30"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="7" t="s">
         <v>14</v>
       </c>
@@ -5913,19 +5920,19 @@
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
       <c r="R31" s="22"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="27"/>
-      <c r="W31" s="27"/>
-      <c r="X31" s="27"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="30"/>
+      <c r="V31" s="30"/>
+      <c r="W31" s="30"/>
+      <c r="X31" s="30"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
       <c r="AA31" s="7"/>
@@ -5939,7 +5946,7 @@
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
-      <c r="B32" s="30"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="7" t="s">
         <v>15</v>
       </c>
@@ -5951,19 +5958,19 @@
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
       <c r="R32" s="22"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="27"/>
-      <c r="U32" s="27"/>
-      <c r="V32" s="27"/>
-      <c r="W32" s="27"/>
-      <c r="X32" s="27"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="30"/>
+      <c r="V32" s="30"/>
+      <c r="W32" s="30"/>
+      <c r="X32" s="30"/>
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
       <c r="AA32" s="7"/>
@@ -5977,7 +5984,7 @@
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
-      <c r="B33" s="30"/>
+      <c r="B33" s="29"/>
       <c r="C33" s="7" t="s">
         <v>16</v>
       </c>
@@ -5989,19 +5996,19 @@
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
       <c r="R33" s="22"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="27"/>
-      <c r="U33" s="27"/>
-      <c r="V33" s="27"/>
-      <c r="W33" s="27"/>
-      <c r="X33" s="27"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="30"/>
+      <c r="U33" s="30"/>
+      <c r="V33" s="30"/>
+      <c r="W33" s="30"/>
+      <c r="X33" s="30"/>
       <c r="Y33" s="7"/>
       <c r="Z33" s="7"/>
       <c r="AA33" s="7"/>
@@ -6015,7 +6022,7 @@
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
-      <c r="B34" s="30"/>
+      <c r="B34" s="29"/>
       <c r="C34" s="7" t="s">
         <v>17</v>
       </c>
@@ -6027,19 +6034,19 @@
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="27"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
       <c r="R34" s="22"/>
-      <c r="S34" s="27"/>
-      <c r="T34" s="27"/>
-      <c r="U34" s="27"/>
-      <c r="V34" s="27"/>
-      <c r="W34" s="27"/>
-      <c r="X34" s="27"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="30"/>
+      <c r="U34" s="30"/>
+      <c r="V34" s="30"/>
+      <c r="W34" s="30"/>
+      <c r="X34" s="30"/>
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
@@ -6053,7 +6060,7 @@
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
-      <c r="B35" s="30"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="7" t="s">
         <v>18</v>
       </c>
@@ -6065,19 +6072,19 @@
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="27"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
       <c r="R35" s="22"/>
-      <c r="S35" s="27"/>
-      <c r="T35" s="27"/>
-      <c r="U35" s="27"/>
-      <c r="V35" s="27"/>
-      <c r="W35" s="27"/>
-      <c r="X35" s="27"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="30"/>
+      <c r="U35" s="30"/>
+      <c r="V35" s="30"/>
+      <c r="W35" s="30"/>
+      <c r="X35" s="30"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
       <c r="AA35" s="7"/>
@@ -6091,7 +6098,7 @@
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
-      <c r="B36" s="30">
+      <c r="B36" s="29">
         <v>500</v>
       </c>
       <c r="C36" s="18" t="s">
@@ -6171,7 +6178,7 @@
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
-      <c r="B37" s="30"/>
+      <c r="B37" s="29"/>
       <c r="C37" s="7" t="s">
         <v>9</v>
       </c>
@@ -6183,52 +6190,52 @@
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
-      <c r="L37" s="27" t="e">
+      <c r="L37" s="30" t="e">
         <f>AVERAGE(D37:D46,F37:F46,H37:H46,J37:J46)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M37" s="27">
+      <c r="M37" s="30">
         <f>MIN(D37:D46,F37:F46,H37:H46,J37:J46)</f>
         <v>0</v>
       </c>
-      <c r="N37" s="27">
+      <c r="N37" s="30">
         <f>MAX(D37:D46,F37:F46,H37:H46,J37:J46)</f>
         <v>0</v>
       </c>
-      <c r="O37" s="27" t="e">
+      <c r="O37" s="30" t="e">
         <f>MEDIAN(D37:D46,F37:F46,H37:H46,J37:J46)</f>
         <v>#NUM!</v>
       </c>
-      <c r="P37" s="27" t="e">
+      <c r="P37" s="30" t="e">
         <f>VAR(D37:D46,F37:F46,H37:H46,J37:J46)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q37" s="27" t="e">
+      <c r="Q37" s="30" t="e">
         <f>_xlfn.STDEV.S(D37:D46,F37:F46,H37:H46,J37:J46)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R37" s="22"/>
-      <c r="S37" s="27" t="e">
+      <c r="S37" s="30" t="e">
         <f>AVERAGE(E37:E46,G37:G46,I37:I46,K37:K46)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T37" s="27">
+      <c r="T37" s="30">
         <f>MIN(E37:E46,G37:G46,I37:I46,K37:K46)</f>
         <v>0</v>
       </c>
-      <c r="U37" s="27">
+      <c r="U37" s="30">
         <f>MAX(E37:E46,G37:G46,I37:I46,K37:K46)</f>
         <v>0</v>
       </c>
-      <c r="V37" s="27" t="e">
+      <c r="V37" s="30" t="e">
         <f>MEDIAN(E37:E46,G37:G46,I37:I46,K37:K46)</f>
         <v>#NUM!</v>
       </c>
-      <c r="W37" s="27" t="e">
+      <c r="W37" s="30" t="e">
         <f>VAR(E37:E46,G37:G46,I37:I46,K37:K46)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X37" s="27" t="e">
+      <c r="X37" s="30" t="e">
         <f>_xlfn.STDEV.S(E37:E46,G37:G46,I37:I46,K37:K46)</f>
         <v>#DIV/0!</v>
       </c>
@@ -6245,7 +6252,7 @@
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
-      <c r="B38" s="30"/>
+      <c r="B38" s="29"/>
       <c r="C38" s="7" t="s">
         <v>10</v>
       </c>
@@ -6257,19 +6264,19 @@
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="27"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
       <c r="R38" s="22"/>
-      <c r="S38" s="27"/>
-      <c r="T38" s="27"/>
-      <c r="U38" s="27"/>
-      <c r="V38" s="27"/>
-      <c r="W38" s="27"/>
-      <c r="X38" s="27"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="30"/>
+      <c r="V38" s="30"/>
+      <c r="W38" s="30"/>
+      <c r="X38" s="30"/>
       <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
@@ -6283,7 +6290,7 @@
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
-      <c r="B39" s="30"/>
+      <c r="B39" s="29"/>
       <c r="C39" s="7" t="s">
         <v>11</v>
       </c>
@@ -6295,19 +6302,19 @@
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30"/>
       <c r="R39" s="22"/>
-      <c r="S39" s="27"/>
-      <c r="T39" s="27"/>
-      <c r="U39" s="27"/>
-      <c r="V39" s="27"/>
-      <c r="W39" s="27"/>
-      <c r="X39" s="27"/>
+      <c r="S39" s="30"/>
+      <c r="T39" s="30"/>
+      <c r="U39" s="30"/>
+      <c r="V39" s="30"/>
+      <c r="W39" s="30"/>
+      <c r="X39" s="30"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
       <c r="AA39" s="7"/>
@@ -6321,7 +6328,7 @@
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
-      <c r="B40" s="30"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="7" t="s">
         <v>12</v>
       </c>
@@ -6333,19 +6340,19 @@
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="30"/>
       <c r="R40" s="22"/>
-      <c r="S40" s="27"/>
-      <c r="T40" s="27"/>
-      <c r="U40" s="27"/>
-      <c r="V40" s="27"/>
-      <c r="W40" s="27"/>
-      <c r="X40" s="27"/>
+      <c r="S40" s="30"/>
+      <c r="T40" s="30"/>
+      <c r="U40" s="30"/>
+      <c r="V40" s="30"/>
+      <c r="W40" s="30"/>
+      <c r="X40" s="30"/>
       <c r="Y40" s="7"/>
       <c r="Z40" s="7"/>
       <c r="AA40" s="7"/>
@@ -6359,7 +6366,7 @@
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
-      <c r="B41" s="30"/>
+      <c r="B41" s="29"/>
       <c r="C41" s="7" t="s">
         <v>13</v>
       </c>
@@ -6371,19 +6378,19 @@
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30"/>
       <c r="R41" s="22"/>
-      <c r="S41" s="27"/>
-      <c r="T41" s="27"/>
-      <c r="U41" s="27"/>
-      <c r="V41" s="27"/>
-      <c r="W41" s="27"/>
-      <c r="X41" s="27"/>
+      <c r="S41" s="30"/>
+      <c r="T41" s="30"/>
+      <c r="U41" s="30"/>
+      <c r="V41" s="30"/>
+      <c r="W41" s="30"/>
+      <c r="X41" s="30"/>
       <c r="Y41" s="7"/>
       <c r="Z41" s="7"/>
       <c r="AA41" s="7"/>
@@ -6397,7 +6404,7 @@
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
-      <c r="B42" s="30"/>
+      <c r="B42" s="29"/>
       <c r="C42" s="7" t="s">
         <v>14</v>
       </c>
@@ -6409,19 +6416,19 @@
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="27"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="30"/>
       <c r="R42" s="22"/>
-      <c r="S42" s="27"/>
-      <c r="T42" s="27"/>
-      <c r="U42" s="27"/>
-      <c r="V42" s="27"/>
-      <c r="W42" s="27"/>
-      <c r="X42" s="27"/>
+      <c r="S42" s="30"/>
+      <c r="T42" s="30"/>
+      <c r="U42" s="30"/>
+      <c r="V42" s="30"/>
+      <c r="W42" s="30"/>
+      <c r="X42" s="30"/>
       <c r="Y42" s="7"/>
       <c r="Z42" s="7"/>
       <c r="AA42" s="7"/>
@@ -6435,7 +6442,7 @@
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
-      <c r="B43" s="30"/>
+      <c r="B43" s="29"/>
       <c r="C43" s="7" t="s">
         <v>15</v>
       </c>
@@ -6447,19 +6454,19 @@
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="27"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="30"/>
       <c r="R43" s="22"/>
-      <c r="S43" s="27"/>
-      <c r="T43" s="27"/>
-      <c r="U43" s="27"/>
-      <c r="V43" s="27"/>
-      <c r="W43" s="27"/>
-      <c r="X43" s="27"/>
+      <c r="S43" s="30"/>
+      <c r="T43" s="30"/>
+      <c r="U43" s="30"/>
+      <c r="V43" s="30"/>
+      <c r="W43" s="30"/>
+      <c r="X43" s="30"/>
       <c r="Y43" s="7"/>
       <c r="Z43" s="7"/>
       <c r="AA43" s="7"/>
@@ -6473,7 +6480,7 @@
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
-      <c r="B44" s="30"/>
+      <c r="B44" s="29"/>
       <c r="C44" s="7" t="s">
         <v>16</v>
       </c>
@@ -6485,19 +6492,19 @@
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27"/>
-      <c r="N44" s="27"/>
-      <c r="O44" s="27"/>
-      <c r="P44" s="27"/>
-      <c r="Q44" s="27"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="30"/>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="30"/>
       <c r="R44" s="22"/>
-      <c r="S44" s="27"/>
-      <c r="T44" s="27"/>
-      <c r="U44" s="27"/>
-      <c r="V44" s="27"/>
-      <c r="W44" s="27"/>
-      <c r="X44" s="27"/>
+      <c r="S44" s="30"/>
+      <c r="T44" s="30"/>
+      <c r="U44" s="30"/>
+      <c r="V44" s="30"/>
+      <c r="W44" s="30"/>
+      <c r="X44" s="30"/>
       <c r="Y44" s="7"/>
       <c r="Z44" s="7"/>
       <c r="AA44" s="7"/>
@@ -6511,7 +6518,7 @@
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
-      <c r="B45" s="30"/>
+      <c r="B45" s="29"/>
       <c r="C45" s="7" t="s">
         <v>17</v>
       </c>
@@ -6523,19 +6530,19 @@
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="27"/>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="27"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="30"/>
       <c r="R45" s="22"/>
-      <c r="S45" s="27"/>
-      <c r="T45" s="27"/>
-      <c r="U45" s="27"/>
-      <c r="V45" s="27"/>
-      <c r="W45" s="27"/>
-      <c r="X45" s="27"/>
+      <c r="S45" s="30"/>
+      <c r="T45" s="30"/>
+      <c r="U45" s="30"/>
+      <c r="V45" s="30"/>
+      <c r="W45" s="30"/>
+      <c r="X45" s="30"/>
       <c r="Y45" s="7"/>
       <c r="Z45" s="7"/>
       <c r="AA45" s="7"/>
@@ -6549,7 +6556,7 @@
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
-      <c r="B46" s="30"/>
+      <c r="B46" s="29"/>
       <c r="C46" s="21" t="s">
         <v>18</v>
       </c>
@@ -6561,19 +6568,19 @@
       <c r="I46" s="20"/>
       <c r="J46" s="20"/>
       <c r="K46" s="20"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="27"/>
-      <c r="P46" s="27"/>
-      <c r="Q46" s="27"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="30"/>
+      <c r="Q46" s="30"/>
       <c r="R46" s="22"/>
-      <c r="S46" s="27"/>
-      <c r="T46" s="27"/>
-      <c r="U46" s="27"/>
-      <c r="V46" s="27"/>
-      <c r="W46" s="27"/>
-      <c r="X46" s="27"/>
+      <c r="S46" s="30"/>
+      <c r="T46" s="30"/>
+      <c r="U46" s="30"/>
+      <c r="V46" s="30"/>
+      <c r="W46" s="30"/>
+      <c r="X46" s="30"/>
       <c r="Y46" s="7"/>
       <c r="Z46" s="7"/>
       <c r="AA46" s="7"/>
@@ -6587,7 +6594,7 @@
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
-      <c r="B47" s="30">
+      <c r="B47" s="29">
         <v>750</v>
       </c>
       <c r="C47" s="18" t="s">
@@ -6667,7 +6674,7 @@
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
-      <c r="B48" s="30"/>
+      <c r="B48" s="29"/>
       <c r="C48" s="7" t="s">
         <v>9</v>
       </c>
@@ -6679,52 +6686,52 @@
       <c r="I48" s="20"/>
       <c r="J48" s="20"/>
       <c r="K48" s="20"/>
-      <c r="L48" s="27" t="e">
+      <c r="L48" s="30" t="e">
         <f>AVERAGE(D48:D57,F48:F57,H48:H57,J48:J57)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M48" s="27">
+      <c r="M48" s="30">
         <f>MIN(D48:D57,F48:F57,H48:H57,J48:J57)</f>
         <v>0</v>
       </c>
-      <c r="N48" s="27">
+      <c r="N48" s="30">
         <f>MAX(D48:D57,F48:F57,H48:H57,J48:J57)</f>
         <v>0</v>
       </c>
-      <c r="O48" s="27" t="e">
+      <c r="O48" s="30" t="e">
         <f>MEDIAN(D48:D57,F48:F57,H48:H57,J48:J57)</f>
         <v>#NUM!</v>
       </c>
-      <c r="P48" s="27" t="e">
+      <c r="P48" s="30" t="e">
         <f>VAR(D48:D57,F48:F57,H48:H57,J48:J57)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q48" s="27" t="e">
+      <c r="Q48" s="30" t="e">
         <f>_xlfn.STDEV.S(D48:D57,F48:F57,H48:H57,J48:J57)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R48" s="22"/>
-      <c r="S48" s="27" t="e">
+      <c r="S48" s="30" t="e">
         <f>AVERAGE(E48:E57,G48:G57,I48:I57,K48:K57)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T48" s="27">
+      <c r="T48" s="30">
         <f>MIN(E48:E57,G48:G57,I48:I57,K48:K57)</f>
         <v>0</v>
       </c>
-      <c r="U48" s="27">
+      <c r="U48" s="30">
         <f>MAX(E48:E57,G48:G57,I48:I57,K48:K57)</f>
         <v>0</v>
       </c>
-      <c r="V48" s="27" t="e">
+      <c r="V48" s="30" t="e">
         <f>MEDIAN(E48:E57,G48:G57,I48:I57,K48:K57)</f>
         <v>#NUM!</v>
       </c>
-      <c r="W48" s="27" t="e">
+      <c r="W48" s="30" t="e">
         <f>VAR(E48:E57,G48:G57,I48:I57,K48:K57)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X48" s="27" t="e">
+      <c r="X48" s="30" t="e">
         <f>_xlfn.STDEV.S(E48:E57,G48:G57,I48:I57,K48:K57)</f>
         <v>#DIV/0!</v>
       </c>
@@ -6741,7 +6748,7 @@
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
-      <c r="B49" s="30"/>
+      <c r="B49" s="29"/>
       <c r="C49" s="7" t="s">
         <v>10</v>
       </c>
@@ -6753,19 +6760,19 @@
       <c r="I49" s="20"/>
       <c r="J49" s="20"/>
       <c r="K49" s="20"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="27"/>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="27"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="30"/>
+      <c r="Q49" s="30"/>
       <c r="R49" s="22"/>
-      <c r="S49" s="27"/>
-      <c r="T49" s="27"/>
-      <c r="U49" s="27"/>
-      <c r="V49" s="27"/>
-      <c r="W49" s="27"/>
-      <c r="X49" s="27"/>
+      <c r="S49" s="30"/>
+      <c r="T49" s="30"/>
+      <c r="U49" s="30"/>
+      <c r="V49" s="30"/>
+      <c r="W49" s="30"/>
+      <c r="X49" s="30"/>
       <c r="Y49" s="7"/>
       <c r="Z49" s="7"/>
       <c r="AA49" s="7"/>
@@ -6779,7 +6786,7 @@
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
-      <c r="B50" s="30"/>
+      <c r="B50" s="29"/>
       <c r="C50" s="7" t="s">
         <v>11</v>
       </c>
@@ -6791,19 +6798,19 @@
       <c r="I50" s="20"/>
       <c r="J50" s="20"/>
       <c r="K50" s="20"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="27"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="27"/>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="27"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="30"/>
+      <c r="N50" s="30"/>
+      <c r="O50" s="30"/>
+      <c r="P50" s="30"/>
+      <c r="Q50" s="30"/>
       <c r="R50" s="22"/>
-      <c r="S50" s="27"/>
-      <c r="T50" s="27"/>
-      <c r="U50" s="27"/>
-      <c r="V50" s="27"/>
-      <c r="W50" s="27"/>
-      <c r="X50" s="27"/>
+      <c r="S50" s="30"/>
+      <c r="T50" s="30"/>
+      <c r="U50" s="30"/>
+      <c r="V50" s="30"/>
+      <c r="W50" s="30"/>
+      <c r="X50" s="30"/>
       <c r="Y50" s="7"/>
       <c r="Z50" s="7"/>
       <c r="AA50" s="7"/>
@@ -6817,7 +6824,7 @@
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
-      <c r="B51" s="30"/>
+      <c r="B51" s="29"/>
       <c r="C51" s="7" t="s">
         <v>12</v>
       </c>
@@ -6829,19 +6836,19 @@
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
       <c r="K51" s="20"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="27"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="27"/>
-      <c r="P51" s="27"/>
-      <c r="Q51" s="27"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="30"/>
+      <c r="P51" s="30"/>
+      <c r="Q51" s="30"/>
       <c r="R51" s="22"/>
-      <c r="S51" s="27"/>
-      <c r="T51" s="27"/>
-      <c r="U51" s="27"/>
-      <c r="V51" s="27"/>
-      <c r="W51" s="27"/>
-      <c r="X51" s="27"/>
+      <c r="S51" s="30"/>
+      <c r="T51" s="30"/>
+      <c r="U51" s="30"/>
+      <c r="V51" s="30"/>
+      <c r="W51" s="30"/>
+      <c r="X51" s="30"/>
       <c r="Y51" s="7"/>
       <c r="Z51" s="7"/>
       <c r="AA51" s="7"/>
@@ -6855,7 +6862,7 @@
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
-      <c r="B52" s="30"/>
+      <c r="B52" s="29"/>
       <c r="C52" s="7" t="s">
         <v>13</v>
       </c>
@@ -6867,19 +6874,19 @@
       <c r="I52" s="20"/>
       <c r="J52" s="20"/>
       <c r="K52" s="20"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="27"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="27"/>
-      <c r="P52" s="27"/>
-      <c r="Q52" s="27"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="30"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="30"/>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="30"/>
       <c r="R52" s="22"/>
-      <c r="S52" s="27"/>
-      <c r="T52" s="27"/>
-      <c r="U52" s="27"/>
-      <c r="V52" s="27"/>
-      <c r="W52" s="27"/>
-      <c r="X52" s="27"/>
+      <c r="S52" s="30"/>
+      <c r="T52" s="30"/>
+      <c r="U52" s="30"/>
+      <c r="V52" s="30"/>
+      <c r="W52" s="30"/>
+      <c r="X52" s="30"/>
       <c r="Y52" s="7"/>
       <c r="Z52" s="7"/>
       <c r="AA52" s="7"/>
@@ -6893,7 +6900,7 @@
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
-      <c r="B53" s="30"/>
+      <c r="B53" s="29"/>
       <c r="C53" s="7" t="s">
         <v>14</v>
       </c>
@@ -6905,19 +6912,19 @@
       <c r="I53" s="20"/>
       <c r="J53" s="20"/>
       <c r="K53" s="20"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="27"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="27"/>
-      <c r="P53" s="27"/>
-      <c r="Q53" s="27"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="30"/>
       <c r="R53" s="22"/>
-      <c r="S53" s="27"/>
-      <c r="T53" s="27"/>
-      <c r="U53" s="27"/>
-      <c r="V53" s="27"/>
-      <c r="W53" s="27"/>
-      <c r="X53" s="27"/>
+      <c r="S53" s="30"/>
+      <c r="T53" s="30"/>
+      <c r="U53" s="30"/>
+      <c r="V53" s="30"/>
+      <c r="W53" s="30"/>
+      <c r="X53" s="30"/>
       <c r="Y53" s="7"/>
       <c r="Z53" s="7"/>
       <c r="AA53" s="7"/>
@@ -6931,7 +6938,7 @@
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
-      <c r="B54" s="30"/>
+      <c r="B54" s="29"/>
       <c r="C54" s="7" t="s">
         <v>15</v>
       </c>
@@ -6943,19 +6950,19 @@
       <c r="I54" s="20"/>
       <c r="J54" s="20"/>
       <c r="K54" s="20"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="27"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="27"/>
-      <c r="P54" s="27"/>
-      <c r="Q54" s="27"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="30"/>
+      <c r="N54" s="30"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="30"/>
+      <c r="Q54" s="30"/>
       <c r="R54" s="22"/>
-      <c r="S54" s="27"/>
-      <c r="T54" s="27"/>
-      <c r="U54" s="27"/>
-      <c r="V54" s="27"/>
-      <c r="W54" s="27"/>
-      <c r="X54" s="27"/>
+      <c r="S54" s="30"/>
+      <c r="T54" s="30"/>
+      <c r="U54" s="30"/>
+      <c r="V54" s="30"/>
+      <c r="W54" s="30"/>
+      <c r="X54" s="30"/>
       <c r="Y54" s="7"/>
       <c r="Z54" s="7"/>
       <c r="AA54" s="7"/>
@@ -6969,7 +6976,7 @@
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
-      <c r="B55" s="30"/>
+      <c r="B55" s="29"/>
       <c r="C55" s="7" t="s">
         <v>16</v>
       </c>
@@ -6981,19 +6988,19 @@
       <c r="I55" s="20"/>
       <c r="J55" s="20"/>
       <c r="K55" s="20"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="27"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="27"/>
-      <c r="P55" s="27"/>
-      <c r="Q55" s="27"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="30"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="30"/>
+      <c r="Q55" s="30"/>
       <c r="R55" s="22"/>
-      <c r="S55" s="27"/>
-      <c r="T55" s="27"/>
-      <c r="U55" s="27"/>
-      <c r="V55" s="27"/>
-      <c r="W55" s="27"/>
-      <c r="X55" s="27"/>
+      <c r="S55" s="30"/>
+      <c r="T55" s="30"/>
+      <c r="U55" s="30"/>
+      <c r="V55" s="30"/>
+      <c r="W55" s="30"/>
+      <c r="X55" s="30"/>
       <c r="Y55" s="7"/>
       <c r="Z55" s="7"/>
       <c r="AA55" s="7"/>
@@ -7007,7 +7014,7 @@
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
-      <c r="B56" s="30"/>
+      <c r="B56" s="29"/>
       <c r="C56" s="7" t="s">
         <v>17</v>
       </c>
@@ -7019,19 +7026,19 @@
       <c r="I56" s="20"/>
       <c r="J56" s="20"/>
       <c r="K56" s="20"/>
-      <c r="L56" s="27"/>
-      <c r="M56" s="27"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="27"/>
-      <c r="P56" s="27"/>
-      <c r="Q56" s="27"/>
+      <c r="L56" s="30"/>
+      <c r="M56" s="30"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="30"/>
       <c r="R56" s="22"/>
-      <c r="S56" s="27"/>
-      <c r="T56" s="27"/>
-      <c r="U56" s="27"/>
-      <c r="V56" s="27"/>
-      <c r="W56" s="27"/>
-      <c r="X56" s="27"/>
+      <c r="S56" s="30"/>
+      <c r="T56" s="30"/>
+      <c r="U56" s="30"/>
+      <c r="V56" s="30"/>
+      <c r="W56" s="30"/>
+      <c r="X56" s="30"/>
       <c r="Y56" s="7"/>
       <c r="Z56" s="7"/>
       <c r="AA56" s="7"/>
@@ -7045,7 +7052,7 @@
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
-      <c r="B57" s="30"/>
+      <c r="B57" s="29"/>
       <c r="C57" s="21" t="s">
         <v>18</v>
       </c>
@@ -7057,19 +7064,19 @@
       <c r="I57" s="20"/>
       <c r="J57" s="20"/>
       <c r="K57" s="20"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="27"/>
-      <c r="N57" s="27"/>
-      <c r="O57" s="27"/>
-      <c r="P57" s="27"/>
-      <c r="Q57" s="27"/>
+      <c r="L57" s="30"/>
+      <c r="M57" s="30"/>
+      <c r="N57" s="30"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="30"/>
+      <c r="Q57" s="30"/>
       <c r="R57" s="22"/>
-      <c r="S57" s="27"/>
-      <c r="T57" s="27"/>
-      <c r="U57" s="27"/>
-      <c r="V57" s="27"/>
-      <c r="W57" s="27"/>
-      <c r="X57" s="27"/>
+      <c r="S57" s="30"/>
+      <c r="T57" s="30"/>
+      <c r="U57" s="30"/>
+      <c r="V57" s="30"/>
+      <c r="W57" s="30"/>
+      <c r="X57" s="30"/>
       <c r="Y57" s="7"/>
       <c r="Z57" s="7"/>
       <c r="AA57" s="7"/>
@@ -7083,7 +7090,7 @@
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
-      <c r="B58" s="30">
+      <c r="B58" s="29">
         <v>1000</v>
       </c>
       <c r="C58" s="18" t="s">
@@ -7163,7 +7170,7 @@
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
-      <c r="B59" s="30"/>
+      <c r="B59" s="29"/>
       <c r="C59" s="7" t="s">
         <v>9</v>
       </c>
@@ -7175,52 +7182,52 @@
       <c r="I59" s="20"/>
       <c r="J59" s="20"/>
       <c r="K59" s="20"/>
-      <c r="L59" s="27" t="e">
+      <c r="L59" s="30" t="e">
         <f>AVERAGE(D59:D68,F59:F68,H59:H68,J59:J68)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M59" s="27">
+      <c r="M59" s="30">
         <f>MIN(D59:D68,F59:F68,H59:H68,J59:J68)</f>
         <v>0</v>
       </c>
-      <c r="N59" s="27">
+      <c r="N59" s="30">
         <f>MAX(D59:D68,F59:F68,H59:H68,J59:J68)</f>
         <v>0</v>
       </c>
-      <c r="O59" s="27" t="e">
+      <c r="O59" s="30" t="e">
         <f>MEDIAN(D59:D68,F59:F68,H59:H68,J59:J68)</f>
         <v>#NUM!</v>
       </c>
-      <c r="P59" s="27" t="e">
+      <c r="P59" s="30" t="e">
         <f>VAR(D59:D68,F59:F68,H59:H68,J59:J68)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q59" s="27" t="e">
+      <c r="Q59" s="30" t="e">
         <f>_xlfn.STDEV.S(D59:D68,F59:F68,H59:H68,J59:J68)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R59" s="22"/>
-      <c r="S59" s="27" t="e">
+      <c r="S59" s="30" t="e">
         <f>AVERAGE(E59:E68,G59:G68,I59:I68,K59:K68)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T59" s="27">
+      <c r="T59" s="30">
         <f>MIN(E59:E68,G59:G68,I59:I68,K59:K68)</f>
         <v>0</v>
       </c>
-      <c r="U59" s="27">
+      <c r="U59" s="30">
         <f>MAX(E59:E68,G59:G68,I59:I68,K59:K68)</f>
         <v>0</v>
       </c>
-      <c r="V59" s="27" t="e">
+      <c r="V59" s="30" t="e">
         <f>MEDIAN(E59:E68,G59:G68,I59:I68,K59:K68)</f>
         <v>#NUM!</v>
       </c>
-      <c r="W59" s="27" t="e">
+      <c r="W59" s="30" t="e">
         <f>VAR(E59:E68,G59:G68,I59:I68,K59:K68)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X59" s="27" t="e">
+      <c r="X59" s="30" t="e">
         <f>_xlfn.STDEV.S(E59:E68,G59:G68,I59:I68,K59:K68)</f>
         <v>#DIV/0!</v>
       </c>
@@ -7237,7 +7244,7 @@
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
-      <c r="B60" s="30"/>
+      <c r="B60" s="29"/>
       <c r="C60" s="7" t="s">
         <v>10</v>
       </c>
@@ -7249,19 +7256,19 @@
       <c r="I60" s="20"/>
       <c r="J60" s="20"/>
       <c r="K60" s="20"/>
-      <c r="L60" s="27"/>
-      <c r="M60" s="27"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="27"/>
-      <c r="P60" s="27"/>
-      <c r="Q60" s="27"/>
+      <c r="L60" s="30"/>
+      <c r="M60" s="30"/>
+      <c r="N60" s="30"/>
+      <c r="O60" s="30"/>
+      <c r="P60" s="30"/>
+      <c r="Q60" s="30"/>
       <c r="R60" s="22"/>
-      <c r="S60" s="27"/>
-      <c r="T60" s="27"/>
-      <c r="U60" s="27"/>
-      <c r="V60" s="27"/>
-      <c r="W60" s="27"/>
-      <c r="X60" s="27"/>
+      <c r="S60" s="30"/>
+      <c r="T60" s="30"/>
+      <c r="U60" s="30"/>
+      <c r="V60" s="30"/>
+      <c r="W60" s="30"/>
+      <c r="X60" s="30"/>
       <c r="Y60" s="7"/>
       <c r="Z60" s="7"/>
       <c r="AA60" s="7"/>
@@ -7275,7 +7282,7 @@
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
-      <c r="B61" s="30"/>
+      <c r="B61" s="29"/>
       <c r="C61" s="7" t="s">
         <v>11</v>
       </c>
@@ -7287,19 +7294,19 @@
       <c r="I61" s="20"/>
       <c r="J61" s="20"/>
       <c r="K61" s="20"/>
-      <c r="L61" s="27"/>
-      <c r="M61" s="27"/>
-      <c r="N61" s="27"/>
-      <c r="O61" s="27"/>
-      <c r="P61" s="27"/>
-      <c r="Q61" s="27"/>
+      <c r="L61" s="30"/>
+      <c r="M61" s="30"/>
+      <c r="N61" s="30"/>
+      <c r="O61" s="30"/>
+      <c r="P61" s="30"/>
+      <c r="Q61" s="30"/>
       <c r="R61" s="22"/>
-      <c r="S61" s="27"/>
-      <c r="T61" s="27"/>
-      <c r="U61" s="27"/>
-      <c r="V61" s="27"/>
-      <c r="W61" s="27"/>
-      <c r="X61" s="27"/>
+      <c r="S61" s="30"/>
+      <c r="T61" s="30"/>
+      <c r="U61" s="30"/>
+      <c r="V61" s="30"/>
+      <c r="W61" s="30"/>
+      <c r="X61" s="30"/>
       <c r="Y61" s="7"/>
       <c r="Z61" s="7"/>
       <c r="AA61" s="7"/>
@@ -7313,7 +7320,7 @@
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
-      <c r="B62" s="30"/>
+      <c r="B62" s="29"/>
       <c r="C62" s="7" t="s">
         <v>12</v>
       </c>
@@ -7325,19 +7332,19 @@
       <c r="I62" s="20"/>
       <c r="J62" s="20"/>
       <c r="K62" s="20"/>
-      <c r="L62" s="27"/>
-      <c r="M62" s="27"/>
-      <c r="N62" s="27"/>
-      <c r="O62" s="27"/>
-      <c r="P62" s="27"/>
-      <c r="Q62" s="27"/>
+      <c r="L62" s="30"/>
+      <c r="M62" s="30"/>
+      <c r="N62" s="30"/>
+      <c r="O62" s="30"/>
+      <c r="P62" s="30"/>
+      <c r="Q62" s="30"/>
       <c r="R62" s="22"/>
-      <c r="S62" s="27"/>
-      <c r="T62" s="27"/>
-      <c r="U62" s="27"/>
-      <c r="V62" s="27"/>
-      <c r="W62" s="27"/>
-      <c r="X62" s="27"/>
+      <c r="S62" s="30"/>
+      <c r="T62" s="30"/>
+      <c r="U62" s="30"/>
+      <c r="V62" s="30"/>
+      <c r="W62" s="30"/>
+      <c r="X62" s="30"/>
       <c r="Y62" s="7"/>
       <c r="Z62" s="7"/>
       <c r="AA62" s="7"/>
@@ -7351,7 +7358,7 @@
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
-      <c r="B63" s="30"/>
+      <c r="B63" s="29"/>
       <c r="C63" s="7" t="s">
         <v>13</v>
       </c>
@@ -7363,19 +7370,19 @@
       <c r="I63" s="20"/>
       <c r="J63" s="20"/>
       <c r="K63" s="20"/>
-      <c r="L63" s="27"/>
-      <c r="M63" s="27"/>
-      <c r="N63" s="27"/>
-      <c r="O63" s="27"/>
-      <c r="P63" s="27"/>
-      <c r="Q63" s="27"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="30"/>
+      <c r="N63" s="30"/>
+      <c r="O63" s="30"/>
+      <c r="P63" s="30"/>
+      <c r="Q63" s="30"/>
       <c r="R63" s="22"/>
-      <c r="S63" s="27"/>
-      <c r="T63" s="27"/>
-      <c r="U63" s="27"/>
-      <c r="V63" s="27"/>
-      <c r="W63" s="27"/>
-      <c r="X63" s="27"/>
+      <c r="S63" s="30"/>
+      <c r="T63" s="30"/>
+      <c r="U63" s="30"/>
+      <c r="V63" s="30"/>
+      <c r="W63" s="30"/>
+      <c r="X63" s="30"/>
       <c r="Y63" s="7"/>
       <c r="Z63" s="7"/>
       <c r="AA63" s="7"/>
@@ -7389,7 +7396,7 @@
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
-      <c r="B64" s="30"/>
+      <c r="B64" s="29"/>
       <c r="C64" s="7" t="s">
         <v>14</v>
       </c>
@@ -7401,19 +7408,19 @@
       <c r="I64" s="20"/>
       <c r="J64" s="20"/>
       <c r="K64" s="20"/>
-      <c r="L64" s="27"/>
-      <c r="M64" s="27"/>
-      <c r="N64" s="27"/>
-      <c r="O64" s="27"/>
-      <c r="P64" s="27"/>
-      <c r="Q64" s="27"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="30"/>
+      <c r="N64" s="30"/>
+      <c r="O64" s="30"/>
+      <c r="P64" s="30"/>
+      <c r="Q64" s="30"/>
       <c r="R64" s="22"/>
-      <c r="S64" s="27"/>
-      <c r="T64" s="27"/>
-      <c r="U64" s="27"/>
-      <c r="V64" s="27"/>
-      <c r="W64" s="27"/>
-      <c r="X64" s="27"/>
+      <c r="S64" s="30"/>
+      <c r="T64" s="30"/>
+      <c r="U64" s="30"/>
+      <c r="V64" s="30"/>
+      <c r="W64" s="30"/>
+      <c r="X64" s="30"/>
       <c r="Y64" s="7"/>
       <c r="Z64" s="7"/>
       <c r="AA64" s="7"/>
@@ -7427,7 +7434,7 @@
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
-      <c r="B65" s="30"/>
+      <c r="B65" s="29"/>
       <c r="C65" s="7" t="s">
         <v>15</v>
       </c>
@@ -7439,19 +7446,19 @@
       <c r="I65" s="20"/>
       <c r="J65" s="20"/>
       <c r="K65" s="20"/>
-      <c r="L65" s="27"/>
-      <c r="M65" s="27"/>
-      <c r="N65" s="27"/>
-      <c r="O65" s="27"/>
-      <c r="P65" s="27"/>
-      <c r="Q65" s="27"/>
+      <c r="L65" s="30"/>
+      <c r="M65" s="30"/>
+      <c r="N65" s="30"/>
+      <c r="O65" s="30"/>
+      <c r="P65" s="30"/>
+      <c r="Q65" s="30"/>
       <c r="R65" s="22"/>
-      <c r="S65" s="27"/>
-      <c r="T65" s="27"/>
-      <c r="U65" s="27"/>
-      <c r="V65" s="27"/>
-      <c r="W65" s="27"/>
-      <c r="X65" s="27"/>
+      <c r="S65" s="30"/>
+      <c r="T65" s="30"/>
+      <c r="U65" s="30"/>
+      <c r="V65" s="30"/>
+      <c r="W65" s="30"/>
+      <c r="X65" s="30"/>
       <c r="Y65" s="7"/>
       <c r="Z65" s="7"/>
       <c r="AA65" s="7"/>
@@ -7465,7 +7472,7 @@
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
-      <c r="B66" s="30"/>
+      <c r="B66" s="29"/>
       <c r="C66" s="7" t="s">
         <v>16</v>
       </c>
@@ -7477,19 +7484,19 @@
       <c r="I66" s="20"/>
       <c r="J66" s="20"/>
       <c r="K66" s="20"/>
-      <c r="L66" s="27"/>
-      <c r="M66" s="27"/>
-      <c r="N66" s="27"/>
-      <c r="O66" s="27"/>
-      <c r="P66" s="27"/>
-      <c r="Q66" s="27"/>
+      <c r="L66" s="30"/>
+      <c r="M66" s="30"/>
+      <c r="N66" s="30"/>
+      <c r="O66" s="30"/>
+      <c r="P66" s="30"/>
+      <c r="Q66" s="30"/>
       <c r="R66" s="22"/>
-      <c r="S66" s="27"/>
-      <c r="T66" s="27"/>
-      <c r="U66" s="27"/>
-      <c r="V66" s="27"/>
-      <c r="W66" s="27"/>
-      <c r="X66" s="27"/>
+      <c r="S66" s="30"/>
+      <c r="T66" s="30"/>
+      <c r="U66" s="30"/>
+      <c r="V66" s="30"/>
+      <c r="W66" s="30"/>
+      <c r="X66" s="30"/>
       <c r="Y66" s="7"/>
       <c r="Z66" s="7"/>
       <c r="AA66" s="7"/>
@@ -7503,7 +7510,7 @@
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
-      <c r="B67" s="30"/>
+      <c r="B67" s="29"/>
       <c r="C67" s="7" t="s">
         <v>17</v>
       </c>
@@ -7515,19 +7522,19 @@
       <c r="I67" s="20"/>
       <c r="J67" s="20"/>
       <c r="K67" s="20"/>
-      <c r="L67" s="27"/>
-      <c r="M67" s="27"/>
-      <c r="N67" s="27"/>
-      <c r="O67" s="27"/>
-      <c r="P67" s="27"/>
-      <c r="Q67" s="27"/>
+      <c r="L67" s="30"/>
+      <c r="M67" s="30"/>
+      <c r="N67" s="30"/>
+      <c r="O67" s="30"/>
+      <c r="P67" s="30"/>
+      <c r="Q67" s="30"/>
       <c r="R67" s="22"/>
-      <c r="S67" s="27"/>
-      <c r="T67" s="27"/>
-      <c r="U67" s="27"/>
-      <c r="V67" s="27"/>
-      <c r="W67" s="27"/>
-      <c r="X67" s="27"/>
+      <c r="S67" s="30"/>
+      <c r="T67" s="30"/>
+      <c r="U67" s="30"/>
+      <c r="V67" s="30"/>
+      <c r="W67" s="30"/>
+      <c r="X67" s="30"/>
       <c r="Y67" s="7"/>
       <c r="Z67" s="7"/>
       <c r="AA67" s="7"/>
@@ -7541,7 +7548,7 @@
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
-      <c r="B68" s="30"/>
+      <c r="B68" s="29"/>
       <c r="C68" s="21" t="s">
         <v>18</v>
       </c>
@@ -7553,19 +7560,19 @@
       <c r="I68" s="20"/>
       <c r="J68" s="20"/>
       <c r="K68" s="20"/>
-      <c r="L68" s="27"/>
-      <c r="M68" s="27"/>
-      <c r="N68" s="27"/>
-      <c r="O68" s="27"/>
-      <c r="P68" s="27"/>
-      <c r="Q68" s="27"/>
+      <c r="L68" s="30"/>
+      <c r="M68" s="30"/>
+      <c r="N68" s="30"/>
+      <c r="O68" s="30"/>
+      <c r="P68" s="30"/>
+      <c r="Q68" s="30"/>
       <c r="R68" s="22"/>
-      <c r="S68" s="27"/>
-      <c r="T68" s="27"/>
-      <c r="U68" s="27"/>
-      <c r="V68" s="27"/>
-      <c r="W68" s="27"/>
-      <c r="X68" s="27"/>
+      <c r="S68" s="30"/>
+      <c r="T68" s="30"/>
+      <c r="U68" s="30"/>
+      <c r="V68" s="30"/>
+      <c r="W68" s="30"/>
+      <c r="X68" s="30"/>
       <c r="Y68" s="7"/>
       <c r="Z68" s="7"/>
       <c r="AA68" s="7"/>
@@ -7579,7 +7586,7 @@
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
-      <c r="B69" s="28" t="s">
+      <c r="B69" s="33" t="s">
         <v>2</v>
       </c>
       <c r="C69" s="25"/>
@@ -7607,14 +7614,14 @@
       <c r="K69" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="L69" s="33" t="s">
+      <c r="L69" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="M69" s="33"/>
-      <c r="N69" s="33"/>
-      <c r="O69" s="33"/>
-      <c r="P69" s="34"/>
-      <c r="Q69" s="34"/>
+      <c r="M69" s="32"/>
+      <c r="N69" s="32"/>
+      <c r="O69" s="32"/>
+      <c r="P69" s="27"/>
+      <c r="Q69" s="27"/>
       <c r="R69" s="22"/>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
@@ -7635,7 +7642,7 @@
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="28"/>
+      <c r="B70" s="33"/>
       <c r="C70" s="26" t="s">
         <v>26</v>
       </c>
@@ -7697,7 +7704,7 @@
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
-      <c r="B71" s="28"/>
+      <c r="B71" s="33"/>
       <c r="C71" s="26" t="s">
         <v>3</v>
       </c>
@@ -7759,7 +7766,7 @@
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="28"/>
+      <c r="B72" s="33"/>
       <c r="C72" s="26" t="s">
         <v>4</v>
       </c>
@@ -7821,7 +7828,7 @@
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="28"/>
+      <c r="B73" s="33"/>
       <c r="C73" s="26" t="s">
         <v>27</v>
       </c>
@@ -7883,7 +7890,7 @@
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="28"/>
+      <c r="B74" s="33"/>
       <c r="C74" s="26" t="s">
         <v>5</v>
       </c>
@@ -7921,7 +7928,7 @@
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="28"/>
+      <c r="B75" s="33"/>
       <c r="C75" s="26" t="s">
         <v>6</v>
       </c>
@@ -7959,7 +7966,7 @@
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="28"/>
+      <c r="B76" s="33"/>
       <c r="C76" s="26" t="s">
         <v>7</v>
       </c>
@@ -8021,7 +8028,7 @@
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="28"/>
+      <c r="B77" s="33"/>
       <c r="C77" s="26" t="s">
         <v>28</v>
       </c>
@@ -8191,74 +8198,12 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="T48:T57"/>
-    <mergeCell ref="T59:T68"/>
-    <mergeCell ref="L69:O69"/>
-    <mergeCell ref="L2:Q2"/>
-    <mergeCell ref="S2:X2"/>
-    <mergeCell ref="T4:T13"/>
-    <mergeCell ref="T15:T24"/>
-    <mergeCell ref="T26:T35"/>
-    <mergeCell ref="B69:B77"/>
-    <mergeCell ref="B58:B68"/>
-    <mergeCell ref="L59:L68"/>
-    <mergeCell ref="M59:M68"/>
-    <mergeCell ref="N59:N68"/>
-    <mergeCell ref="O59:O68"/>
-    <mergeCell ref="P59:P68"/>
-    <mergeCell ref="Q59:Q68"/>
-    <mergeCell ref="S59:S68"/>
-    <mergeCell ref="U59:U68"/>
-    <mergeCell ref="V59:V68"/>
-    <mergeCell ref="W59:W68"/>
-    <mergeCell ref="X59:X68"/>
-    <mergeCell ref="B47:B57"/>
-    <mergeCell ref="L48:L57"/>
-    <mergeCell ref="M48:M57"/>
-    <mergeCell ref="N48:N57"/>
-    <mergeCell ref="O48:O57"/>
-    <mergeCell ref="P48:P57"/>
-    <mergeCell ref="Q48:Q57"/>
-    <mergeCell ref="S48:S57"/>
-    <mergeCell ref="U48:U57"/>
-    <mergeCell ref="V48:V57"/>
-    <mergeCell ref="W48:W57"/>
-    <mergeCell ref="X48:X57"/>
-    <mergeCell ref="V37:V46"/>
-    <mergeCell ref="W37:W46"/>
-    <mergeCell ref="X37:X46"/>
-    <mergeCell ref="P37:P46"/>
-    <mergeCell ref="Q37:Q46"/>
-    <mergeCell ref="S37:S46"/>
-    <mergeCell ref="U37:U46"/>
-    <mergeCell ref="T37:T46"/>
-    <mergeCell ref="B36:B46"/>
-    <mergeCell ref="L37:L46"/>
-    <mergeCell ref="M37:M46"/>
-    <mergeCell ref="N37:N46"/>
-    <mergeCell ref="O37:O46"/>
-    <mergeCell ref="X26:X35"/>
-    <mergeCell ref="B26:B35"/>
-    <mergeCell ref="L26:L35"/>
-    <mergeCell ref="M26:M35"/>
-    <mergeCell ref="N26:N35"/>
-    <mergeCell ref="O26:O35"/>
-    <mergeCell ref="P26:P35"/>
-    <mergeCell ref="Q26:Q35"/>
-    <mergeCell ref="S26:S35"/>
-    <mergeCell ref="U26:U35"/>
-    <mergeCell ref="V26:V35"/>
-    <mergeCell ref="W26:W35"/>
-    <mergeCell ref="B14:B24"/>
-    <mergeCell ref="L15:L24"/>
-    <mergeCell ref="M15:M24"/>
-    <mergeCell ref="N15:N24"/>
-    <mergeCell ref="O15:O24"/>
-    <mergeCell ref="P15:P24"/>
-    <mergeCell ref="Q15:Q24"/>
-    <mergeCell ref="S15:S24"/>
-    <mergeCell ref="U15:U24"/>
-    <mergeCell ref="V15:V24"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="W15:W24"/>
     <mergeCell ref="X15:X24"/>
     <mergeCell ref="B3:B13"/>
@@ -8273,12 +8218,74 @@
     <mergeCell ref="V4:V13"/>
     <mergeCell ref="W4:W13"/>
     <mergeCell ref="X4:X13"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="P15:P24"/>
+    <mergeCell ref="Q15:Q24"/>
+    <mergeCell ref="S15:S24"/>
+    <mergeCell ref="U15:U24"/>
+    <mergeCell ref="V15:V24"/>
+    <mergeCell ref="B14:B24"/>
+    <mergeCell ref="L15:L24"/>
+    <mergeCell ref="M15:M24"/>
+    <mergeCell ref="N15:N24"/>
+    <mergeCell ref="O15:O24"/>
+    <mergeCell ref="X26:X35"/>
+    <mergeCell ref="B26:B35"/>
+    <mergeCell ref="L26:L35"/>
+    <mergeCell ref="M26:M35"/>
+    <mergeCell ref="N26:N35"/>
+    <mergeCell ref="O26:O35"/>
+    <mergeCell ref="P26:P35"/>
+    <mergeCell ref="Q26:Q35"/>
+    <mergeCell ref="S26:S35"/>
+    <mergeCell ref="U26:U35"/>
+    <mergeCell ref="V26:V35"/>
+    <mergeCell ref="W26:W35"/>
+    <mergeCell ref="B36:B46"/>
+    <mergeCell ref="L37:L46"/>
+    <mergeCell ref="M37:M46"/>
+    <mergeCell ref="N37:N46"/>
+    <mergeCell ref="O37:O46"/>
+    <mergeCell ref="P37:P46"/>
+    <mergeCell ref="Q37:Q46"/>
+    <mergeCell ref="S37:S46"/>
+    <mergeCell ref="U37:U46"/>
+    <mergeCell ref="T37:T46"/>
+    <mergeCell ref="W48:W57"/>
+    <mergeCell ref="X48:X57"/>
+    <mergeCell ref="V37:V46"/>
+    <mergeCell ref="W37:W46"/>
+    <mergeCell ref="X37:X46"/>
+    <mergeCell ref="P48:P57"/>
+    <mergeCell ref="Q48:Q57"/>
+    <mergeCell ref="S48:S57"/>
+    <mergeCell ref="U48:U57"/>
+    <mergeCell ref="V48:V57"/>
+    <mergeCell ref="B47:B57"/>
+    <mergeCell ref="L48:L57"/>
+    <mergeCell ref="M48:M57"/>
+    <mergeCell ref="N48:N57"/>
+    <mergeCell ref="O48:O57"/>
+    <mergeCell ref="B69:B77"/>
+    <mergeCell ref="B58:B68"/>
+    <mergeCell ref="L59:L68"/>
+    <mergeCell ref="M59:M68"/>
+    <mergeCell ref="N59:N68"/>
+    <mergeCell ref="T48:T57"/>
+    <mergeCell ref="T59:T68"/>
+    <mergeCell ref="L69:O69"/>
+    <mergeCell ref="L2:Q2"/>
+    <mergeCell ref="S2:X2"/>
+    <mergeCell ref="T4:T13"/>
+    <mergeCell ref="T15:T24"/>
+    <mergeCell ref="T26:T35"/>
+    <mergeCell ref="O59:O68"/>
+    <mergeCell ref="P59:P68"/>
+    <mergeCell ref="Q59:Q68"/>
+    <mergeCell ref="S59:S68"/>
+    <mergeCell ref="U59:U68"/>
+    <mergeCell ref="V59:V68"/>
+    <mergeCell ref="W59:W68"/>
+    <mergeCell ref="X59:X68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8314,14 +8321,14 @@
         <v>21</v>
       </c>
       <c r="C1" s="7"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -8341,44 +8348,44 @@
         <v>22</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="29">
+      <c r="C2" s="34">
         <v>5</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29">
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34">
         <v>20</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29">
+      <c r="G2" s="34"/>
+      <c r="H2" s="34">
         <v>50</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29">
+      <c r="I2" s="34"/>
+      <c r="J2" s="34">
         <v>100</v>
       </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="28" t="s">
+      <c r="K2" s="34"/>
+      <c r="L2" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
       <c r="R2" s="14"/>
-      <c r="S2" s="28" t="s">
+      <c r="S2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="30">
+      <c r="B3" s="29">
         <v>50</v>
       </c>
       <c r="C3" s="18" t="s">
@@ -8448,7 +8455,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="30"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
@@ -8460,59 +8467,59 @@
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="27" t="e">
+      <c r="L4" s="30" t="e">
         <f>AVERAGE(D4:D13,F4:F13,H4:H13,J4:J13)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M4" s="27">
+      <c r="M4" s="30">
         <f>MIN(D4:D13,F4:F13,H4:H13,J4:J13)</f>
         <v>0</v>
       </c>
-      <c r="N4" s="27">
+      <c r="N4" s="30">
         <f>MAX(D4:D13,F4:F13,H4:H13,J4:J13)</f>
         <v>0</v>
       </c>
-      <c r="O4" s="27" t="e">
+      <c r="O4" s="30" t="e">
         <f>MEDIAN(D4:D13,F4:F13,H4:H13,J4:J13)</f>
         <v>#NUM!</v>
       </c>
-      <c r="P4" s="27" t="e">
+      <c r="P4" s="30" t="e">
         <f>VAR(D4:D13,F4:F13,H4:H13,J4:J13)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q4" s="27" t="e">
+      <c r="Q4" s="30" t="e">
         <f>_xlfn.STDEV.S(D4:D13,F4:F13,H4:H13,J4:J13)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R4" s="22"/>
-      <c r="S4" s="27" t="e">
+      <c r="S4" s="30" t="e">
         <f>AVERAGE(E4:E13,G4:G13,I4:I13,K4:K13)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T4" s="27">
+      <c r="T4" s="30">
         <f>MIN(E4:E13,G4:G13,I4:I13,K4:K13)</f>
         <v>0</v>
       </c>
-      <c r="U4" s="27">
+      <c r="U4" s="30">
         <f>MAX(E4:E13,G4:G13,I4:I13,K4:K13)</f>
         <v>0</v>
       </c>
-      <c r="V4" s="27" t="e">
+      <c r="V4" s="30" t="e">
         <f>MEDIAN(E4:E13,G4:G13,I4:I13,K4:K13)</f>
         <v>#NUM!</v>
       </c>
-      <c r="W4" s="27" t="e">
+      <c r="W4" s="30" t="e">
         <f>VAR(E4:E13,G4:G13,I4:I13,K4:K13)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X4" s="27" t="e">
+      <c r="X4" s="30" t="e">
         <f>_xlfn.STDEV.S(E4:E13,G4:G13,I4:I13,K4:K13)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="30"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
@@ -8524,23 +8531,23 @@
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
       <c r="R5" s="22"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="30"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
@@ -8552,23 +8559,23 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
       <c r="R6" s="22"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="30"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
@@ -8580,23 +8587,23 @@
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
       <c r="R7" s="22"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="30"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
@@ -8608,23 +8615,23 @@
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
       <c r="R8" s="22"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="30"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
@@ -8636,23 +8643,23 @@
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
       <c r="R9" s="22"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="30"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="7" t="s">
         <v>15</v>
       </c>
@@ -8664,23 +8671,23 @@
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
       <c r="R10" s="22"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="30"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
@@ -8692,23 +8699,23 @@
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
       <c r="R11" s="22"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="30"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="7" t="s">
         <v>17</v>
       </c>
@@ -8720,23 +8727,23 @@
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
       <c r="R12" s="22"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="30"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="7" t="s">
         <v>18</v>
       </c>
@@ -8748,23 +8755,23 @@
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
       <c r="R13" s="22"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="30">
+      <c r="B14" s="29">
         <v>100</v>
       </c>
       <c r="C14" s="18" t="s">
@@ -8834,7 +8841,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="B15" s="30"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="7" t="s">
         <v>9</v>
       </c>
@@ -8846,59 +8853,59 @@
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="27" t="e">
+      <c r="L15" s="30" t="e">
         <f>AVERAGE(D15:D24,F15:F24,H15:H24,J15:J24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M15" s="27">
+      <c r="M15" s="30">
         <f>MIN(D15:D24,F15:F24,H15:H24,J15:J24)</f>
         <v>0</v>
       </c>
-      <c r="N15" s="27">
+      <c r="N15" s="30">
         <f>MAX(D15:D24,F15:F24,H15:H24,J15:J24)</f>
         <v>0</v>
       </c>
-      <c r="O15" s="27" t="e">
+      <c r="O15" s="30" t="e">
         <f>MEDIAN(D15:D24,F15:F24,H15:H24,J15:J24)</f>
         <v>#NUM!</v>
       </c>
-      <c r="P15" s="27" t="e">
+      <c r="P15" s="30" t="e">
         <f>VAR(D15:D24,F15:F24,H15:H24,J15:J24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q15" s="27" t="e">
+      <c r="Q15" s="30" t="e">
         <f>_xlfn.STDEV.S(D15:D24,F15:F24,H15:H24,J15:J24)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R15" s="22"/>
-      <c r="S15" s="27" t="e">
+      <c r="S15" s="30" t="e">
         <f>AVERAGE(E15:E24,G15:G24,I15:I24,K15:K24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T15" s="27">
+      <c r="T15" s="30">
         <f>MIN(E15:E24,G15:G24,I15:I24,K15:K24)</f>
         <v>0</v>
       </c>
-      <c r="U15" s="27">
+      <c r="U15" s="30">
         <f>MAX(E15:E24,G15:G24,I15:I24,K15:K24)</f>
         <v>0</v>
       </c>
-      <c r="V15" s="27" t="e">
+      <c r="V15" s="30" t="e">
         <f>MEDIAN(E15:E24,G15:G24,I15:I24,K15:K24)</f>
         <v>#NUM!</v>
       </c>
-      <c r="W15" s="27" t="e">
+      <c r="W15" s="30" t="e">
         <f>VAR(E15:E24,G15:G24,I15:I24,K15:K24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X15" s="27" t="e">
+      <c r="X15" s="30" t="e">
         <f>_xlfn.STDEV.S(E15:E24,G15:G24,I15:I24,K15:K24)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="30"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="7" t="s">
         <v>10</v>
       </c>
@@ -8910,23 +8917,23 @@
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
       <c r="R16" s="22"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" s="30"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="7" t="s">
         <v>11</v>
       </c>
@@ -8938,23 +8945,23 @@
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
       <c r="R17" s="22"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="27"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
-      <c r="B18" s="30"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="7" t="s">
         <v>12</v>
       </c>
@@ -8966,23 +8973,23 @@
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
       <c r="R18" s="22"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
-      <c r="X18" s="27"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
-      <c r="B19" s="30"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="7" t="s">
         <v>13</v>
       </c>
@@ -8994,23 +9001,23 @@
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
       <c r="R19" s="22"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
-      <c r="B20" s="30"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="7" t="s">
         <v>14</v>
       </c>
@@ -9022,23 +9029,23 @@
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
       <c r="R20" s="22"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="27"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
-      <c r="B21" s="30"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="7" t="s">
         <v>15</v>
       </c>
@@ -9050,23 +9057,23 @@
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
       <c r="R21" s="22"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="27"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
-      <c r="B22" s="30"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="7" t="s">
         <v>16</v>
       </c>
@@ -9078,23 +9085,23 @@
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
       <c r="R22" s="22"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="27"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
-      <c r="B23" s="30"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="7" t="s">
         <v>17</v>
       </c>
@@ -9106,23 +9113,23 @@
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
       <c r="R23" s="22"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
-      <c r="B24" s="30"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="7" t="s">
         <v>18</v>
       </c>
@@ -9134,19 +9141,19 @@
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
       <c r="R24" s="22"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
@@ -9218,7 +9225,7 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
-      <c r="B26" s="30">
+      <c r="B26" s="29">
         <v>250</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -9232,59 +9239,59 @@
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
-      <c r="L26" s="27" t="e">
+      <c r="L26" s="30" t="e">
         <f>AVERAGE(D26:D35,F26:F35,H26:H35,J26:J35)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M26" s="27">
+      <c r="M26" s="30">
         <f>MIN(D26:D35,F26:F35,H26:H35,J26:J35)</f>
         <v>0</v>
       </c>
-      <c r="N26" s="27">
+      <c r="N26" s="30">
         <f>MAX(D26:D35,F26:F35,H26:H35,J26:J35)</f>
         <v>0</v>
       </c>
-      <c r="O26" s="27" t="e">
+      <c r="O26" s="30" t="e">
         <f>MEDIAN(D26:D35,F26:F35,H26:H35,J26:J35)</f>
         <v>#NUM!</v>
       </c>
-      <c r="P26" s="27" t="e">
+      <c r="P26" s="30" t="e">
         <f>VAR(D26:D35,F26:F35,H26:H35,J26:J35)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q26" s="27" t="e">
+      <c r="Q26" s="30" t="e">
         <f>_xlfn.STDEV.S(D26:D35,F26:F35,H26:H35,J26:J35)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R26" s="22"/>
-      <c r="S26" s="27" t="e">
+      <c r="S26" s="30" t="e">
         <f>AVERAGE(E26:E35,G26:G35,I26:I35,K26:K35)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T26" s="27">
+      <c r="T26" s="30">
         <f>MIN(E26:E35,G26:G35,I26:I35,K26:K35)</f>
         <v>0</v>
       </c>
-      <c r="U26" s="27">
+      <c r="U26" s="30">
         <f>MAX(E26:E35,G26:G35,I26:I35,K26:K35)</f>
         <v>0</v>
       </c>
-      <c r="V26" s="27" t="e">
+      <c r="V26" s="30" t="e">
         <f>MEDIAN(E26:E35,G26:G35,I26:I35,K26:K35)</f>
         <v>#NUM!</v>
       </c>
-      <c r="W26" s="27" t="e">
+      <c r="W26" s="30" t="e">
         <f>VAR(E26:E35,G26:G35,I26:I35,K26:K35)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X26" s="27" t="e">
+      <c r="X26" s="30" t="e">
         <f>_xlfn.STDEV.S(E26:E35,G26:G35,I26:I35,K26:K35)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
-      <c r="B27" s="30"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="7" t="s">
         <v>10</v>
       </c>
@@ -9296,23 +9303,23 @@
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
       <c r="R27" s="22"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="27"/>
-      <c r="W27" s="27"/>
-      <c r="X27" s="27"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="30"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
-      <c r="B28" s="30"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="7" t="s">
         <v>11</v>
       </c>
@@ -9324,23 +9331,23 @@
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
       <c r="R28" s="22"/>
-      <c r="S28" s="27"/>
-      <c r="T28" s="27"/>
-      <c r="U28" s="27"/>
-      <c r="V28" s="27"/>
-      <c r="W28" s="27"/>
-      <c r="X28" s="27"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
-      <c r="B29" s="30"/>
+      <c r="B29" s="29"/>
       <c r="C29" s="7" t="s">
         <v>12</v>
       </c>
@@ -9352,23 +9359,23 @@
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
       <c r="R29" s="22"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="27"/>
-      <c r="W29" s="27"/>
-      <c r="X29" s="27"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="30"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
-      <c r="B30" s="30"/>
+      <c r="B30" s="29"/>
       <c r="C30" s="7" t="s">
         <v>13</v>
       </c>
@@ -9380,23 +9387,23 @@
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
       <c r="R30" s="22"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="27"/>
-      <c r="W30" s="27"/>
-      <c r="X30" s="27"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
-      <c r="B31" s="30"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="7" t="s">
         <v>14</v>
       </c>
@@ -9408,23 +9415,23 @@
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
       <c r="R31" s="22"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="27"/>
-      <c r="W31" s="27"/>
-      <c r="X31" s="27"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="30"/>
+      <c r="V31" s="30"/>
+      <c r="W31" s="30"/>
+      <c r="X31" s="30"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
-      <c r="B32" s="30"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="7" t="s">
         <v>15</v>
       </c>
@@ -9436,23 +9443,23 @@
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
       <c r="R32" s="22"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="27"/>
-      <c r="U32" s="27"/>
-      <c r="V32" s="27"/>
-      <c r="W32" s="27"/>
-      <c r="X32" s="27"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="30"/>
+      <c r="V32" s="30"/>
+      <c r="W32" s="30"/>
+      <c r="X32" s="30"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
-      <c r="B33" s="30"/>
+      <c r="B33" s="29"/>
       <c r="C33" s="7" t="s">
         <v>16</v>
       </c>
@@ -9464,23 +9471,23 @@
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
       <c r="R33" s="22"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="27"/>
-      <c r="U33" s="27"/>
-      <c r="V33" s="27"/>
-      <c r="W33" s="27"/>
-      <c r="X33" s="27"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="30"/>
+      <c r="U33" s="30"/>
+      <c r="V33" s="30"/>
+      <c r="W33" s="30"/>
+      <c r="X33" s="30"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
-      <c r="B34" s="30"/>
+      <c r="B34" s="29"/>
       <c r="C34" s="7" t="s">
         <v>17</v>
       </c>
@@ -9492,23 +9499,23 @@
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="27"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
       <c r="R34" s="22"/>
-      <c r="S34" s="27"/>
-      <c r="T34" s="27"/>
-      <c r="U34" s="27"/>
-      <c r="V34" s="27"/>
-      <c r="W34" s="27"/>
-      <c r="X34" s="27"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="30"/>
+      <c r="U34" s="30"/>
+      <c r="V34" s="30"/>
+      <c r="W34" s="30"/>
+      <c r="X34" s="30"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
-      <c r="B35" s="30"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="7" t="s">
         <v>18</v>
       </c>
@@ -9520,23 +9527,23 @@
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="27"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
       <c r="R35" s="22"/>
-      <c r="S35" s="27"/>
-      <c r="T35" s="27"/>
-      <c r="U35" s="27"/>
-      <c r="V35" s="27"/>
-      <c r="W35" s="27"/>
-      <c r="X35" s="27"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="30"/>
+      <c r="U35" s="30"/>
+      <c r="V35" s="30"/>
+      <c r="W35" s="30"/>
+      <c r="X35" s="30"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
-      <c r="B36" s="30">
+      <c r="B36" s="29">
         <v>500</v>
       </c>
       <c r="C36" s="18" t="s">
@@ -9606,7 +9613,7 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
-      <c r="B37" s="30"/>
+      <c r="B37" s="29"/>
       <c r="C37" s="7" t="s">
         <v>9</v>
       </c>
@@ -9618,59 +9625,59 @@
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
-      <c r="L37" s="27" t="e">
+      <c r="L37" s="30" t="e">
         <f>AVERAGE(D37:D46,F37:F46,H37:H46,J37:J46)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M37" s="27">
+      <c r="M37" s="30">
         <f>MIN(D37:D46,F37:F46,H37:H46,J37:J46)</f>
         <v>0</v>
       </c>
-      <c r="N37" s="27">
+      <c r="N37" s="30">
         <f>MAX(D37:D46,F37:F46,H37:H46,J37:J46)</f>
         <v>0</v>
       </c>
-      <c r="O37" s="27" t="e">
+      <c r="O37" s="30" t="e">
         <f>MEDIAN(D37:D46,F37:F46,H37:H46,J37:J46)</f>
         <v>#NUM!</v>
       </c>
-      <c r="P37" s="27" t="e">
+      <c r="P37" s="30" t="e">
         <f>VAR(D37:D46,F37:F46,H37:H46,J37:J46)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q37" s="27" t="e">
+      <c r="Q37" s="30" t="e">
         <f>_xlfn.STDEV.S(D37:D46,F37:F46,H37:H46,J37:J46)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R37" s="22"/>
-      <c r="S37" s="27" t="e">
+      <c r="S37" s="30" t="e">
         <f>AVERAGE(E37:E46,G37:G46,I37:I46,K37:K46)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T37" s="27">
+      <c r="T37" s="30">
         <f>MIN(E37:E46,G37:G46,I37:I46,K37:K46)</f>
         <v>0</v>
       </c>
-      <c r="U37" s="27">
+      <c r="U37" s="30">
         <f>MAX(E37:E46,G37:G46,I37:I46,K37:K46)</f>
         <v>0</v>
       </c>
-      <c r="V37" s="27" t="e">
+      <c r="V37" s="30" t="e">
         <f>MEDIAN(E37:E46,G37:G46,I37:I46,K37:K46)</f>
         <v>#NUM!</v>
       </c>
-      <c r="W37" s="27" t="e">
+      <c r="W37" s="30" t="e">
         <f>VAR(E37:E46,G37:G46,I37:I46,K37:K46)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X37" s="27" t="e">
+      <c r="X37" s="30" t="e">
         <f>_xlfn.STDEV.S(E37:E46,G37:G46,I37:I46,K37:K46)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
-      <c r="B38" s="30"/>
+      <c r="B38" s="29"/>
       <c r="C38" s="7" t="s">
         <v>10</v>
       </c>
@@ -9682,23 +9689,23 @@
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="27"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
       <c r="R38" s="22"/>
-      <c r="S38" s="27"/>
-      <c r="T38" s="27"/>
-      <c r="U38" s="27"/>
-      <c r="V38" s="27"/>
-      <c r="W38" s="27"/>
-      <c r="X38" s="27"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="30"/>
+      <c r="V38" s="30"/>
+      <c r="W38" s="30"/>
+      <c r="X38" s="30"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
-      <c r="B39" s="30"/>
+      <c r="B39" s="29"/>
       <c r="C39" s="7" t="s">
         <v>11</v>
       </c>
@@ -9710,23 +9717,23 @@
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30"/>
       <c r="R39" s="22"/>
-      <c r="S39" s="27"/>
-      <c r="T39" s="27"/>
-      <c r="U39" s="27"/>
-      <c r="V39" s="27"/>
-      <c r="W39" s="27"/>
-      <c r="X39" s="27"/>
+      <c r="S39" s="30"/>
+      <c r="T39" s="30"/>
+      <c r="U39" s="30"/>
+      <c r="V39" s="30"/>
+      <c r="W39" s="30"/>
+      <c r="X39" s="30"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
-      <c r="B40" s="30"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="7" t="s">
         <v>12</v>
       </c>
@@ -9738,23 +9745,23 @@
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="30"/>
       <c r="R40" s="22"/>
-      <c r="S40" s="27"/>
-      <c r="T40" s="27"/>
-      <c r="U40" s="27"/>
-      <c r="V40" s="27"/>
-      <c r="W40" s="27"/>
-      <c r="X40" s="27"/>
+      <c r="S40" s="30"/>
+      <c r="T40" s="30"/>
+      <c r="U40" s="30"/>
+      <c r="V40" s="30"/>
+      <c r="W40" s="30"/>
+      <c r="X40" s="30"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
-      <c r="B41" s="30"/>
+      <c r="B41" s="29"/>
       <c r="C41" s="7" t="s">
         <v>13</v>
       </c>
@@ -9766,23 +9773,23 @@
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30"/>
       <c r="R41" s="22"/>
-      <c r="S41" s="27"/>
-      <c r="T41" s="27"/>
-      <c r="U41" s="27"/>
-      <c r="V41" s="27"/>
-      <c r="W41" s="27"/>
-      <c r="X41" s="27"/>
+      <c r="S41" s="30"/>
+      <c r="T41" s="30"/>
+      <c r="U41" s="30"/>
+      <c r="V41" s="30"/>
+      <c r="W41" s="30"/>
+      <c r="X41" s="30"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
-      <c r="B42" s="30"/>
+      <c r="B42" s="29"/>
       <c r="C42" s="7" t="s">
         <v>14</v>
       </c>
@@ -9794,23 +9801,23 @@
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="27"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="30"/>
       <c r="R42" s="22"/>
-      <c r="S42" s="27"/>
-      <c r="T42" s="27"/>
-      <c r="U42" s="27"/>
-      <c r="V42" s="27"/>
-      <c r="W42" s="27"/>
-      <c r="X42" s="27"/>
+      <c r="S42" s="30"/>
+      <c r="T42" s="30"/>
+      <c r="U42" s="30"/>
+      <c r="V42" s="30"/>
+      <c r="W42" s="30"/>
+      <c r="X42" s="30"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
-      <c r="B43" s="30"/>
+      <c r="B43" s="29"/>
       <c r="C43" s="7" t="s">
         <v>15</v>
       </c>
@@ -9822,23 +9829,23 @@
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="27"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="30"/>
       <c r="R43" s="22"/>
-      <c r="S43" s="27"/>
-      <c r="T43" s="27"/>
-      <c r="U43" s="27"/>
-      <c r="V43" s="27"/>
-      <c r="W43" s="27"/>
-      <c r="X43" s="27"/>
+      <c r="S43" s="30"/>
+      <c r="T43" s="30"/>
+      <c r="U43" s="30"/>
+      <c r="V43" s="30"/>
+      <c r="W43" s="30"/>
+      <c r="X43" s="30"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
-      <c r="B44" s="30"/>
+      <c r="B44" s="29"/>
       <c r="C44" s="7" t="s">
         <v>16</v>
       </c>
@@ -9850,23 +9857,23 @@
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27"/>
-      <c r="N44" s="27"/>
-      <c r="O44" s="27"/>
-      <c r="P44" s="27"/>
-      <c r="Q44" s="27"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="30"/>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="30"/>
       <c r="R44" s="22"/>
-      <c r="S44" s="27"/>
-      <c r="T44" s="27"/>
-      <c r="U44" s="27"/>
-      <c r="V44" s="27"/>
-      <c r="W44" s="27"/>
-      <c r="X44" s="27"/>
+      <c r="S44" s="30"/>
+      <c r="T44" s="30"/>
+      <c r="U44" s="30"/>
+      <c r="V44" s="30"/>
+      <c r="W44" s="30"/>
+      <c r="X44" s="30"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
-      <c r="B45" s="30"/>
+      <c r="B45" s="29"/>
       <c r="C45" s="7" t="s">
         <v>17</v>
       </c>
@@ -9878,23 +9885,23 @@
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="27"/>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="27"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="30"/>
       <c r="R45" s="22"/>
-      <c r="S45" s="27"/>
-      <c r="T45" s="27"/>
-      <c r="U45" s="27"/>
-      <c r="V45" s="27"/>
-      <c r="W45" s="27"/>
-      <c r="X45" s="27"/>
+      <c r="S45" s="30"/>
+      <c r="T45" s="30"/>
+      <c r="U45" s="30"/>
+      <c r="V45" s="30"/>
+      <c r="W45" s="30"/>
+      <c r="X45" s="30"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
-      <c r="B46" s="30"/>
+      <c r="B46" s="29"/>
       <c r="C46" s="21" t="s">
         <v>18</v>
       </c>
@@ -9906,23 +9913,23 @@
       <c r="I46" s="20"/>
       <c r="J46" s="20"/>
       <c r="K46" s="20"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="27"/>
-      <c r="P46" s="27"/>
-      <c r="Q46" s="27"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="30"/>
+      <c r="Q46" s="30"/>
       <c r="R46" s="22"/>
-      <c r="S46" s="27"/>
-      <c r="T46" s="27"/>
-      <c r="U46" s="27"/>
-      <c r="V46" s="27"/>
-      <c r="W46" s="27"/>
-      <c r="X46" s="27"/>
+      <c r="S46" s="30"/>
+      <c r="T46" s="30"/>
+      <c r="U46" s="30"/>
+      <c r="V46" s="30"/>
+      <c r="W46" s="30"/>
+      <c r="X46" s="30"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
-      <c r="B47" s="30">
+      <c r="B47" s="29">
         <v>750</v>
       </c>
       <c r="C47" s="18" t="s">
@@ -9992,7 +9999,7 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
-      <c r="B48" s="30"/>
+      <c r="B48" s="29"/>
       <c r="C48" s="7" t="s">
         <v>9</v>
       </c>
@@ -10004,59 +10011,59 @@
       <c r="I48" s="20"/>
       <c r="J48" s="20"/>
       <c r="K48" s="20"/>
-      <c r="L48" s="27" t="e">
+      <c r="L48" s="30" t="e">
         <f>AVERAGE(D48:D57,F48:F57,H48:H57,J48:J57)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M48" s="27">
+      <c r="M48" s="30">
         <f>MIN(D48:D57,F48:F57,H48:H57,J48:J57)</f>
         <v>0</v>
       </c>
-      <c r="N48" s="27">
+      <c r="N48" s="30">
         <f>MAX(D48:D57,F48:F57,H48:H57,J48:J57)</f>
         <v>0</v>
       </c>
-      <c r="O48" s="27" t="e">
+      <c r="O48" s="30" t="e">
         <f>MEDIAN(D48:D57,F48:F57,H48:H57,J48:J57)</f>
         <v>#NUM!</v>
       </c>
-      <c r="P48" s="27" t="e">
+      <c r="P48" s="30" t="e">
         <f>VAR(D48:D57,F48:F57,H48:H57,J48:J57)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q48" s="27" t="e">
+      <c r="Q48" s="30" t="e">
         <f>_xlfn.STDEV.S(D48:D57,F48:F57,H48:H57,J48:J57)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R48" s="22"/>
-      <c r="S48" s="27" t="e">
+      <c r="S48" s="30" t="e">
         <f>AVERAGE(E48:E57,G48:G57,I48:I57,K48:K57)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T48" s="27">
+      <c r="T48" s="30">
         <f>MIN(E48:E57,G48:G57,I48:I57,K48:K57)</f>
         <v>0</v>
       </c>
-      <c r="U48" s="27">
+      <c r="U48" s="30">
         <f>MAX(E48:E57,G48:G57,I48:I57,K48:K57)</f>
         <v>0</v>
       </c>
-      <c r="V48" s="27" t="e">
+      <c r="V48" s="30" t="e">
         <f>MEDIAN(E48:E57,G48:G57,I48:I57,K48:K57)</f>
         <v>#NUM!</v>
       </c>
-      <c r="W48" s="27" t="e">
+      <c r="W48" s="30" t="e">
         <f>VAR(E48:E57,G48:G57,I48:I57,K48:K57)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X48" s="27" t="e">
+      <c r="X48" s="30" t="e">
         <f>_xlfn.STDEV.S(E48:E57,G48:G57,I48:I57,K48:K57)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
-      <c r="B49" s="30"/>
+      <c r="B49" s="29"/>
       <c r="C49" s="7" t="s">
         <v>10</v>
       </c>
@@ -10068,23 +10075,23 @@
       <c r="I49" s="20"/>
       <c r="J49" s="20"/>
       <c r="K49" s="20"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="27"/>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="27"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="30"/>
+      <c r="Q49" s="30"/>
       <c r="R49" s="22"/>
-      <c r="S49" s="27"/>
-      <c r="T49" s="27"/>
-      <c r="U49" s="27"/>
-      <c r="V49" s="27"/>
-      <c r="W49" s="27"/>
-      <c r="X49" s="27"/>
+      <c r="S49" s="30"/>
+      <c r="T49" s="30"/>
+      <c r="U49" s="30"/>
+      <c r="V49" s="30"/>
+      <c r="W49" s="30"/>
+      <c r="X49" s="30"/>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
-      <c r="B50" s="30"/>
+      <c r="B50" s="29"/>
       <c r="C50" s="7" t="s">
         <v>11</v>
       </c>
@@ -10096,23 +10103,23 @@
       <c r="I50" s="20"/>
       <c r="J50" s="20"/>
       <c r="K50" s="20"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="27"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="27"/>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="27"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="30"/>
+      <c r="N50" s="30"/>
+      <c r="O50" s="30"/>
+      <c r="P50" s="30"/>
+      <c r="Q50" s="30"/>
       <c r="R50" s="22"/>
-      <c r="S50" s="27"/>
-      <c r="T50" s="27"/>
-      <c r="U50" s="27"/>
-      <c r="V50" s="27"/>
-      <c r="W50" s="27"/>
-      <c r="X50" s="27"/>
+      <c r="S50" s="30"/>
+      <c r="T50" s="30"/>
+      <c r="U50" s="30"/>
+      <c r="V50" s="30"/>
+      <c r="W50" s="30"/>
+      <c r="X50" s="30"/>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
-      <c r="B51" s="30"/>
+      <c r="B51" s="29"/>
       <c r="C51" s="7" t="s">
         <v>12</v>
       </c>
@@ -10124,23 +10131,23 @@
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
       <c r="K51" s="20"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="27"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="27"/>
-      <c r="P51" s="27"/>
-      <c r="Q51" s="27"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="30"/>
+      <c r="P51" s="30"/>
+      <c r="Q51" s="30"/>
       <c r="R51" s="22"/>
-      <c r="S51" s="27"/>
-      <c r="T51" s="27"/>
-      <c r="U51" s="27"/>
-      <c r="V51" s="27"/>
-      <c r="W51" s="27"/>
-      <c r="X51" s="27"/>
+      <c r="S51" s="30"/>
+      <c r="T51" s="30"/>
+      <c r="U51" s="30"/>
+      <c r="V51" s="30"/>
+      <c r="W51" s="30"/>
+      <c r="X51" s="30"/>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
-      <c r="B52" s="30"/>
+      <c r="B52" s="29"/>
       <c r="C52" s="7" t="s">
         <v>13</v>
       </c>
@@ -10152,23 +10159,23 @@
       <c r="I52" s="20"/>
       <c r="J52" s="20"/>
       <c r="K52" s="20"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="27"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="27"/>
-      <c r="P52" s="27"/>
-      <c r="Q52" s="27"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="30"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="30"/>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="30"/>
       <c r="R52" s="22"/>
-      <c r="S52" s="27"/>
-      <c r="T52" s="27"/>
-      <c r="U52" s="27"/>
-      <c r="V52" s="27"/>
-      <c r="W52" s="27"/>
-      <c r="X52" s="27"/>
+      <c r="S52" s="30"/>
+      <c r="T52" s="30"/>
+      <c r="U52" s="30"/>
+      <c r="V52" s="30"/>
+      <c r="W52" s="30"/>
+      <c r="X52" s="30"/>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
-      <c r="B53" s="30"/>
+      <c r="B53" s="29"/>
       <c r="C53" s="7" t="s">
         <v>14</v>
       </c>
@@ -10180,23 +10187,23 @@
       <c r="I53" s="20"/>
       <c r="J53" s="20"/>
       <c r="K53" s="20"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="27"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="27"/>
-      <c r="P53" s="27"/>
-      <c r="Q53" s="27"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="30"/>
       <c r="R53" s="22"/>
-      <c r="S53" s="27"/>
-      <c r="T53" s="27"/>
-      <c r="U53" s="27"/>
-      <c r="V53" s="27"/>
-      <c r="W53" s="27"/>
-      <c r="X53" s="27"/>
+      <c r="S53" s="30"/>
+      <c r="T53" s="30"/>
+      <c r="U53" s="30"/>
+      <c r="V53" s="30"/>
+      <c r="W53" s="30"/>
+      <c r="X53" s="30"/>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
-      <c r="B54" s="30"/>
+      <c r="B54" s="29"/>
       <c r="C54" s="7" t="s">
         <v>15</v>
       </c>
@@ -10208,23 +10215,23 @@
       <c r="I54" s="20"/>
       <c r="J54" s="20"/>
       <c r="K54" s="20"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="27"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="27"/>
-      <c r="P54" s="27"/>
-      <c r="Q54" s="27"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="30"/>
+      <c r="N54" s="30"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="30"/>
+      <c r="Q54" s="30"/>
       <c r="R54" s="22"/>
-      <c r="S54" s="27"/>
-      <c r="T54" s="27"/>
-      <c r="U54" s="27"/>
-      <c r="V54" s="27"/>
-      <c r="W54" s="27"/>
-      <c r="X54" s="27"/>
+      <c r="S54" s="30"/>
+      <c r="T54" s="30"/>
+      <c r="U54" s="30"/>
+      <c r="V54" s="30"/>
+      <c r="W54" s="30"/>
+      <c r="X54" s="30"/>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
-      <c r="B55" s="30"/>
+      <c r="B55" s="29"/>
       <c r="C55" s="7" t="s">
         <v>16</v>
       </c>
@@ -10236,23 +10243,23 @@
       <c r="I55" s="20"/>
       <c r="J55" s="20"/>
       <c r="K55" s="20"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="27"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="27"/>
-      <c r="P55" s="27"/>
-      <c r="Q55" s="27"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="30"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="30"/>
+      <c r="Q55" s="30"/>
       <c r="R55" s="22"/>
-      <c r="S55" s="27"/>
-      <c r="T55" s="27"/>
-      <c r="U55" s="27"/>
-      <c r="V55" s="27"/>
-      <c r="W55" s="27"/>
-      <c r="X55" s="27"/>
+      <c r="S55" s="30"/>
+      <c r="T55" s="30"/>
+      <c r="U55" s="30"/>
+      <c r="V55" s="30"/>
+      <c r="W55" s="30"/>
+      <c r="X55" s="30"/>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
-      <c r="B56" s="30"/>
+      <c r="B56" s="29"/>
       <c r="C56" s="7" t="s">
         <v>17</v>
       </c>
@@ -10264,23 +10271,23 @@
       <c r="I56" s="20"/>
       <c r="J56" s="20"/>
       <c r="K56" s="20"/>
-      <c r="L56" s="27"/>
-      <c r="M56" s="27"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="27"/>
-      <c r="P56" s="27"/>
-      <c r="Q56" s="27"/>
+      <c r="L56" s="30"/>
+      <c r="M56" s="30"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="30"/>
       <c r="R56" s="22"/>
-      <c r="S56" s="27"/>
-      <c r="T56" s="27"/>
-      <c r="U56" s="27"/>
-      <c r="V56" s="27"/>
-      <c r="W56" s="27"/>
-      <c r="X56" s="27"/>
+      <c r="S56" s="30"/>
+      <c r="T56" s="30"/>
+      <c r="U56" s="30"/>
+      <c r="V56" s="30"/>
+      <c r="W56" s="30"/>
+      <c r="X56" s="30"/>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
-      <c r="B57" s="30"/>
+      <c r="B57" s="29"/>
       <c r="C57" s="21" t="s">
         <v>18</v>
       </c>
@@ -10292,23 +10299,23 @@
       <c r="I57" s="20"/>
       <c r="J57" s="20"/>
       <c r="K57" s="20"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="27"/>
-      <c r="N57" s="27"/>
-      <c r="O57" s="27"/>
-      <c r="P57" s="27"/>
-      <c r="Q57" s="27"/>
+      <c r="L57" s="30"/>
+      <c r="M57" s="30"/>
+      <c r="N57" s="30"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="30"/>
+      <c r="Q57" s="30"/>
       <c r="R57" s="22"/>
-      <c r="S57" s="27"/>
-      <c r="T57" s="27"/>
-      <c r="U57" s="27"/>
-      <c r="V57" s="27"/>
-      <c r="W57" s="27"/>
-      <c r="X57" s="27"/>
+      <c r="S57" s="30"/>
+      <c r="T57" s="30"/>
+      <c r="U57" s="30"/>
+      <c r="V57" s="30"/>
+      <c r="W57" s="30"/>
+      <c r="X57" s="30"/>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
-      <c r="B58" s="30">
+      <c r="B58" s="29">
         <v>1000</v>
       </c>
       <c r="C58" s="18" t="s">
@@ -10378,7 +10385,7 @@
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
-      <c r="B59" s="30"/>
+      <c r="B59" s="29"/>
       <c r="C59" s="7" t="s">
         <v>9</v>
       </c>
@@ -10390,59 +10397,59 @@
       <c r="I59" s="20"/>
       <c r="J59" s="20"/>
       <c r="K59" s="20"/>
-      <c r="L59" s="27" t="e">
+      <c r="L59" s="30" t="e">
         <f>AVERAGE(D59:D68,F59:F68,H59:H68,J59:J68)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M59" s="27">
+      <c r="M59" s="30">
         <f>MIN(D59:D68,F59:F68,H59:H68,J59:J68)</f>
         <v>0</v>
       </c>
-      <c r="N59" s="27">
+      <c r="N59" s="30">
         <f>MAX(D59:D68,F59:F68,H59:H68,J59:J68)</f>
         <v>0</v>
       </c>
-      <c r="O59" s="27" t="e">
+      <c r="O59" s="30" t="e">
         <f>MEDIAN(D59:D68,F59:F68,H59:H68,J59:J68)</f>
         <v>#NUM!</v>
       </c>
-      <c r="P59" s="27" t="e">
+      <c r="P59" s="30" t="e">
         <f>VAR(D59:D68,F59:F68,H59:H68,J59:J68)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q59" s="27" t="e">
+      <c r="Q59" s="30" t="e">
         <f>_xlfn.STDEV.S(D59:D68,F59:F68,H59:H68,J59:J68)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R59" s="22"/>
-      <c r="S59" s="27" t="e">
+      <c r="S59" s="30" t="e">
         <f>AVERAGE(E59:E68,G59:G68,I59:I68,K59:K68)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T59" s="27">
+      <c r="T59" s="30">
         <f>MIN(E59:E68,G59:G68,I59:I68,K59:K68)</f>
         <v>0</v>
       </c>
-      <c r="U59" s="27">
+      <c r="U59" s="30">
         <f>MAX(E59:E68,G59:G68,I59:I68,K59:K68)</f>
         <v>0</v>
       </c>
-      <c r="V59" s="27" t="e">
+      <c r="V59" s="30" t="e">
         <f>MEDIAN(E59:E68,G59:G68,I59:I68,K59:K68)</f>
         <v>#NUM!</v>
       </c>
-      <c r="W59" s="27" t="e">
+      <c r="W59" s="30" t="e">
         <f>VAR(E59:E68,G59:G68,I59:I68,K59:K68)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X59" s="27" t="e">
+      <c r="X59" s="30" t="e">
         <f>_xlfn.STDEV.S(E59:E68,G59:G68,I59:I68,K59:K68)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
-      <c r="B60" s="30"/>
+      <c r="B60" s="29"/>
       <c r="C60" s="7" t="s">
         <v>10</v>
       </c>
@@ -10454,23 +10461,23 @@
       <c r="I60" s="20"/>
       <c r="J60" s="20"/>
       <c r="K60" s="20"/>
-      <c r="L60" s="27"/>
-      <c r="M60" s="27"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="27"/>
-      <c r="P60" s="27"/>
-      <c r="Q60" s="27"/>
+      <c r="L60" s="30"/>
+      <c r="M60" s="30"/>
+      <c r="N60" s="30"/>
+      <c r="O60" s="30"/>
+      <c r="P60" s="30"/>
+      <c r="Q60" s="30"/>
       <c r="R60" s="22"/>
-      <c r="S60" s="27"/>
-      <c r="T60" s="27"/>
-      <c r="U60" s="27"/>
-      <c r="V60" s="27"/>
-      <c r="W60" s="27"/>
-      <c r="X60" s="27"/>
+      <c r="S60" s="30"/>
+      <c r="T60" s="30"/>
+      <c r="U60" s="30"/>
+      <c r="V60" s="30"/>
+      <c r="W60" s="30"/>
+      <c r="X60" s="30"/>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
-      <c r="B61" s="30"/>
+      <c r="B61" s="29"/>
       <c r="C61" s="7" t="s">
         <v>11</v>
       </c>
@@ -10482,23 +10489,23 @@
       <c r="I61" s="20"/>
       <c r="J61" s="20"/>
       <c r="K61" s="20"/>
-      <c r="L61" s="27"/>
-      <c r="M61" s="27"/>
-      <c r="N61" s="27"/>
-      <c r="O61" s="27"/>
-      <c r="P61" s="27"/>
-      <c r="Q61" s="27"/>
+      <c r="L61" s="30"/>
+      <c r="M61" s="30"/>
+      <c r="N61" s="30"/>
+      <c r="O61" s="30"/>
+      <c r="P61" s="30"/>
+      <c r="Q61" s="30"/>
       <c r="R61" s="22"/>
-      <c r="S61" s="27"/>
-      <c r="T61" s="27"/>
-      <c r="U61" s="27"/>
-      <c r="V61" s="27"/>
-      <c r="W61" s="27"/>
-      <c r="X61" s="27"/>
+      <c r="S61" s="30"/>
+      <c r="T61" s="30"/>
+      <c r="U61" s="30"/>
+      <c r="V61" s="30"/>
+      <c r="W61" s="30"/>
+      <c r="X61" s="30"/>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
-      <c r="B62" s="30"/>
+      <c r="B62" s="29"/>
       <c r="C62" s="7" t="s">
         <v>12</v>
       </c>
@@ -10510,23 +10517,23 @@
       <c r="I62" s="20"/>
       <c r="J62" s="20"/>
       <c r="K62" s="20"/>
-      <c r="L62" s="27"/>
-      <c r="M62" s="27"/>
-      <c r="N62" s="27"/>
-      <c r="O62" s="27"/>
-      <c r="P62" s="27"/>
-      <c r="Q62" s="27"/>
+      <c r="L62" s="30"/>
+      <c r="M62" s="30"/>
+      <c r="N62" s="30"/>
+      <c r="O62" s="30"/>
+      <c r="P62" s="30"/>
+      <c r="Q62" s="30"/>
       <c r="R62" s="22"/>
-      <c r="S62" s="27"/>
-      <c r="T62" s="27"/>
-      <c r="U62" s="27"/>
-      <c r="V62" s="27"/>
-      <c r="W62" s="27"/>
-      <c r="X62" s="27"/>
+      <c r="S62" s="30"/>
+      <c r="T62" s="30"/>
+      <c r="U62" s="30"/>
+      <c r="V62" s="30"/>
+      <c r="W62" s="30"/>
+      <c r="X62" s="30"/>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
-      <c r="B63" s="30"/>
+      <c r="B63" s="29"/>
       <c r="C63" s="7" t="s">
         <v>13</v>
       </c>
@@ -10538,23 +10545,23 @@
       <c r="I63" s="20"/>
       <c r="J63" s="20"/>
       <c r="K63" s="20"/>
-      <c r="L63" s="27"/>
-      <c r="M63" s="27"/>
-      <c r="N63" s="27"/>
-      <c r="O63" s="27"/>
-      <c r="P63" s="27"/>
-      <c r="Q63" s="27"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="30"/>
+      <c r="N63" s="30"/>
+      <c r="O63" s="30"/>
+      <c r="P63" s="30"/>
+      <c r="Q63" s="30"/>
       <c r="R63" s="22"/>
-      <c r="S63" s="27"/>
-      <c r="T63" s="27"/>
-      <c r="U63" s="27"/>
-      <c r="V63" s="27"/>
-      <c r="W63" s="27"/>
-      <c r="X63" s="27"/>
+      <c r="S63" s="30"/>
+      <c r="T63" s="30"/>
+      <c r="U63" s="30"/>
+      <c r="V63" s="30"/>
+      <c r="W63" s="30"/>
+      <c r="X63" s="30"/>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
-      <c r="B64" s="30"/>
+      <c r="B64" s="29"/>
       <c r="C64" s="7" t="s">
         <v>14</v>
       </c>
@@ -10566,23 +10573,23 @@
       <c r="I64" s="20"/>
       <c r="J64" s="20"/>
       <c r="K64" s="20"/>
-      <c r="L64" s="27"/>
-      <c r="M64" s="27"/>
-      <c r="N64" s="27"/>
-      <c r="O64" s="27"/>
-      <c r="P64" s="27"/>
-      <c r="Q64" s="27"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="30"/>
+      <c r="N64" s="30"/>
+      <c r="O64" s="30"/>
+      <c r="P64" s="30"/>
+      <c r="Q64" s="30"/>
       <c r="R64" s="22"/>
-      <c r="S64" s="27"/>
-      <c r="T64" s="27"/>
-      <c r="U64" s="27"/>
-      <c r="V64" s="27"/>
-      <c r="W64" s="27"/>
-      <c r="X64" s="27"/>
+      <c r="S64" s="30"/>
+      <c r="T64" s="30"/>
+      <c r="U64" s="30"/>
+      <c r="V64" s="30"/>
+      <c r="W64" s="30"/>
+      <c r="X64" s="30"/>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
-      <c r="B65" s="30"/>
+      <c r="B65" s="29"/>
       <c r="C65" s="7" t="s">
         <v>15</v>
       </c>
@@ -10594,23 +10601,23 @@
       <c r="I65" s="20"/>
       <c r="J65" s="20"/>
       <c r="K65" s="20"/>
-      <c r="L65" s="27"/>
-      <c r="M65" s="27"/>
-      <c r="N65" s="27"/>
-      <c r="O65" s="27"/>
-      <c r="P65" s="27"/>
-      <c r="Q65" s="27"/>
+      <c r="L65" s="30"/>
+      <c r="M65" s="30"/>
+      <c r="N65" s="30"/>
+      <c r="O65" s="30"/>
+      <c r="P65" s="30"/>
+      <c r="Q65" s="30"/>
       <c r="R65" s="22"/>
-      <c r="S65" s="27"/>
-      <c r="T65" s="27"/>
-      <c r="U65" s="27"/>
-      <c r="V65" s="27"/>
-      <c r="W65" s="27"/>
-      <c r="X65" s="27"/>
+      <c r="S65" s="30"/>
+      <c r="T65" s="30"/>
+      <c r="U65" s="30"/>
+      <c r="V65" s="30"/>
+      <c r="W65" s="30"/>
+      <c r="X65" s="30"/>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
-      <c r="B66" s="30"/>
+      <c r="B66" s="29"/>
       <c r="C66" s="7" t="s">
         <v>16</v>
       </c>
@@ -10622,23 +10629,23 @@
       <c r="I66" s="20"/>
       <c r="J66" s="20"/>
       <c r="K66" s="20"/>
-      <c r="L66" s="27"/>
-      <c r="M66" s="27"/>
-      <c r="N66" s="27"/>
-      <c r="O66" s="27"/>
-      <c r="P66" s="27"/>
-      <c r="Q66" s="27"/>
+      <c r="L66" s="30"/>
+      <c r="M66" s="30"/>
+      <c r="N66" s="30"/>
+      <c r="O66" s="30"/>
+      <c r="P66" s="30"/>
+      <c r="Q66" s="30"/>
       <c r="R66" s="22"/>
-      <c r="S66" s="27"/>
-      <c r="T66" s="27"/>
-      <c r="U66" s="27"/>
-      <c r="V66" s="27"/>
-      <c r="W66" s="27"/>
-      <c r="X66" s="27"/>
+      <c r="S66" s="30"/>
+      <c r="T66" s="30"/>
+      <c r="U66" s="30"/>
+      <c r="V66" s="30"/>
+      <c r="W66" s="30"/>
+      <c r="X66" s="30"/>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
-      <c r="B67" s="30"/>
+      <c r="B67" s="29"/>
       <c r="C67" s="7" t="s">
         <v>17</v>
       </c>
@@ -10650,23 +10657,23 @@
       <c r="I67" s="20"/>
       <c r="J67" s="20"/>
       <c r="K67" s="20"/>
-      <c r="L67" s="27"/>
-      <c r="M67" s="27"/>
-      <c r="N67" s="27"/>
-      <c r="O67" s="27"/>
-      <c r="P67" s="27"/>
-      <c r="Q67" s="27"/>
+      <c r="L67" s="30"/>
+      <c r="M67" s="30"/>
+      <c r="N67" s="30"/>
+      <c r="O67" s="30"/>
+      <c r="P67" s="30"/>
+      <c r="Q67" s="30"/>
       <c r="R67" s="22"/>
-      <c r="S67" s="27"/>
-      <c r="T67" s="27"/>
-      <c r="U67" s="27"/>
-      <c r="V67" s="27"/>
-      <c r="W67" s="27"/>
-      <c r="X67" s="27"/>
+      <c r="S67" s="30"/>
+      <c r="T67" s="30"/>
+      <c r="U67" s="30"/>
+      <c r="V67" s="30"/>
+      <c r="W67" s="30"/>
+      <c r="X67" s="30"/>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
-      <c r="B68" s="30"/>
+      <c r="B68" s="29"/>
       <c r="C68" s="21" t="s">
         <v>18</v>
       </c>
@@ -10678,23 +10685,23 @@
       <c r="I68" s="20"/>
       <c r="J68" s="20"/>
       <c r="K68" s="20"/>
-      <c r="L68" s="27"/>
-      <c r="M68" s="27"/>
-      <c r="N68" s="27"/>
-      <c r="O68" s="27"/>
-      <c r="P68" s="27"/>
-      <c r="Q68" s="27"/>
+      <c r="L68" s="30"/>
+      <c r="M68" s="30"/>
+      <c r="N68" s="30"/>
+      <c r="O68" s="30"/>
+      <c r="P68" s="30"/>
+      <c r="Q68" s="30"/>
       <c r="R68" s="22"/>
-      <c r="S68" s="27"/>
-      <c r="T68" s="27"/>
-      <c r="U68" s="27"/>
-      <c r="V68" s="27"/>
-      <c r="W68" s="27"/>
-      <c r="X68" s="27"/>
+      <c r="S68" s="30"/>
+      <c r="T68" s="30"/>
+      <c r="U68" s="30"/>
+      <c r="V68" s="30"/>
+      <c r="W68" s="30"/>
+      <c r="X68" s="30"/>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
-      <c r="B69" s="28" t="s">
+      <c r="B69" s="33" t="s">
         <v>2</v>
       </c>
       <c r="C69" s="25"/>
@@ -10722,14 +10729,14 @@
       <c r="K69" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="L69" s="33" t="s">
+      <c r="L69" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="M69" s="33"/>
-      <c r="N69" s="33"/>
-      <c r="O69" s="33"/>
-      <c r="P69" s="34"/>
-      <c r="Q69" s="34"/>
+      <c r="M69" s="32"/>
+      <c r="N69" s="32"/>
+      <c r="O69" s="32"/>
+      <c r="P69" s="27"/>
+      <c r="Q69" s="27"/>
       <c r="R69" s="22"/>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
@@ -10740,7 +10747,7 @@
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="28"/>
+      <c r="B70" s="33"/>
       <c r="C70" s="26" t="s">
         <v>26</v>
       </c>
@@ -10792,7 +10799,7 @@
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
-      <c r="B71" s="28"/>
+      <c r="B71" s="33"/>
       <c r="C71" s="26" t="s">
         <v>3</v>
       </c>
@@ -10844,7 +10851,7 @@
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="28"/>
+      <c r="B72" s="33"/>
       <c r="C72" s="26" t="s">
         <v>4</v>
       </c>
@@ -10896,7 +10903,7 @@
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="28"/>
+      <c r="B73" s="33"/>
       <c r="C73" s="26" t="s">
         <v>27</v>
       </c>
@@ -10948,7 +10955,7 @@
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="28"/>
+      <c r="B74" s="33"/>
       <c r="C74" s="26" t="s">
         <v>5</v>
       </c>
@@ -10976,7 +10983,7 @@
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="28"/>
+      <c r="B75" s="33"/>
       <c r="C75" s="26" t="s">
         <v>6</v>
       </c>
@@ -11004,7 +11011,7 @@
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="28"/>
+      <c r="B76" s="33"/>
       <c r="C76" s="26" t="s">
         <v>7</v>
       </c>
@@ -11056,7 +11063,7 @@
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="28"/>
+      <c r="B77" s="33"/>
       <c r="C77" s="26" t="s">
         <v>28</v>
       </c>
@@ -11108,21 +11115,63 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="V59:V68"/>
-    <mergeCell ref="W59:W68"/>
-    <mergeCell ref="X59:X68"/>
-    <mergeCell ref="B69:B77"/>
-    <mergeCell ref="L69:O69"/>
-    <mergeCell ref="P59:P68"/>
-    <mergeCell ref="Q59:Q68"/>
-    <mergeCell ref="S59:S68"/>
-    <mergeCell ref="T59:T68"/>
-    <mergeCell ref="U59:U68"/>
-    <mergeCell ref="B58:B68"/>
-    <mergeCell ref="L59:L68"/>
-    <mergeCell ref="M59:M68"/>
-    <mergeCell ref="N59:N68"/>
-    <mergeCell ref="O59:O68"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:Q2"/>
+    <mergeCell ref="S2:X2"/>
+    <mergeCell ref="B3:B13"/>
+    <mergeCell ref="L4:L13"/>
+    <mergeCell ref="M4:M13"/>
+    <mergeCell ref="N4:N13"/>
+    <mergeCell ref="O4:O13"/>
+    <mergeCell ref="P4:P13"/>
+    <mergeCell ref="Q4:Q13"/>
+    <mergeCell ref="S4:S13"/>
+    <mergeCell ref="T4:T13"/>
+    <mergeCell ref="U4:U13"/>
+    <mergeCell ref="V4:V13"/>
+    <mergeCell ref="W4:W13"/>
+    <mergeCell ref="X4:X13"/>
+    <mergeCell ref="B14:B24"/>
+    <mergeCell ref="L15:L24"/>
+    <mergeCell ref="M15:M24"/>
+    <mergeCell ref="N15:N24"/>
+    <mergeCell ref="O15:O24"/>
+    <mergeCell ref="P15:P24"/>
+    <mergeCell ref="Q15:Q24"/>
+    <mergeCell ref="S15:S24"/>
+    <mergeCell ref="T15:T24"/>
+    <mergeCell ref="U15:U24"/>
+    <mergeCell ref="V15:V24"/>
+    <mergeCell ref="W15:W24"/>
+    <mergeCell ref="X15:X24"/>
+    <mergeCell ref="B26:B35"/>
+    <mergeCell ref="L26:L35"/>
+    <mergeCell ref="M26:M35"/>
+    <mergeCell ref="N26:N35"/>
+    <mergeCell ref="O26:O35"/>
+    <mergeCell ref="P26:P35"/>
+    <mergeCell ref="Q26:Q35"/>
+    <mergeCell ref="S26:S35"/>
+    <mergeCell ref="T26:T35"/>
+    <mergeCell ref="U26:U35"/>
+    <mergeCell ref="V26:V35"/>
+    <mergeCell ref="W26:W35"/>
+    <mergeCell ref="X26:X35"/>
+    <mergeCell ref="B36:B46"/>
+    <mergeCell ref="L37:L46"/>
+    <mergeCell ref="M37:M46"/>
+    <mergeCell ref="N37:N46"/>
+    <mergeCell ref="O37:O46"/>
+    <mergeCell ref="P37:P46"/>
+    <mergeCell ref="Q37:Q46"/>
+    <mergeCell ref="S37:S46"/>
+    <mergeCell ref="T37:T46"/>
+    <mergeCell ref="U37:U46"/>
     <mergeCell ref="V37:V46"/>
     <mergeCell ref="W37:W46"/>
     <mergeCell ref="X37:X46"/>
@@ -11139,63 +11188,21 @@
     <mergeCell ref="V48:V57"/>
     <mergeCell ref="W48:W57"/>
     <mergeCell ref="X48:X57"/>
-    <mergeCell ref="P37:P46"/>
-    <mergeCell ref="Q37:Q46"/>
-    <mergeCell ref="S37:S46"/>
-    <mergeCell ref="T37:T46"/>
-    <mergeCell ref="U37:U46"/>
-    <mergeCell ref="B36:B46"/>
-    <mergeCell ref="L37:L46"/>
-    <mergeCell ref="M37:M46"/>
-    <mergeCell ref="N37:N46"/>
-    <mergeCell ref="O37:O46"/>
-    <mergeCell ref="V15:V24"/>
-    <mergeCell ref="W15:W24"/>
-    <mergeCell ref="X15:X24"/>
-    <mergeCell ref="B26:B35"/>
-    <mergeCell ref="L26:L35"/>
-    <mergeCell ref="M26:M35"/>
-    <mergeCell ref="N26:N35"/>
-    <mergeCell ref="O26:O35"/>
-    <mergeCell ref="P26:P35"/>
-    <mergeCell ref="Q26:Q35"/>
-    <mergeCell ref="S26:S35"/>
-    <mergeCell ref="T26:T35"/>
-    <mergeCell ref="U26:U35"/>
-    <mergeCell ref="V26:V35"/>
-    <mergeCell ref="W26:W35"/>
-    <mergeCell ref="X26:X35"/>
-    <mergeCell ref="P15:P24"/>
-    <mergeCell ref="Q15:Q24"/>
-    <mergeCell ref="S15:S24"/>
-    <mergeCell ref="T15:T24"/>
-    <mergeCell ref="U15:U24"/>
-    <mergeCell ref="B14:B24"/>
-    <mergeCell ref="L15:L24"/>
-    <mergeCell ref="M15:M24"/>
-    <mergeCell ref="N15:N24"/>
-    <mergeCell ref="O15:O24"/>
-    <mergeCell ref="L2:Q2"/>
-    <mergeCell ref="S2:X2"/>
-    <mergeCell ref="B3:B13"/>
-    <mergeCell ref="L4:L13"/>
-    <mergeCell ref="M4:M13"/>
-    <mergeCell ref="N4:N13"/>
-    <mergeCell ref="O4:O13"/>
-    <mergeCell ref="P4:P13"/>
-    <mergeCell ref="Q4:Q13"/>
-    <mergeCell ref="S4:S13"/>
-    <mergeCell ref="T4:T13"/>
-    <mergeCell ref="U4:U13"/>
-    <mergeCell ref="V4:V13"/>
-    <mergeCell ref="W4:W13"/>
-    <mergeCell ref="X4:X13"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="V59:V68"/>
+    <mergeCell ref="W59:W68"/>
+    <mergeCell ref="X59:X68"/>
+    <mergeCell ref="B69:B77"/>
+    <mergeCell ref="L69:O69"/>
+    <mergeCell ref="P59:P68"/>
+    <mergeCell ref="Q59:Q68"/>
+    <mergeCell ref="S59:S68"/>
+    <mergeCell ref="T59:T68"/>
+    <mergeCell ref="U59:U68"/>
+    <mergeCell ref="B58:B68"/>
+    <mergeCell ref="L59:L68"/>
+    <mergeCell ref="M59:M68"/>
+    <mergeCell ref="N59:N68"/>
+    <mergeCell ref="O59:O68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Livrable 2/Statistics/Stats.xlsx
+++ b/Livrable 2/Statistics/Stats.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Documents\CESI\A3\NoSQL\projet\VRP---Ant-Colony-Optimization---Python\Livrable 2\Statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7489E357-B23F-4AE9-A9BA-5E01C6618D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406192AD-F349-4488-BD1C-DBC48A2132BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30795" yWindow="1815" windowWidth="24750" windowHeight="13005" xr2:uid="{F3020E98-56CC-4353-9D5B-CD3FFF333CBC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F3020E98-56CC-4353-9D5B-CD3FFF333CBC}"/>
   </bookViews>
   <sheets>
     <sheet name="50" sheetId="1" r:id="rId1"/>
     <sheet name="500" sheetId="4" r:id="rId2"/>
     <sheet name="1000" sheetId="5" r:id="rId3"/>
+    <sheet name="raw_data_time" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -217,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -284,6 +285,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -305,7 +310,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E579287D-8AA6-4A4B-9EBB-CDF6378CF4F7}">
   <dimension ref="A1:Y98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" topLeftCell="C28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,58 +666,58 @@
       <c r="B1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="34">
+      <c r="C2" s="36">
         <v>5</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34">
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36">
         <v>20</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34">
+      <c r="G2" s="36"/>
+      <c r="H2" s="36">
         <v>50</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34">
+      <c r="I2" s="36"/>
+      <c r="J2" s="36">
         <v>100</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="33" t="s">
+      <c r="K2" s="36"/>
+      <c r="L2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
       <c r="R2" s="13"/>
-      <c r="S2" s="33" t="s">
+      <c r="S2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="29">
+      <c r="B3" s="31">
         <v>50</v>
       </c>
       <c r="C3" s="18" t="s">
@@ -783,7 +787,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="29"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
@@ -811,59 +815,59 @@
       <c r="K4" s="8">
         <v>485.21143268701002</v>
       </c>
-      <c r="L4" s="30">
+      <c r="L4" s="32">
         <f>AVERAGE(D4:D13,F4:F13,H4:H13,J4:J13)</f>
         <v>12.415921998023963</v>
       </c>
-      <c r="M4" s="30">
+      <c r="M4" s="32">
         <f>MIN(D4:D13,F4:F13,H4:H13,J4:J13)</f>
         <v>1.45933365821838</v>
       </c>
-      <c r="N4" s="30">
+      <c r="N4" s="32">
         <f>MAX(D4:D13,F4:F13,H4:H13,J4:J13)</f>
         <v>28.583232879638601</v>
       </c>
-      <c r="O4" s="30">
+      <c r="O4" s="32">
         <f>MEDIAN(D4:D13,F4:F13,H4:H13,J4:J13)</f>
         <v>9.9674706459044984</v>
       </c>
-      <c r="P4" s="30">
+      <c r="P4" s="32">
         <f>VAR(D4:D13,F4:F13,H4:H13,J4:J13)</f>
         <v>106.43294585722458</v>
       </c>
-      <c r="Q4" s="30">
+      <c r="Q4" s="32">
         <f>_xlfn.STDEV.S(D4:D13,F4:F13,H4:H13,J4:J13)</f>
         <v>10.316634424909346</v>
       </c>
       <c r="R4" s="15"/>
-      <c r="S4" s="30">
+      <c r="S4" s="32">
         <f>AVERAGE(E4:E13,G4:G13,I4:I13,K4:K13)</f>
         <v>562.25321242435689</v>
       </c>
-      <c r="T4" s="30">
+      <c r="T4" s="32">
         <f>MIN(E4:E13,G4:G13,I4:I13,K4:K13)</f>
         <v>449.33762842934999</v>
       </c>
-      <c r="U4" s="30">
+      <c r="U4" s="32">
         <f>MAX(E4:E13,G4:G13,I4:I13,K4:K13)</f>
         <v>734.398243166425</v>
       </c>
-      <c r="V4" s="30">
+      <c r="V4" s="32">
         <f>MEDIAN(E4:E13,G4:G13,I4:I13,K4:K13)</f>
         <v>536.66939823994301</v>
       </c>
-      <c r="W4" s="30">
+      <c r="W4" s="32">
         <f>VAR(E4:E13,G4:G13,I4:I13,K4:K13)</f>
         <v>6840.847815946795</v>
       </c>
-      <c r="X4" s="30">
+      <c r="X4" s="32">
         <f>_xlfn.STDEV.S(E4:E13,G4:G13,I4:I13,K4:K13)</f>
         <v>82.709417939837991</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="29"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
@@ -891,23 +895,23 @@
       <c r="K5" s="8">
         <v>473.41211678709197</v>
       </c>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
       <c r="R5" s="15"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="29"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
@@ -935,23 +939,23 @@
       <c r="K6" s="8">
         <v>491.48005197118601</v>
       </c>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
       <c r="R6" s="15"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="29"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
@@ -979,23 +983,23 @@
       <c r="K7" s="8">
         <v>495.80616872886998</v>
       </c>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
       <c r="R7" s="15"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="29"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
@@ -1023,23 +1027,23 @@
       <c r="K8" s="8">
         <v>493.36683275231701</v>
       </c>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
       <c r="R8" s="15"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="29"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
@@ -1067,23 +1071,23 @@
       <c r="K9" s="8">
         <v>486.82473114676498</v>
       </c>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
       <c r="R9" s="15"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="29"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="7" t="s">
         <v>15</v>
       </c>
@@ -1111,23 +1115,23 @@
       <c r="K10" s="8">
         <v>486.62536425676501</v>
       </c>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
       <c r="R10" s="15"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="32"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="29"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
@@ -1155,23 +1159,23 @@
       <c r="K11" s="8">
         <v>493.932175668409</v>
       </c>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
       <c r="R11" s="15"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="29"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="7" t="s">
         <v>17</v>
       </c>
@@ -1199,23 +1203,23 @@
       <c r="K12" s="8">
         <v>478.951750525043</v>
       </c>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
       <c r="R12" s="15"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="32"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="29"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="7" t="s">
         <v>18</v>
       </c>
@@ -1243,23 +1247,23 @@
       <c r="K13" s="8">
         <v>488.06407744493703</v>
       </c>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
       <c r="R13" s="15"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="29">
+      <c r="B14" s="31">
         <v>100</v>
       </c>
       <c r="C14" s="18" t="s">
@@ -1329,7 +1333,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="B15" s="29"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="7" t="s">
         <v>9</v>
       </c>
@@ -1357,59 +1361,59 @@
       <c r="K15" s="8">
         <v>469.77770801823402</v>
       </c>
-      <c r="L15" s="30">
+      <c r="L15" s="32">
         <f>AVERAGE(D15:D24,F15:F24,H15:H24,J15:J24)</f>
         <v>24.523306155204736</v>
       </c>
-      <c r="M15" s="30">
+      <c r="M15" s="32">
         <f>MIN(D15:D24,F15:F24,H15:H24,J15:J24)</f>
         <v>2.93487524986267</v>
       </c>
-      <c r="N15" s="30">
+      <c r="N15" s="32">
         <f>MAX(D15:D24,F15:F24,H15:H24,J15:J24)</f>
         <v>57.229600667953399</v>
       </c>
-      <c r="O15" s="30">
+      <c r="O15" s="32">
         <f>MEDIAN(D15:D24,F15:F24,H15:H24,J15:J24)</f>
         <v>19.5083376169204</v>
       </c>
-      <c r="P15" s="30">
+      <c r="P15" s="32">
         <f>VAR(D15:D24,F15:F24,H15:H24,J15:J24)</f>
         <v>414.76233355347546</v>
       </c>
-      <c r="Q15" s="30">
+      <c r="Q15" s="32">
         <f>_xlfn.STDEV.S(D15:D24,F15:F24,H15:H24,J15:J24)</f>
         <v>20.36571465854993</v>
       </c>
       <c r="R15" s="15"/>
-      <c r="S15" s="30">
+      <c r="S15" s="32">
         <f>AVERAGE(E15:E24,G15:G24,I15:I24,K15:K24)</f>
         <v>526.55673551298423</v>
       </c>
-      <c r="T15" s="30">
+      <c r="T15" s="32">
         <f>MIN(E15:E24,G15:G24,I15:I24,K15:K24)</f>
         <v>458.25495031869798</v>
       </c>
-      <c r="U15" s="30">
+      <c r="U15" s="32">
         <f>MAX(E15:E24,G15:G24,I15:I24,K15:K24)</f>
         <v>641.20049285024004</v>
       </c>
-      <c r="V15" s="30">
+      <c r="V15" s="32">
         <f>MEDIAN(E15:E24,G15:G24,I15:I24,K15:K24)</f>
         <v>508.33988696045651</v>
       </c>
-      <c r="W15" s="30">
+      <c r="W15" s="32">
         <f>VAR(E15:E24,G15:G24,I15:I24,K15:K24)</f>
         <v>4016.5509968429615</v>
       </c>
-      <c r="X15" s="30">
+      <c r="X15" s="32">
         <f>_xlfn.STDEV.S(E15:E24,G15:G24,I15:I24,K15:K24)</f>
         <v>63.376265248458445</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="29"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="7" t="s">
         <v>10</v>
       </c>
@@ -1437,23 +1441,23 @@
       <c r="K16" s="8">
         <v>458.25495031869798</v>
       </c>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
       <c r="R16" s="15"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" s="29"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="7" t="s">
         <v>11</v>
       </c>
@@ -1481,23 +1485,23 @@
       <c r="K17" s="8">
         <v>465.88078762415898</v>
       </c>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
       <c r="R17" s="15"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
-      <c r="B18" s="29"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="7" t="s">
         <v>12</v>
       </c>
@@ -1525,23 +1529,23 @@
       <c r="K18" s="8">
         <v>471.0680330582</v>
       </c>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
       <c r="R18" s="15"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
-      <c r="B19" s="29"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="7" t="s">
         <v>13</v>
       </c>
@@ -1569,23 +1573,23 @@
       <c r="K19" s="8">
         <v>461.406636913223</v>
       </c>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
       <c r="R19" s="15"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
-      <c r="B20" s="29"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="7" t="s">
         <v>14</v>
       </c>
@@ -1613,23 +1617,23 @@
       <c r="K20" s="8">
         <v>480.44893901290698</v>
       </c>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
       <c r="R20" s="15"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
-      <c r="B21" s="29"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="7" t="s">
         <v>15</v>
       </c>
@@ -1657,23 +1661,23 @@
       <c r="K21" s="8">
         <v>472.01896065071799</v>
       </c>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
       <c r="R21" s="15"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
-      <c r="B22" s="29"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="7" t="s">
         <v>16</v>
       </c>
@@ -1701,23 +1705,23 @@
       <c r="K22" s="8">
         <v>464.358319503129</v>
       </c>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
       <c r="R22" s="15"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
-      <c r="B23" s="29"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="7" t="s">
         <v>17</v>
       </c>
@@ -1745,23 +1749,23 @@
       <c r="K23" s="8">
         <v>476.59473072208198</v>
       </c>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
       <c r="R23" s="15"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="32"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
-      <c r="B24" s="29"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="7" t="s">
         <v>18</v>
       </c>
@@ -1789,19 +1793,19 @@
       <c r="K24" s="8">
         <v>460.57042391861</v>
       </c>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
       <c r="R24" s="15"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="32"/>
+      <c r="X24" s="32"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
@@ -1873,7 +1877,7 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
-      <c r="B26" s="29">
+      <c r="B26" s="31">
         <v>250</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -1903,59 +1907,59 @@
       <c r="K26" s="11">
         <v>453.78564191436101</v>
       </c>
-      <c r="L26" s="30">
+      <c r="L26" s="32">
         <f>AVERAGE(D26:D35,F26:F35,H26:H35,J26:J35)</f>
         <v>62.778372329473328</v>
       </c>
-      <c r="M26" s="30">
+      <c r="M26" s="32">
         <f>MIN(D26:D35,F26:F35,H26:H35,J26:J35)</f>
         <v>6.8491511344909597</v>
       </c>
-      <c r="N26" s="30">
+      <c r="N26" s="32">
         <f>MAX(D26:D35,F26:F35,H26:H35,J26:J35)</f>
         <v>148.26669311523401</v>
       </c>
-      <c r="O26" s="30">
+      <c r="O26" s="32">
         <f>MEDIAN(D26:D35,F26:F35,H26:H35,J26:J35)</f>
         <v>48.835330843925448</v>
       </c>
-      <c r="P26" s="30">
+      <c r="P26" s="32">
         <f>VAR(D26:D35,F26:F35,H26:H35,J26:J35)</f>
         <v>2857.0804910024954</v>
       </c>
-      <c r="Q26" s="30">
+      <c r="Q26" s="32">
         <f>_xlfn.STDEV.S(D26:D35,F26:F35,H26:H35,J26:J35)</f>
         <v>53.451664997476882</v>
       </c>
       <c r="R26" s="15"/>
-      <c r="S26" s="30">
+      <c r="S26" s="32">
         <f>AVERAGE(E26:E35,G26:G35,I26:I35,K26:K35)</f>
         <v>492.16580135671046</v>
       </c>
-      <c r="T26" s="30">
+      <c r="T26" s="32">
         <f>MIN(E26:E35,G26:G35,I26:I35,K26:K35)</f>
         <v>453.78564191436101</v>
       </c>
-      <c r="U26" s="30">
+      <c r="U26" s="32">
         <f>MAX(E26:E35,G26:G35,I26:I35,K26:K35)</f>
         <v>581.33373104623104</v>
       </c>
-      <c r="V26" s="30">
+      <c r="V26" s="32">
         <f>MEDIAN(E26:E35,G26:G35,I26:I35,K26:K35)</f>
         <v>475.79672077069051</v>
       </c>
-      <c r="W26" s="30">
+      <c r="W26" s="32">
         <f>VAR(E26:E35,G26:G35,I26:I35,K26:K35)</f>
         <v>1469.529122635412</v>
       </c>
-      <c r="X26" s="30">
+      <c r="X26" s="32">
         <f>_xlfn.STDEV.S(E26:E35,G26:G35,I26:I35,K26:K35)</f>
         <v>38.334437815564897</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
-      <c r="B27" s="29"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="7" t="s">
         <v>10</v>
       </c>
@@ -1983,23 +1987,23 @@
       <c r="K27" s="11">
         <v>463.34273580014201</v>
       </c>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
       <c r="R27" s="15"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="30"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="32"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
-      <c r="B28" s="29"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="7" t="s">
         <v>11</v>
       </c>
@@ -2027,23 +2031,23 @@
       <c r="K28" s="11">
         <v>459.28697566556701</v>
       </c>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
       <c r="R28" s="15"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="32"/>
+      <c r="X28" s="32"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
-      <c r="B29" s="29"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="7" t="s">
         <v>12</v>
       </c>
@@ -2071,23 +2075,23 @@
       <c r="K29" s="11">
         <v>460.07939665561099</v>
       </c>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
       <c r="R29" s="15"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="30"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="32"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="32"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
-      <c r="B30" s="29"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="7" t="s">
         <v>13</v>
       </c>
@@ -2115,23 +2119,23 @@
       <c r="K30" s="11">
         <v>461.325971039009</v>
       </c>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
       <c r="R30" s="15"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="30"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="32"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
-      <c r="B31" s="29"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="7" t="s">
         <v>14</v>
       </c>
@@ -2159,23 +2163,23 @@
       <c r="K31" s="11">
         <v>460.997924677161</v>
       </c>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
       <c r="R31" s="15"/>
-      <c r="S31" s="30"/>
-      <c r="T31" s="30"/>
-      <c r="U31" s="30"/>
-      <c r="V31" s="30"/>
-      <c r="W31" s="30"/>
-      <c r="X31" s="30"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="32"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
-      <c r="B32" s="29"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="7" t="s">
         <v>15</v>
       </c>
@@ -2203,23 +2207,23 @@
       <c r="K32" s="11">
         <v>465.665988054911</v>
       </c>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
       <c r="R32" s="15"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="30"/>
-      <c r="U32" s="30"/>
-      <c r="V32" s="30"/>
-      <c r="W32" s="30"/>
-      <c r="X32" s="30"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="32"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
-      <c r="B33" s="29"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="7" t="s">
         <v>16</v>
       </c>
@@ -2247,23 +2251,23 @@
       <c r="K33" s="11">
         <v>457.76527973216503</v>
       </c>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
       <c r="R33" s="15"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="30"/>
-      <c r="V33" s="30"/>
-      <c r="W33" s="30"/>
-      <c r="X33" s="30"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="32"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
-      <c r="B34" s="29"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="7" t="s">
         <v>17</v>
       </c>
@@ -2291,23 +2295,23 @@
       <c r="K34" s="11">
         <v>464.267127557219</v>
       </c>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
       <c r="R34" s="15"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="30"/>
-      <c r="U34" s="30"/>
-      <c r="V34" s="30"/>
-      <c r="W34" s="30"/>
-      <c r="X34" s="30"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="32"/>
+      <c r="X34" s="32"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
-      <c r="B35" s="29"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="7" t="s">
         <v>18</v>
       </c>
@@ -2335,23 +2339,23 @@
       <c r="K35" s="11">
         <v>458.66324928507998</v>
       </c>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="32"/>
       <c r="R35" s="15"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="30"/>
-      <c r="U35" s="30"/>
-      <c r="V35" s="30"/>
-      <c r="W35" s="30"/>
-      <c r="X35" s="30"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="32"/>
+      <c r="U35" s="32"/>
+      <c r="V35" s="32"/>
+      <c r="W35" s="32"/>
+      <c r="X35" s="32"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
-      <c r="B36" s="29">
+      <c r="B36" s="31">
         <v>500</v>
       </c>
       <c r="C36" s="18" t="s">
@@ -2421,7 +2425,7 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
-      <c r="B37" s="29"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="7" t="s">
         <v>9</v>
       </c>
@@ -2449,59 +2453,59 @@
       <c r="K37" s="11">
         <v>423.74307498071897</v>
       </c>
-      <c r="L37" s="30">
+      <c r="L37" s="32">
         <f>AVERAGE(D37:D46,F37:F46,H37:H46,J37:J46)</f>
         <v>124.32166391611077</v>
       </c>
-      <c r="M37" s="30">
+      <c r="M37" s="32">
         <f>MIN(D37:D46,F37:F46,H37:H46,J37:J46)</f>
         <v>14.159195423126199</v>
       </c>
-      <c r="N37" s="30">
+      <c r="N37" s="32">
         <f>MAX(D37:D46,F37:F46,H37:H46,J37:J46)</f>
         <v>300.055415391922</v>
       </c>
-      <c r="O37" s="30">
+      <c r="O37" s="32">
         <f>MEDIAN(D37:D46,F37:F46,H37:H46,J37:J46)</f>
         <v>95.272099256515247</v>
       </c>
-      <c r="P37" s="30">
+      <c r="P37" s="32">
         <f>VAR(D37:D46,F37:F46,H37:H46,J37:J46)</f>
         <v>11480.826601330937</v>
       </c>
-      <c r="Q37" s="30">
+      <c r="Q37" s="32">
         <f>_xlfn.STDEV.S(D37:D46,F37:F46,H37:H46,J37:J46)</f>
         <v>107.14861922269898</v>
       </c>
       <c r="R37" s="15"/>
-      <c r="S37" s="30">
+      <c r="S37" s="32">
         <f>AVERAGE(E37:E46,G37:G46,I37:I46,K37:K46)</f>
         <v>461.30096814589513</v>
       </c>
-      <c r="T37" s="30">
+      <c r="T37" s="32">
         <f>MIN(E37:E46,G37:G46,I37:I46,K37:K46)</f>
         <v>406.656475665806</v>
       </c>
-      <c r="U37" s="30">
+      <c r="U37" s="32">
         <f>MAX(E37:E46,G37:G46,I37:I46,K37:K46)</f>
         <v>519.07470892240599</v>
       </c>
-      <c r="V37" s="30">
+      <c r="V37" s="32">
         <f>MEDIAN(E37:E46,G37:G46,I37:I46,K37:K46)</f>
         <v>458.898882642579</v>
       </c>
-      <c r="W37" s="30">
+      <c r="W37" s="32">
         <f>VAR(E37:E46,G37:G46,I37:I46,K37:K46)</f>
         <v>1036.3811177795212</v>
       </c>
-      <c r="X37" s="30">
+      <c r="X37" s="32">
         <f>_xlfn.STDEV.S(E37:E46,G37:G46,I37:I46,K37:K46)</f>
         <v>32.192873711110678</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
-      <c r="B38" s="29"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="7" t="s">
         <v>10</v>
       </c>
@@ -2529,23 +2533,23 @@
       <c r="K38" s="11">
         <v>422.53220220143203</v>
       </c>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="32"/>
       <c r="R38" s="15"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="30"/>
-      <c r="U38" s="30"/>
-      <c r="V38" s="30"/>
-      <c r="W38" s="30"/>
-      <c r="X38" s="30"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="32"/>
+      <c r="U38" s="32"/>
+      <c r="V38" s="32"/>
+      <c r="W38" s="32"/>
+      <c r="X38" s="32"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
-      <c r="B39" s="29"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="7" t="s">
         <v>11</v>
       </c>
@@ -2573,23 +2577,23 @@
       <c r="K39" s="11">
         <v>418.346860761823</v>
       </c>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="32"/>
       <c r="R39" s="15"/>
-      <c r="S39" s="30"/>
-      <c r="T39" s="30"/>
-      <c r="U39" s="30"/>
-      <c r="V39" s="30"/>
-      <c r="W39" s="30"/>
-      <c r="X39" s="30"/>
+      <c r="S39" s="32"/>
+      <c r="T39" s="32"/>
+      <c r="U39" s="32"/>
+      <c r="V39" s="32"/>
+      <c r="W39" s="32"/>
+      <c r="X39" s="32"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
-      <c r="B40" s="29"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="7" t="s">
         <v>12</v>
       </c>
@@ -2617,23 +2621,23 @@
       <c r="K40" s="11">
         <v>408.67555931818401</v>
       </c>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="32"/>
       <c r="R40" s="15"/>
-      <c r="S40" s="30"/>
-      <c r="T40" s="30"/>
-      <c r="U40" s="30"/>
-      <c r="V40" s="30"/>
-      <c r="W40" s="30"/>
-      <c r="X40" s="30"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="32"/>
+      <c r="U40" s="32"/>
+      <c r="V40" s="32"/>
+      <c r="W40" s="32"/>
+      <c r="X40" s="32"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
-      <c r="B41" s="29"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="7" t="s">
         <v>13</v>
       </c>
@@ -2661,23 +2665,23 @@
       <c r="K41" s="11">
         <v>422.93846795332701</v>
       </c>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="32"/>
       <c r="R41" s="15"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="30"/>
-      <c r="U41" s="30"/>
-      <c r="V41" s="30"/>
-      <c r="W41" s="30"/>
-      <c r="X41" s="30"/>
+      <c r="S41" s="32"/>
+      <c r="T41" s="32"/>
+      <c r="U41" s="32"/>
+      <c r="V41" s="32"/>
+      <c r="W41" s="32"/>
+      <c r="X41" s="32"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
-      <c r="B42" s="29"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="7" t="s">
         <v>14</v>
       </c>
@@ -2705,23 +2709,23 @@
       <c r="K42" s="11">
         <v>423.44463829622202</v>
       </c>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="32"/>
+      <c r="Q42" s="32"/>
       <c r="R42" s="15"/>
-      <c r="S42" s="30"/>
-      <c r="T42" s="30"/>
-      <c r="U42" s="30"/>
-      <c r="V42" s="30"/>
-      <c r="W42" s="30"/>
-      <c r="X42" s="30"/>
+      <c r="S42" s="32"/>
+      <c r="T42" s="32"/>
+      <c r="U42" s="32"/>
+      <c r="V42" s="32"/>
+      <c r="W42" s="32"/>
+      <c r="X42" s="32"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
-      <c r="B43" s="29"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="7" t="s">
         <v>15</v>
       </c>
@@ -2749,23 +2753,23 @@
       <c r="K43" s="11">
         <v>409.85120636463802</v>
       </c>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="32"/>
+      <c r="P43" s="32"/>
+      <c r="Q43" s="32"/>
       <c r="R43" s="15"/>
-      <c r="S43" s="30"/>
-      <c r="T43" s="30"/>
-      <c r="U43" s="30"/>
-      <c r="V43" s="30"/>
-      <c r="W43" s="30"/>
-      <c r="X43" s="30"/>
+      <c r="S43" s="32"/>
+      <c r="T43" s="32"/>
+      <c r="U43" s="32"/>
+      <c r="V43" s="32"/>
+      <c r="W43" s="32"/>
+      <c r="X43" s="32"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
-      <c r="B44" s="29"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="7" t="s">
         <v>16</v>
       </c>
@@ -2793,23 +2797,23 @@
       <c r="K44" s="11">
         <v>406.656475665806</v>
       </c>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="30"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="32"/>
+      <c r="Q44" s="32"/>
       <c r="R44" s="15"/>
-      <c r="S44" s="30"/>
-      <c r="T44" s="30"/>
-      <c r="U44" s="30"/>
-      <c r="V44" s="30"/>
-      <c r="W44" s="30"/>
-      <c r="X44" s="30"/>
+      <c r="S44" s="32"/>
+      <c r="T44" s="32"/>
+      <c r="U44" s="32"/>
+      <c r="V44" s="32"/>
+      <c r="W44" s="32"/>
+      <c r="X44" s="32"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
-      <c r="B45" s="29"/>
+      <c r="B45" s="31"/>
       <c r="C45" s="7" t="s">
         <v>17</v>
       </c>
@@ -2837,22 +2841,22 @@
       <c r="K45" s="11">
         <v>420.163221605128</v>
       </c>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="30"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="32"/>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="32"/>
       <c r="R45" s="15"/>
-      <c r="S45" s="30"/>
-      <c r="T45" s="30"/>
-      <c r="U45" s="30"/>
-      <c r="V45" s="30"/>
-      <c r="W45" s="30"/>
-      <c r="X45" s="30"/>
+      <c r="S45" s="32"/>
+      <c r="T45" s="32"/>
+      <c r="U45" s="32"/>
+      <c r="V45" s="32"/>
+      <c r="W45" s="32"/>
+      <c r="X45" s="32"/>
     </row>
     <row r="46" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="29"/>
+      <c r="B46" s="31"/>
       <c r="C46" s="21" t="s">
         <v>18</v>
       </c>
@@ -2880,22 +2884,22 @@
       <c r="K46" s="20">
         <v>420.22029867459503</v>
       </c>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="30"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="30"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="32"/>
+      <c r="P46" s="32"/>
+      <c r="Q46" s="32"/>
       <c r="R46" s="15"/>
-      <c r="S46" s="30"/>
-      <c r="T46" s="30"/>
-      <c r="U46" s="30"/>
-      <c r="V46" s="30"/>
-      <c r="W46" s="30"/>
-      <c r="X46" s="30"/>
+      <c r="S46" s="32"/>
+      <c r="T46" s="32"/>
+      <c r="U46" s="32"/>
+      <c r="V46" s="32"/>
+      <c r="W46" s="32"/>
+      <c r="X46" s="32"/>
     </row>
     <row r="47" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="29">
+      <c r="B47" s="31">
         <v>750</v>
       </c>
       <c r="C47" s="18" t="s">
@@ -2964,7 +2968,7 @@
       </c>
     </row>
     <row r="48" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="29"/>
+      <c r="B48" s="31"/>
       <c r="C48" s="7" t="s">
         <v>9</v>
       </c>
@@ -2980,62 +2984,70 @@
       <c r="G48" s="20">
         <v>470.86279741886301</v>
       </c>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="30">
+      <c r="H48" s="28">
+        <v>293.013108253479</v>
+      </c>
+      <c r="I48" s="20">
+        <v>441.94760416475498</v>
+      </c>
+      <c r="J48" s="20">
+        <v>329.93113088607703</v>
+      </c>
+      <c r="K48" s="28">
+        <v>423.74307498071897</v>
+      </c>
+      <c r="L48" s="32">
         <f>AVERAGE(D48:D57,F48:F57,H48:H57,J48:J57)</f>
-        <v>53.43014444112773</v>
-      </c>
-      <c r="M48" s="30">
+        <v>177.49274816513037</v>
+      </c>
+      <c r="M48" s="32">
         <f>MIN(D48:D57,F48:F57,H48:H57,J48:J57)</f>
         <v>21.336215972900298</v>
       </c>
-      <c r="N48" s="30">
+      <c r="N48" s="32">
         <f>MAX(D48:D57,F48:F57,H48:H57,J48:J57)</f>
-        <v>86.652469396591101</v>
-      </c>
-      <c r="O48" s="30">
+        <v>329.93113088607703</v>
+      </c>
+      <c r="O48" s="32">
         <f>MEDIAN(D48:D57,F48:F57,H48:H57,J48:J57)</f>
-        <v>53.309928297996493</v>
-      </c>
-      <c r="P48" s="30">
+        <v>185.60128176212305</v>
+      </c>
+      <c r="P48" s="32">
         <f>VAR(D48:D57,F48:F57,H48:H57,J48:J57)</f>
-        <v>1066.7994341686158</v>
-      </c>
-      <c r="Q48" s="30">
+        <v>16411.283102111782</v>
+      </c>
+      <c r="Q48" s="32">
         <f>_xlfn.STDEV.S(D48:D57,F48:F57,H48:H57,J48:J57)</f>
-        <v>32.661895752828187</v>
+        <v>128.10653028675696</v>
       </c>
       <c r="R48" s="15"/>
-      <c r="S48" s="30">
+      <c r="S48" s="32">
         <f>AVERAGE(E48:E57,G48:G57,I48:I57,K48:K57)</f>
-        <v>477.60547902757679</v>
-      </c>
-      <c r="T48" s="30">
+        <v>454.95768253139079</v>
+      </c>
+      <c r="T48" s="32">
         <f>MIN(E48:E57,G48:G57,I48:I57,K48:K57)</f>
-        <v>455.07176516118398</v>
-      </c>
-      <c r="U48" s="30">
+        <v>406.656475665806</v>
+      </c>
+      <c r="U48" s="32">
         <f>MAX(E48:E57,G48:G57,I48:I57,K48:K57)</f>
         <v>511.280606631762</v>
       </c>
-      <c r="V48" s="30">
+      <c r="V48" s="32">
         <f>MEDIAN(E48:E57,G48:G57,I48:I57,K48:K57)</f>
-        <v>472.92081592093052</v>
-      </c>
-      <c r="W48" s="30">
+        <v>455.42219332199602</v>
+      </c>
+      <c r="W48" s="32">
         <f>VAR(E48:E57,G48:G57,I48:I57,K48:K57)</f>
-        <v>316.81695084558351</v>
-      </c>
-      <c r="X48" s="30">
+        <v>788.16811644895586</v>
+      </c>
+      <c r="X48" s="32">
         <f>_xlfn.STDEV.S(E48:E57,G48:G57,I48:I57,K48:K57)</f>
-        <v>17.799352540066831</v>
+        <v>28.074331985800764</v>
       </c>
     </row>
     <row r="49" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="29"/>
+      <c r="B49" s="31"/>
       <c r="C49" s="7" t="s">
         <v>10</v>
       </c>
@@ -3051,26 +3063,34 @@
       <c r="G49" s="20">
         <v>461.912982255023</v>
       </c>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="30"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="30"/>
+      <c r="H49" s="28">
+        <v>298.61290097236599</v>
+      </c>
+      <c r="I49" s="20">
+        <v>439.18752588028201</v>
+      </c>
+      <c r="J49" s="20">
+        <v>327.23848748207001</v>
+      </c>
+      <c r="K49" s="20">
+        <v>441.94760416475498</v>
+      </c>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="32"/>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="32"/>
       <c r="R49" s="15"/>
-      <c r="S49" s="30"/>
-      <c r="T49" s="30"/>
-      <c r="U49" s="30"/>
-      <c r="V49" s="30"/>
-      <c r="W49" s="30"/>
-      <c r="X49" s="30"/>
+      <c r="S49" s="32"/>
+      <c r="T49" s="32"/>
+      <c r="U49" s="32"/>
+      <c r="V49" s="32"/>
+      <c r="W49" s="32"/>
+      <c r="X49" s="32"/>
     </row>
     <row r="50" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="29"/>
+      <c r="B50" s="31"/>
       <c r="C50" s="7" t="s">
         <v>11</v>
       </c>
@@ -3086,26 +3106,34 @@
       <c r="G50" s="20">
         <v>458.28875156224501</v>
       </c>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="30"/>
+      <c r="H50" s="28">
+        <v>291.63929605483997</v>
+      </c>
+      <c r="I50" s="20">
+        <v>444.10108287987498</v>
+      </c>
+      <c r="J50" s="20">
+        <v>326.74220132827702</v>
+      </c>
+      <c r="K50" s="28">
+        <v>418.346860761823</v>
+      </c>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="32"/>
       <c r="R50" s="15"/>
-      <c r="S50" s="30"/>
-      <c r="T50" s="30"/>
-      <c r="U50" s="30"/>
-      <c r="V50" s="30"/>
-      <c r="W50" s="30"/>
-      <c r="X50" s="30"/>
+      <c r="S50" s="32"/>
+      <c r="T50" s="32"/>
+      <c r="U50" s="32"/>
+      <c r="V50" s="32"/>
+      <c r="W50" s="32"/>
+      <c r="X50" s="32"/>
     </row>
     <row r="51" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="29"/>
+      <c r="B51" s="31"/>
       <c r="C51" s="7" t="s">
         <v>12</v>
       </c>
@@ -3121,26 +3149,34 @@
       <c r="G51" s="20">
         <v>468.915648923123</v>
       </c>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="30"/>
+      <c r="H51" s="28">
+        <v>287.624335765838</v>
+      </c>
+      <c r="I51" s="28">
+        <v>462.83813835003701</v>
+      </c>
+      <c r="J51" s="28">
+        <v>287.624335765838</v>
+      </c>
+      <c r="K51" s="28">
+        <v>408.67555931818401</v>
+      </c>
+      <c r="L51" s="32"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="32"/>
+      <c r="O51" s="32"/>
+      <c r="P51" s="32"/>
+      <c r="Q51" s="32"/>
       <c r="R51" s="15"/>
-      <c r="S51" s="30"/>
-      <c r="T51" s="30"/>
-      <c r="U51" s="30"/>
-      <c r="V51" s="30"/>
-      <c r="W51" s="30"/>
-      <c r="X51" s="30"/>
+      <c r="S51" s="32"/>
+      <c r="T51" s="32"/>
+      <c r="U51" s="32"/>
+      <c r="V51" s="32"/>
+      <c r="W51" s="32"/>
+      <c r="X51" s="32"/>
     </row>
     <row r="52" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="29"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="7" t="s">
         <v>13</v>
       </c>
@@ -3156,26 +3192,34 @@
       <c r="G52" s="20">
         <v>463.44741758608598</v>
       </c>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="30"/>
-      <c r="N52" s="30"/>
-      <c r="O52" s="30"/>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="30"/>
+      <c r="H52" s="28">
+        <v>284.55009412765497</v>
+      </c>
+      <c r="I52" s="28">
+        <v>450.096368421828</v>
+      </c>
+      <c r="J52" s="20">
+        <v>313.181856155395</v>
+      </c>
+      <c r="K52" s="28">
+        <v>422.93846795332701</v>
+      </c>
+      <c r="L52" s="32"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="32"/>
+      <c r="Q52" s="32"/>
       <c r="R52" s="15"/>
-      <c r="S52" s="30"/>
-      <c r="T52" s="30"/>
-      <c r="U52" s="30"/>
-      <c r="V52" s="30"/>
-      <c r="W52" s="30"/>
-      <c r="X52" s="30"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="32"/>
+      <c r="U52" s="32"/>
+      <c r="V52" s="32"/>
+      <c r="W52" s="32"/>
+      <c r="X52" s="32"/>
     </row>
     <row r="53" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="29"/>
+      <c r="B53" s="31"/>
       <c r="C53" s="7" t="s">
         <v>14</v>
       </c>
@@ -3191,26 +3235,34 @@
       <c r="G53" s="20">
         <v>468.46302804086201</v>
       </c>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="30"/>
-      <c r="N53" s="30"/>
-      <c r="O53" s="30"/>
-      <c r="P53" s="30"/>
-      <c r="Q53" s="30"/>
+      <c r="H53" s="28">
+        <v>288.53472661972</v>
+      </c>
+      <c r="I53" s="28">
+        <v>448.58918448716997</v>
+      </c>
+      <c r="J53" s="20">
+        <v>312.70015621185303</v>
+      </c>
+      <c r="K53" s="28">
+        <v>423.44463829622202</v>
+      </c>
+      <c r="L53" s="32"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="32"/>
+      <c r="O53" s="32"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="32"/>
       <c r="R53" s="15"/>
-      <c r="S53" s="30"/>
-      <c r="T53" s="30"/>
-      <c r="U53" s="30"/>
-      <c r="V53" s="30"/>
-      <c r="W53" s="30"/>
-      <c r="X53" s="30"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="32"/>
+      <c r="U53" s="32"/>
+      <c r="V53" s="32"/>
+      <c r="W53" s="32"/>
+      <c r="X53" s="32"/>
     </row>
     <row r="54" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="29"/>
+      <c r="B54" s="31"/>
       <c r="C54" s="7" t="s">
         <v>15</v>
       </c>
@@ -3226,26 +3278,34 @@
       <c r="G54" s="20">
         <v>461.33901239137401</v>
       </c>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="30"/>
-      <c r="N54" s="30"/>
-      <c r="O54" s="30"/>
-      <c r="P54" s="30"/>
-      <c r="Q54" s="30"/>
+      <c r="H54" s="28">
+        <v>289.45247387886002</v>
+      </c>
+      <c r="I54" s="20">
+        <v>439.17001773228202</v>
+      </c>
+      <c r="J54" s="20">
+        <v>310.55409502983002</v>
+      </c>
+      <c r="K54" s="20">
+        <v>439.02321199741198</v>
+      </c>
+      <c r="L54" s="32"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="32"/>
+      <c r="O54" s="32"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="32"/>
       <c r="R54" s="15"/>
-      <c r="S54" s="30"/>
-      <c r="T54" s="30"/>
-      <c r="U54" s="30"/>
-      <c r="V54" s="30"/>
-      <c r="W54" s="30"/>
-      <c r="X54" s="30"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="32"/>
+      <c r="U54" s="32"/>
+      <c r="V54" s="32"/>
+      <c r="W54" s="32"/>
+      <c r="X54" s="32"/>
     </row>
     <row r="55" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="29"/>
+      <c r="B55" s="31"/>
       <c r="C55" s="7" t="s">
         <v>16</v>
       </c>
@@ -3261,26 +3321,34 @@
       <c r="G55" s="20">
         <v>455.07176516118398</v>
       </c>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="30"/>
-      <c r="P55" s="30"/>
-      <c r="Q55" s="30"/>
+      <c r="H55" s="28">
+        <v>289.87139081954899</v>
+      </c>
+      <c r="I55" s="20">
+        <v>440.69535568706999</v>
+      </c>
+      <c r="J55" s="20">
+        <v>309.995369911193</v>
+      </c>
+      <c r="K55" s="28">
+        <v>406.656475665806</v>
+      </c>
+      <c r="L55" s="32"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="32"/>
+      <c r="O55" s="32"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="32"/>
       <c r="R55" s="15"/>
-      <c r="S55" s="30"/>
-      <c r="T55" s="30"/>
-      <c r="U55" s="30"/>
-      <c r="V55" s="30"/>
-      <c r="W55" s="30"/>
-      <c r="X55" s="30"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="32"/>
+      <c r="U55" s="32"/>
+      <c r="V55" s="32"/>
+      <c r="W55" s="32"/>
+      <c r="X55" s="32"/>
     </row>
     <row r="56" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="29"/>
+      <c r="B56" s="31"/>
       <c r="C56" s="7" t="s">
         <v>17</v>
       </c>
@@ -3296,26 +3364,34 @@
       <c r="G56" s="20">
         <v>459.19466789542997</v>
       </c>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="20"/>
-      <c r="L56" s="30"/>
-      <c r="M56" s="30"/>
-      <c r="N56" s="30"/>
-      <c r="O56" s="30"/>
-      <c r="P56" s="30"/>
-      <c r="Q56" s="30"/>
+      <c r="H56" s="28">
+        <v>291.905618906021</v>
+      </c>
+      <c r="I56" s="20">
+        <v>436.06616892099998</v>
+      </c>
+      <c r="J56" s="28">
+        <v>289.45247387886002</v>
+      </c>
+      <c r="K56" s="28">
+        <v>420.163221605128</v>
+      </c>
+      <c r="L56" s="32"/>
+      <c r="M56" s="32"/>
+      <c r="N56" s="32"/>
+      <c r="O56" s="32"/>
+      <c r="P56" s="32"/>
+      <c r="Q56" s="32"/>
       <c r="R56" s="15"/>
-      <c r="S56" s="30"/>
-      <c r="T56" s="30"/>
-      <c r="U56" s="30"/>
-      <c r="V56" s="30"/>
-      <c r="W56" s="30"/>
-      <c r="X56" s="30"/>
+      <c r="S56" s="32"/>
+      <c r="T56" s="32"/>
+      <c r="U56" s="32"/>
+      <c r="V56" s="32"/>
+      <c r="W56" s="32"/>
+      <c r="X56" s="32"/>
     </row>
     <row r="57" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="29"/>
+      <c r="B57" s="31"/>
       <c r="C57" s="21" t="s">
         <v>18</v>
       </c>
@@ -3331,26 +3407,34 @@
       <c r="G57" s="20">
         <v>455.77262148280801</v>
       </c>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="20"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="30"/>
-      <c r="N57" s="30"/>
-      <c r="O57" s="30"/>
-      <c r="P57" s="30"/>
-      <c r="Q57" s="30"/>
+      <c r="H57" s="20">
+        <v>300.055415391922</v>
+      </c>
+      <c r="I57" s="28">
+        <v>418.346860761823</v>
+      </c>
+      <c r="J57" s="20">
+        <v>308.42757034301701</v>
+      </c>
+      <c r="K57" s="20">
+        <v>420.22029867459503</v>
+      </c>
+      <c r="L57" s="32"/>
+      <c r="M57" s="32"/>
+      <c r="N57" s="32"/>
+      <c r="O57" s="32"/>
+      <c r="P57" s="32"/>
+      <c r="Q57" s="32"/>
       <c r="R57" s="15"/>
-      <c r="S57" s="30"/>
-      <c r="T57" s="30"/>
-      <c r="U57" s="30"/>
-      <c r="V57" s="30"/>
-      <c r="W57" s="30"/>
-      <c r="X57" s="30"/>
+      <c r="S57" s="32"/>
+      <c r="T57" s="32"/>
+      <c r="U57" s="32"/>
+      <c r="V57" s="32"/>
+      <c r="W57" s="32"/>
+      <c r="X57" s="32"/>
     </row>
     <row r="58" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="29">
+      <c r="B58" s="31">
         <v>1000</v>
       </c>
       <c r="C58" s="18" t="s">
@@ -3419,7 +3503,7 @@
       </c>
     </row>
     <row r="59" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="29"/>
+      <c r="B59" s="31"/>
       <c r="C59" s="7" t="s">
         <v>9</v>
       </c>
@@ -3435,66 +3519,70 @@
       <c r="G59" s="20">
         <v>466.095300918166</v>
       </c>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
+      <c r="H59" s="20">
+        <v>329.93113088607703</v>
+      </c>
+      <c r="I59" s="20">
+        <v>435.418768811419</v>
+      </c>
       <c r="J59" s="20">
         <v>579.53112959861699</v>
       </c>
       <c r="K59" s="20">
         <v>452.613779275262</v>
       </c>
-      <c r="L59" s="30">
+      <c r="L59" s="32">
         <f>AVERAGE(D59:D68,F59:F68,H59:H68,J59:J68)</f>
-        <v>242.06378208796158</v>
-      </c>
-      <c r="M59" s="30">
+        <v>260.86400893926583</v>
+      </c>
+      <c r="M59" s="32">
         <f>MIN(D59:D68,F59:F68,H59:H68,J59:J68)</f>
         <v>27.254004240036</v>
       </c>
-      <c r="N59" s="30">
+      <c r="N59" s="32">
         <f>MAX(D59:D68,F59:F68,H59:H68,J59:J68)</f>
         <v>616.38961219787598</v>
       </c>
-      <c r="O59" s="30">
+      <c r="O59" s="32">
         <f>MEDIAN(D59:D68,F59:F68,H59:H68,J59:J68)</f>
-        <v>112.089841008186</v>
-      </c>
-      <c r="P59" s="30">
+        <v>210.48447012901249</v>
+      </c>
+      <c r="P59" s="32">
         <f>VAR(D59:D68,F59:F68,H59:H68,J59:J68)</f>
-        <v>63055.865526861322</v>
-      </c>
-      <c r="Q59" s="30">
+        <v>47993.32392466897</v>
+      </c>
+      <c r="Q59" s="32">
         <f>_xlfn.STDEV.S(D59:D68,F59:F68,H59:H68,J59:J68)</f>
-        <v>251.10927009344223</v>
+        <v>219.07378648452894</v>
       </c>
       <c r="R59" s="15"/>
-      <c r="S59" s="30">
+      <c r="S59" s="32">
         <f>AVERAGE(E59:E68,G59:G68,I59:I68,K59:K68)</f>
-        <v>461.84014244810197</v>
-      </c>
-      <c r="T59" s="30">
+        <v>456.19751130766235</v>
+      </c>
+      <c r="T59" s="32">
         <f>MIN(E59:E68,G59:G68,I59:I68,K59:K68)</f>
         <v>429.15289325320498</v>
       </c>
-      <c r="U59" s="30">
+      <c r="U59" s="32">
         <f>MAX(E59:E68,G59:G68,I59:I68,K59:K68)</f>
         <v>490.86805243450198</v>
       </c>
-      <c r="V59" s="30">
+      <c r="V59" s="32">
         <f>MEDIAN(E59:E68,G59:G68,I59:I68,K59:K68)</f>
-        <v>459.9764869864735</v>
-      </c>
-      <c r="W59" s="30">
+        <v>452.074829823318</v>
+      </c>
+      <c r="W59" s="32">
         <f>VAR(E59:E68,G59:G68,I59:I68,K59:K68)</f>
-        <v>248.37041504574566</v>
-      </c>
-      <c r="X59" s="30">
+        <v>284.49629697525961</v>
+      </c>
+      <c r="X59" s="32">
         <f>_xlfn.STDEV.S(E59:E68,G59:G68,I59:I68,K59:K68)</f>
-        <v>15.759772049295181</v>
+        <v>16.867018022616197</v>
       </c>
     </row>
     <row r="60" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="29"/>
+      <c r="B60" s="31"/>
       <c r="C60" s="7" t="s">
         <v>10</v>
       </c>
@@ -3510,30 +3598,34 @@
       <c r="G60" s="20">
         <v>450.03185465028599</v>
       </c>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
+      <c r="H60" s="20">
+        <v>327.23848748207001</v>
+      </c>
+      <c r="I60" s="20">
+        <v>441.94760416475498</v>
+      </c>
       <c r="J60" s="20">
         <v>571.37654733657803</v>
       </c>
       <c r="K60" s="20">
         <v>440.399679180943</v>
       </c>
-      <c r="L60" s="30"/>
-      <c r="M60" s="30"/>
-      <c r="N60" s="30"/>
-      <c r="O60" s="30"/>
-      <c r="P60" s="30"/>
-      <c r="Q60" s="30"/>
+      <c r="L60" s="32"/>
+      <c r="M60" s="32"/>
+      <c r="N60" s="32"/>
+      <c r="O60" s="32"/>
+      <c r="P60" s="32"/>
+      <c r="Q60" s="32"/>
       <c r="R60" s="15"/>
-      <c r="S60" s="30"/>
-      <c r="T60" s="30"/>
-      <c r="U60" s="30"/>
-      <c r="V60" s="30"/>
-      <c r="W60" s="30"/>
-      <c r="X60" s="30"/>
+      <c r="S60" s="32"/>
+      <c r="T60" s="32"/>
+      <c r="U60" s="32"/>
+      <c r="V60" s="32"/>
+      <c r="W60" s="32"/>
+      <c r="X60" s="32"/>
     </row>
     <row r="61" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="29"/>
+      <c r="B61" s="31"/>
       <c r="C61" s="7" t="s">
         <v>11</v>
       </c>
@@ -3549,30 +3641,34 @@
       <c r="G61" s="20">
         <v>462.81546233172401</v>
       </c>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
+      <c r="H61" s="20">
+        <v>326.74220132827702</v>
+      </c>
+      <c r="I61" s="20">
+        <v>439.18752588028201</v>
+      </c>
       <c r="J61" s="20">
         <v>565.47000026702801</v>
       </c>
       <c r="K61" s="20">
         <v>429.15289325320498</v>
       </c>
-      <c r="L61" s="30"/>
-      <c r="M61" s="30"/>
-      <c r="N61" s="30"/>
-      <c r="O61" s="30"/>
-      <c r="P61" s="30"/>
-      <c r="Q61" s="30"/>
+      <c r="L61" s="32"/>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="32"/>
+      <c r="P61" s="32"/>
+      <c r="Q61" s="32"/>
       <c r="R61" s="15"/>
-      <c r="S61" s="30"/>
-      <c r="T61" s="30"/>
-      <c r="U61" s="30"/>
-      <c r="V61" s="30"/>
-      <c r="W61" s="30"/>
-      <c r="X61" s="30"/>
+      <c r="S61" s="32"/>
+      <c r="T61" s="32"/>
+      <c r="U61" s="32"/>
+      <c r="V61" s="32"/>
+      <c r="W61" s="32"/>
+      <c r="X61" s="32"/>
     </row>
     <row r="62" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="29"/>
+      <c r="B62" s="31"/>
       <c r="C62" s="7" t="s">
         <v>12</v>
       </c>
@@ -3588,30 +3684,34 @@
       <c r="G62" s="20">
         <v>460.20260112346301</v>
       </c>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
+      <c r="H62" s="20">
+        <v>325.37255358695899</v>
+      </c>
+      <c r="I62" s="20">
+        <v>444.10108287987498</v>
+      </c>
       <c r="J62" s="20">
         <v>565.88099980354298</v>
       </c>
       <c r="K62" s="20">
         <v>442.03793630006697</v>
       </c>
-      <c r="L62" s="30"/>
-      <c r="M62" s="30"/>
-      <c r="N62" s="30"/>
-      <c r="O62" s="30"/>
-      <c r="P62" s="30"/>
-      <c r="Q62" s="30"/>
+      <c r="L62" s="32"/>
+      <c r="M62" s="32"/>
+      <c r="N62" s="32"/>
+      <c r="O62" s="32"/>
+      <c r="P62" s="32"/>
+      <c r="Q62" s="32"/>
       <c r="R62" s="15"/>
-      <c r="S62" s="30"/>
-      <c r="T62" s="30"/>
-      <c r="U62" s="30"/>
-      <c r="V62" s="30"/>
-      <c r="W62" s="30"/>
-      <c r="X62" s="30"/>
+      <c r="S62" s="32"/>
+      <c r="T62" s="32"/>
+      <c r="U62" s="32"/>
+      <c r="V62" s="32"/>
+      <c r="W62" s="32"/>
+      <c r="X62" s="32"/>
     </row>
     <row r="63" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="29"/>
+      <c r="B63" s="31"/>
       <c r="C63" s="7" t="s">
         <v>13</v>
       </c>
@@ -3627,30 +3727,34 @@
       <c r="G63" s="20">
         <v>458.29462287126898</v>
       </c>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
+      <c r="H63" s="20">
+        <v>313.181856155395</v>
+      </c>
+      <c r="I63" s="20">
+        <v>439.02321199741198</v>
+      </c>
       <c r="J63" s="20">
         <v>565.83747553825299</v>
       </c>
       <c r="K63" s="20">
         <v>449.90797469645702</v>
       </c>
-      <c r="L63" s="30"/>
-      <c r="M63" s="30"/>
-      <c r="N63" s="30"/>
-      <c r="O63" s="30"/>
-      <c r="P63" s="30"/>
-      <c r="Q63" s="30"/>
+      <c r="L63" s="32"/>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="32"/>
+      <c r="Q63" s="32"/>
       <c r="R63" s="15"/>
-      <c r="S63" s="30"/>
-      <c r="T63" s="30"/>
-      <c r="U63" s="30"/>
-      <c r="V63" s="30"/>
-      <c r="W63" s="30"/>
-      <c r="X63" s="30"/>
+      <c r="S63" s="32"/>
+      <c r="T63" s="32"/>
+      <c r="U63" s="32"/>
+      <c r="V63" s="32"/>
+      <c r="W63" s="32"/>
+      <c r="X63" s="32"/>
     </row>
     <row r="64" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="29"/>
+      <c r="B64" s="31"/>
       <c r="C64" s="7" t="s">
         <v>14</v>
       </c>
@@ -3666,30 +3770,34 @@
       <c r="G64" s="20">
         <v>457.96085732860899</v>
       </c>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
+      <c r="H64" s="20">
+        <v>312.70015621185303</v>
+      </c>
+      <c r="I64" s="20">
+        <v>435.981190194058</v>
+      </c>
       <c r="J64" s="20">
         <v>608.51054501533497</v>
       </c>
       <c r="K64" s="20">
         <v>451.53588037137399</v>
       </c>
-      <c r="L64" s="30"/>
-      <c r="M64" s="30"/>
-      <c r="N64" s="30"/>
-      <c r="O64" s="30"/>
-      <c r="P64" s="30"/>
-      <c r="Q64" s="30"/>
+      <c r="L64" s="32"/>
+      <c r="M64" s="32"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="32"/>
+      <c r="P64" s="32"/>
+      <c r="Q64" s="32"/>
       <c r="R64" s="15"/>
-      <c r="S64" s="30"/>
-      <c r="T64" s="30"/>
-      <c r="U64" s="30"/>
-      <c r="V64" s="30"/>
-      <c r="W64" s="30"/>
-      <c r="X64" s="30"/>
+      <c r="S64" s="32"/>
+      <c r="T64" s="32"/>
+      <c r="U64" s="32"/>
+      <c r="V64" s="32"/>
+      <c r="W64" s="32"/>
+      <c r="X64" s="32"/>
     </row>
     <row r="65" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="29"/>
+      <c r="B65" s="31"/>
       <c r="C65" s="7" t="s">
         <v>15</v>
       </c>
@@ -3705,30 +3813,34 @@
       <c r="G65" s="20">
         <v>459.61095963320702</v>
       </c>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
+      <c r="H65" s="20">
+        <v>310.55409502983002</v>
+      </c>
+      <c r="I65" s="20">
+        <v>441.105252595276</v>
+      </c>
       <c r="J65" s="20">
         <v>603.06920957565296</v>
       </c>
       <c r="K65" s="20">
         <v>443.97298556984998</v>
       </c>
-      <c r="L65" s="30"/>
-      <c r="M65" s="30"/>
-      <c r="N65" s="30"/>
-      <c r="O65" s="30"/>
-      <c r="P65" s="30"/>
-      <c r="Q65" s="30"/>
+      <c r="L65" s="32"/>
+      <c r="M65" s="32"/>
+      <c r="N65" s="32"/>
+      <c r="O65" s="32"/>
+      <c r="P65" s="32"/>
+      <c r="Q65" s="32"/>
       <c r="R65" s="15"/>
-      <c r="S65" s="30"/>
-      <c r="T65" s="30"/>
-      <c r="U65" s="30"/>
-      <c r="V65" s="30"/>
-      <c r="W65" s="30"/>
-      <c r="X65" s="30"/>
+      <c r="S65" s="32"/>
+      <c r="T65" s="32"/>
+      <c r="U65" s="32"/>
+      <c r="V65" s="32"/>
+      <c r="W65" s="32"/>
+      <c r="X65" s="32"/>
     </row>
     <row r="66" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="29"/>
+      <c r="B66" s="31"/>
       <c r="C66" s="7" t="s">
         <v>16</v>
       </c>
@@ -3744,30 +3856,34 @@
       <c r="G66" s="20">
         <v>459.75037284948399</v>
       </c>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
+      <c r="H66" s="20">
+        <v>309.995369911193</v>
+      </c>
+      <c r="I66" s="20">
+        <v>439.17001773228202</v>
+      </c>
       <c r="J66" s="20">
         <v>616.38961219787598</v>
       </c>
       <c r="K66" s="20">
         <v>449.90666773779901</v>
       </c>
-      <c r="L66" s="30"/>
-      <c r="M66" s="30"/>
-      <c r="N66" s="30"/>
-      <c r="O66" s="30"/>
-      <c r="P66" s="30"/>
-      <c r="Q66" s="30"/>
+      <c r="L66" s="32"/>
+      <c r="M66" s="32"/>
+      <c r="N66" s="32"/>
+      <c r="O66" s="32"/>
+      <c r="P66" s="32"/>
+      <c r="Q66" s="32"/>
       <c r="R66" s="15"/>
-      <c r="S66" s="30"/>
-      <c r="T66" s="30"/>
-      <c r="U66" s="30"/>
-      <c r="V66" s="30"/>
-      <c r="W66" s="30"/>
-      <c r="X66" s="30"/>
+      <c r="S66" s="32"/>
+      <c r="T66" s="32"/>
+      <c r="U66" s="32"/>
+      <c r="V66" s="32"/>
+      <c r="W66" s="32"/>
+      <c r="X66" s="32"/>
     </row>
     <row r="67" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="29"/>
+      <c r="B67" s="31"/>
       <c r="C67" s="7" t="s">
         <v>17</v>
       </c>
@@ -3783,30 +3899,34 @@
       <c r="G67" s="20">
         <v>464.70142493720101</v>
       </c>
-      <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
+      <c r="H67" s="20">
+        <v>308.50347399711598</v>
+      </c>
+      <c r="I67" s="20">
+        <v>440.69535568706999</v>
+      </c>
       <c r="J67" s="20">
         <v>614.73193860054005</v>
       </c>
       <c r="K67" s="20">
         <v>449.71886039304297</v>
       </c>
-      <c r="L67" s="30"/>
-      <c r="M67" s="30"/>
-      <c r="N67" s="30"/>
-      <c r="O67" s="30"/>
-      <c r="P67" s="30"/>
-      <c r="Q67" s="30"/>
+      <c r="L67" s="32"/>
+      <c r="M67" s="32"/>
+      <c r="N67" s="32"/>
+      <c r="O67" s="32"/>
+      <c r="P67" s="32"/>
+      <c r="Q67" s="32"/>
       <c r="R67" s="15"/>
-      <c r="S67" s="30"/>
-      <c r="T67" s="30"/>
-      <c r="U67" s="30"/>
-      <c r="V67" s="30"/>
-      <c r="W67" s="30"/>
-      <c r="X67" s="30"/>
+      <c r="S67" s="32"/>
+      <c r="T67" s="32"/>
+      <c r="U67" s="32"/>
+      <c r="V67" s="32"/>
+      <c r="W67" s="32"/>
+      <c r="X67" s="32"/>
     </row>
     <row r="68" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="29"/>
+      <c r="B68" s="31"/>
       <c r="C68" s="21" t="s">
         <v>18</v>
       </c>
@@ -3822,30 +3942,34 @@
       <c r="G68" s="20">
         <v>470.32549339142503</v>
       </c>
-      <c r="H68" s="20"/>
-      <c r="I68" s="20"/>
+      <c r="H68" s="20">
+        <v>308.42757034301701</v>
+      </c>
+      <c r="I68" s="20">
+        <v>436.06616892099998</v>
+      </c>
       <c r="J68" s="20">
         <v>583.73539829254105</v>
       </c>
       <c r="K68" s="20">
         <v>444.79255281414299</v>
       </c>
-      <c r="L68" s="30"/>
-      <c r="M68" s="30"/>
-      <c r="N68" s="30"/>
-      <c r="O68" s="30"/>
-      <c r="P68" s="30"/>
-      <c r="Q68" s="30"/>
+      <c r="L68" s="32"/>
+      <c r="M68" s="32"/>
+      <c r="N68" s="32"/>
+      <c r="O68" s="32"/>
+      <c r="P68" s="32"/>
+      <c r="Q68" s="32"/>
       <c r="R68" s="15"/>
-      <c r="S68" s="30"/>
-      <c r="T68" s="30"/>
-      <c r="U68" s="30"/>
-      <c r="V68" s="30"/>
-      <c r="W68" s="30"/>
-      <c r="X68" s="30"/>
+      <c r="S68" s="32"/>
+      <c r="T68" s="32"/>
+      <c r="U68" s="32"/>
+      <c r="V68" s="32"/>
+      <c r="W68" s="32"/>
+      <c r="X68" s="32"/>
     </row>
     <row r="69" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="33" t="s">
+      <c r="B69" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C69" s="25"/>
@@ -3873,12 +3997,12 @@
       <c r="K69" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="L69" s="32" t="s">
+      <c r="L69" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="M69" s="32"/>
-      <c r="N69" s="32"/>
-      <c r="O69" s="32"/>
+      <c r="M69" s="34"/>
+      <c r="N69" s="34"/>
+      <c r="O69" s="34"/>
       <c r="P69" s="27"/>
       <c r="Q69" s="27"/>
       <c r="R69" s="15"/>
@@ -3891,7 +4015,7 @@
       <c r="Y69" s="1"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B70" s="33"/>
+      <c r="B70" s="35"/>
       <c r="C70" s="26" t="s">
         <v>26</v>
       </c>
@@ -3913,19 +4037,19 @@
       </c>
       <c r="H70" s="15">
         <f t="shared" si="0"/>
-        <v>61.609080094098886</v>
+        <v>142.53782432476655</v>
       </c>
       <c r="I70" s="15">
         <f t="shared" si="0"/>
-        <v>477.6159163290763</v>
+        <v>465.30618565521007</v>
       </c>
       <c r="J70" s="15">
         <f t="shared" si="0"/>
-        <v>221.67807425022099</v>
+        <v>236.66252315839105</v>
       </c>
       <c r="K70" s="15">
         <f t="shared" si="0"/>
-        <v>455.79691395007205</v>
+        <v>450.25008518202623</v>
       </c>
       <c r="O70" s="12"/>
       <c r="P70" s="12"/>
@@ -3933,7 +4057,7 @@
       <c r="R70" s="12"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B71" s="33"/>
+      <c r="B71" s="35"/>
       <c r="C71" s="26" t="s">
         <v>3</v>
       </c>
@@ -3959,7 +4083,7 @@
       </c>
       <c r="I71" s="15">
         <f t="shared" si="1"/>
-        <v>448.56745125051998</v>
+        <v>418.346860761823</v>
       </c>
       <c r="J71" s="15">
         <f t="shared" si="1"/>
@@ -3975,7 +4099,7 @@
       <c r="R71" s="12"/>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B72" s="33"/>
+      <c r="B72" s="35"/>
       <c r="C72" s="26" t="s">
         <v>4</v>
       </c>
@@ -3997,7 +4121,7 @@
       </c>
       <c r="H72" s="15">
         <f t="shared" si="2"/>
-        <v>141.613652944564</v>
+        <v>329.93113088607703</v>
       </c>
       <c r="I72" s="15">
         <f t="shared" si="2"/>
@@ -4017,7 +4141,7 @@
       <c r="R72" s="12"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B73" s="33"/>
+      <c r="B73" s="35"/>
       <c r="C73" s="26" t="s">
         <v>27</v>
       </c>
@@ -4039,19 +4163,19 @@
       </c>
       <c r="H73" s="15">
         <f t="shared" si="3"/>
-        <v>48.231917858123751</v>
+        <v>101.65249693393686</v>
       </c>
       <c r="I73" s="15">
         <f t="shared" si="3"/>
-        <v>473.2905912352785</v>
+        <v>459.27560650102248</v>
       </c>
       <c r="J73" s="15">
         <f t="shared" si="3"/>
-        <v>145.830700397491</v>
+        <v>216.40839362144447</v>
       </c>
       <c r="K73" s="15">
         <f t="shared" si="3"/>
-        <v>459.683186160589</v>
+        <v>453.19971059481151</v>
       </c>
       <c r="L73" s="12"/>
       <c r="M73" s="12"/>
@@ -4062,7 +4186,7 @@
       <c r="R73" s="12"/>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B74" s="33"/>
+      <c r="B74" s="35"/>
       <c r="C74" s="26" t="s">
         <v>5</v>
       </c>
@@ -4083,7 +4207,7 @@
       <c r="R74" s="12"/>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B75" s="33"/>
+      <c r="B75" s="35"/>
       <c r="C75" s="26" t="s">
         <v>6</v>
       </c>
@@ -4104,7 +4228,7 @@
       <c r="R75" s="12"/>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B76" s="33"/>
+      <c r="B76" s="35"/>
       <c r="C76" s="26" t="s">
         <v>7</v>
       </c>
@@ -4126,19 +4250,19 @@
       </c>
       <c r="H76" s="15">
         <f t="shared" si="4"/>
-        <v>2251.239997528065</v>
+        <v>14880.62878185067</v>
       </c>
       <c r="I76" s="15">
         <f t="shared" si="4"/>
-        <v>491.92716905252655</v>
+        <v>654.92486787053315</v>
       </c>
       <c r="J76" s="15">
         <f t="shared" si="4"/>
-        <v>42838.822862249806</v>
+        <v>36751.781366644602</v>
       </c>
       <c r="K76" s="15">
         <f t="shared" si="4"/>
-        <v>595.50632976886925</v>
+        <v>670.06601128756949</v>
       </c>
       <c r="L76" s="12"/>
       <c r="M76" s="12"/>
@@ -4149,7 +4273,7 @@
       <c r="R76" s="12"/>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B77" s="33"/>
+      <c r="B77" s="35"/>
       <c r="C77" s="26" t="s">
         <v>28</v>
       </c>
@@ -4171,19 +4295,19 @@
       </c>
       <c r="H77" s="15">
         <f t="shared" si="5"/>
-        <v>47.44723382377591</v>
+        <v>121.98618274973059</v>
       </c>
       <c r="I77" s="15">
         <f t="shared" si="5"/>
-        <v>22.179431215712601</v>
+        <v>25.591499914435129</v>
       </c>
       <c r="J77" s="15">
         <f t="shared" si="5"/>
-        <v>206.97541608183761</v>
+        <v>191.70754123571822</v>
       </c>
       <c r="K77" s="15">
         <f t="shared" si="5"/>
-        <v>24.4029983766108</v>
+        <v>25.885633298947305</v>
       </c>
       <c r="L77" s="12"/>
       <c r="M77" s="12"/>
@@ -4222,8 +4346,8 @@
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="35"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
       <c r="O80" s="12"/>
       <c r="P80" s="12"/>
       <c r="Q80" s="12"/>
@@ -4298,8 +4422,8 @@
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="8"/>
-      <c r="D90" s="31"/>
-      <c r="E90" s="31"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="33"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
@@ -4486,14 +4610,14 @@
         <v>21</v>
       </c>
       <c r="C1" s="7"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -4523,40 +4647,40 @@
         <v>22</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="34">
+      <c r="C2" s="36">
         <v>5</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34">
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36">
         <v>20</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34">
+      <c r="G2" s="36"/>
+      <c r="H2" s="36">
         <v>50</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34">
+      <c r="I2" s="36"/>
+      <c r="J2" s="36">
         <v>100</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="33" t="s">
+      <c r="K2" s="36"/>
+      <c r="L2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
       <c r="R2" s="14"/>
-      <c r="S2" s="33" t="s">
+      <c r="S2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
@@ -4570,7 +4694,7 @@
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="29">
+      <c r="B3" s="31">
         <v>50</v>
       </c>
       <c r="C3" s="18" t="s">
@@ -4650,7 +4774,7 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="29"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
@@ -4666,52 +4790,52 @@
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="30">
+      <c r="L4" s="32">
         <f>AVERAGE(D4:D13,F4:F13,H4:H13,J4:J13)</f>
         <v>88.252122879028263</v>
       </c>
-      <c r="M4" s="30">
+      <c r="M4" s="32">
         <f>MIN(D4:D13,F4:F13,H4:H13,J4:J13)</f>
         <v>83.680971145629798</v>
       </c>
-      <c r="N4" s="30">
+      <c r="N4" s="32">
         <f>MAX(D4:D13,F4:F13,H4:H13,J4:J13)</f>
         <v>91.546074390411306</v>
       </c>
-      <c r="O4" s="30">
+      <c r="O4" s="32">
         <f>MEDIAN(D4:D13,F4:F13,H4:H13,J4:J13)</f>
         <v>88.757582902908297</v>
       </c>
-      <c r="P4" s="30">
+      <c r="P4" s="32">
         <f>VAR(D4:D13,F4:F13,H4:H13,J4:J13)</f>
         <v>5.1977240625321901</v>
       </c>
-      <c r="Q4" s="30">
+      <c r="Q4" s="32">
         <f>_xlfn.STDEV.S(D4:D13,F4:F13,H4:H13,J4:J13)</f>
         <v>2.2798517632802775</v>
       </c>
       <c r="R4" s="22"/>
-      <c r="S4" s="30">
+      <c r="S4" s="32">
         <f>AVERAGE(E4:E13,G4:G13,I4:I13,K4:K13)</f>
         <v>4572.1837767978477</v>
       </c>
-      <c r="T4" s="30">
+      <c r="T4" s="32">
         <f>MIN(E4:E13,G4:G13,I4:I13,K4:K13)</f>
         <v>4408.5625956854401</v>
       </c>
-      <c r="U4" s="30">
+      <c r="U4" s="32">
         <f>MAX(E4:E13,G4:G13,I4:I13,K4:K13)</f>
         <v>4721.7645688300099</v>
       </c>
-      <c r="V4" s="30">
+      <c r="V4" s="32">
         <f>MEDIAN(E4:E13,G4:G13,I4:I13,K4:K13)</f>
         <v>4581.1399190534348</v>
       </c>
-      <c r="W4" s="30">
+      <c r="W4" s="32">
         <f>VAR(E4:E13,G4:G13,I4:I13,K4:K13)</f>
         <v>9362.3705908744341</v>
       </c>
-      <c r="X4" s="30">
+      <c r="X4" s="32">
         <f>_xlfn.STDEV.S(E4:E13,G4:G13,I4:I13,K4:K13)</f>
         <v>96.759343687699925</v>
       </c>
@@ -4728,7 +4852,7 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="29"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
@@ -4744,19 +4868,19 @@
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
       <c r="R5" s="22"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
@@ -4770,7 +4894,7 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="29"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
@@ -4786,19 +4910,19 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
       <c r="R6" s="22"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
@@ -4812,7 +4936,7 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="29"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
@@ -4828,19 +4952,19 @@
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
       <c r="R7" s="22"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
@@ -4854,7 +4978,7 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="29"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
@@ -4870,19 +4994,19 @@
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
       <c r="R8" s="22"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
@@ -4896,7 +5020,7 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="29"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
@@ -4912,19 +5036,19 @@
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
       <c r="R9" s="22"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
@@ -4938,7 +5062,7 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="29"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="7" t="s">
         <v>15</v>
       </c>
@@ -4954,19 +5078,19 @@
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
       <c r="R10" s="22"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="32"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
@@ -4980,7 +5104,7 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="29"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
@@ -4996,19 +5120,19 @@
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
       <c r="R11" s="22"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
@@ -5022,7 +5146,7 @@
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="29"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="7" t="s">
         <v>17</v>
       </c>
@@ -5038,19 +5162,19 @@
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
       <c r="R12" s="22"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="32"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
@@ -5064,7 +5188,7 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="29"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="7" t="s">
         <v>18</v>
       </c>
@@ -5080,19 +5204,19 @@
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
       <c r="R13" s="22"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
@@ -5106,7 +5230,7 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="29">
+      <c r="B14" s="31">
         <v>100</v>
       </c>
       <c r="C14" s="18" t="s">
@@ -5186,7 +5310,7 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="B15" s="29"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="7" t="s">
         <v>9</v>
       </c>
@@ -5198,52 +5322,52 @@
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="30" t="e">
+      <c r="L15" s="32" t="e">
         <f>AVERAGE(D15:D24,F15:F24,H15:H24,J15:J24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M15" s="30">
+      <c r="M15" s="32">
         <f>MIN(D15:D24,F15:F24,H15:H24,J15:J24)</f>
         <v>0</v>
       </c>
-      <c r="N15" s="30">
+      <c r="N15" s="32">
         <f>MAX(D15:D24,F15:F24,H15:H24,J15:J24)</f>
         <v>0</v>
       </c>
-      <c r="O15" s="30" t="e">
+      <c r="O15" s="32" t="e">
         <f>MEDIAN(D15:D24,F15:F24,H15:H24,J15:J24)</f>
         <v>#NUM!</v>
       </c>
-      <c r="P15" s="30" t="e">
+      <c r="P15" s="32" t="e">
         <f>VAR(D15:D24,F15:F24,H15:H24,J15:J24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q15" s="30" t="e">
+      <c r="Q15" s="32" t="e">
         <f>_xlfn.STDEV.S(D15:D24,F15:F24,H15:H24,J15:J24)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R15" s="22"/>
-      <c r="S15" s="30" t="e">
+      <c r="S15" s="32" t="e">
         <f>AVERAGE(E15:E24,G15:G24,I15:I24,K15:K24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T15" s="30">
+      <c r="T15" s="32">
         <f>MIN(E15:E24,G15:G24,I15:I24,K15:K24)</f>
         <v>0</v>
       </c>
-      <c r="U15" s="30">
+      <c r="U15" s="32">
         <f>MAX(E15:E24,G15:G24,I15:I24,K15:K24)</f>
         <v>0</v>
       </c>
-      <c r="V15" s="30" t="e">
+      <c r="V15" s="32" t="e">
         <f>MEDIAN(E15:E24,G15:G24,I15:I24,K15:K24)</f>
         <v>#NUM!</v>
       </c>
-      <c r="W15" s="30" t="e">
+      <c r="W15" s="32" t="e">
         <f>VAR(E15:E24,G15:G24,I15:I24,K15:K24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X15" s="30" t="e">
+      <c r="X15" s="32" t="e">
         <f>_xlfn.STDEV.S(E15:E24,G15:G24,I15:I24,K15:K24)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5260,7 +5384,7 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="29"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="7" t="s">
         <v>10</v>
       </c>
@@ -5272,19 +5396,19 @@
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
       <c r="R16" s="22"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
@@ -5298,7 +5422,7 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" s="29"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="7" t="s">
         <v>11</v>
       </c>
@@ -5310,19 +5434,19 @@
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
       <c r="R17" s="22"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
@@ -5336,7 +5460,7 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
-      <c r="B18" s="29"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="7" t="s">
         <v>12</v>
       </c>
@@ -5348,19 +5472,19 @@
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
       <c r="R18" s="22"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
@@ -5374,7 +5498,7 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
-      <c r="B19" s="29"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="7" t="s">
         <v>13</v>
       </c>
@@ -5386,19 +5510,19 @@
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
       <c r="R19" s="22"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
@@ -5412,7 +5536,7 @@
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
-      <c r="B20" s="29"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="7" t="s">
         <v>14</v>
       </c>
@@ -5424,19 +5548,19 @@
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
       <c r="R20" s="22"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
@@ -5450,7 +5574,7 @@
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
-      <c r="B21" s="29"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="7" t="s">
         <v>15</v>
       </c>
@@ -5462,19 +5586,19 @@
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
       <c r="R21" s="22"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
@@ -5488,7 +5612,7 @@
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
-      <c r="B22" s="29"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="7" t="s">
         <v>16</v>
       </c>
@@ -5500,19 +5624,19 @@
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
       <c r="R22" s="22"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
@@ -5526,7 +5650,7 @@
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
-      <c r="B23" s="29"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="7" t="s">
         <v>17</v>
       </c>
@@ -5538,19 +5662,19 @@
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
       <c r="R23" s="22"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="32"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
       <c r="AA23" s="7"/>
@@ -5564,7 +5688,7 @@
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
-      <c r="B24" s="29"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="7" t="s">
         <v>18</v>
       </c>
@@ -5576,19 +5700,19 @@
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
       <c r="R24" s="22"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="32"/>
+      <c r="X24" s="32"/>
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
@@ -5680,7 +5804,7 @@
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
-      <c r="B26" s="29">
+      <c r="B26" s="31">
         <v>250</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -5694,52 +5818,52 @@
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
-      <c r="L26" s="30" t="e">
+      <c r="L26" s="32" t="e">
         <f>AVERAGE(D26:D35,F26:F35,H26:H35,J26:J35)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M26" s="30">
+      <c r="M26" s="32">
         <f>MIN(D26:D35,F26:F35,H26:H35,J26:J35)</f>
         <v>0</v>
       </c>
-      <c r="N26" s="30">
+      <c r="N26" s="32">
         <f>MAX(D26:D35,F26:F35,H26:H35,J26:J35)</f>
         <v>0</v>
       </c>
-      <c r="O26" s="30" t="e">
+      <c r="O26" s="32" t="e">
         <f>MEDIAN(D26:D35,F26:F35,H26:H35,J26:J35)</f>
         <v>#NUM!</v>
       </c>
-      <c r="P26" s="30" t="e">
+      <c r="P26" s="32" t="e">
         <f>VAR(D26:D35,F26:F35,H26:H35,J26:J35)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q26" s="30" t="e">
+      <c r="Q26" s="32" t="e">
         <f>_xlfn.STDEV.S(D26:D35,F26:F35,H26:H35,J26:J35)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R26" s="22"/>
-      <c r="S26" s="30" t="e">
+      <c r="S26" s="32" t="e">
         <f>AVERAGE(E26:E35,G26:G35,I26:I35,K26:K35)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T26" s="30">
+      <c r="T26" s="32">
         <f>MIN(E26:E35,G26:G35,I26:I35,K26:K35)</f>
         <v>0</v>
       </c>
-      <c r="U26" s="30">
+      <c r="U26" s="32">
         <f>MAX(E26:E35,G26:G35,I26:I35,K26:K35)</f>
         <v>0</v>
       </c>
-      <c r="V26" s="30" t="e">
+      <c r="V26" s="32" t="e">
         <f>MEDIAN(E26:E35,G26:G35,I26:I35,K26:K35)</f>
         <v>#NUM!</v>
       </c>
-      <c r="W26" s="30" t="e">
+      <c r="W26" s="32" t="e">
         <f>VAR(E26:E35,G26:G35,I26:I35,K26:K35)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X26" s="30" t="e">
+      <c r="X26" s="32" t="e">
         <f>_xlfn.STDEV.S(E26:E35,G26:G35,I26:I35,K26:K35)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5756,7 +5880,7 @@
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
-      <c r="B27" s="29"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="7" t="s">
         <v>10</v>
       </c>
@@ -5768,19 +5892,19 @@
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
       <c r="R27" s="22"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="30"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="32"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
       <c r="AA27" s="7"/>
@@ -5794,7 +5918,7 @@
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
-      <c r="B28" s="29"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="7" t="s">
         <v>11</v>
       </c>
@@ -5806,19 +5930,19 @@
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
       <c r="R28" s="22"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="32"/>
+      <c r="X28" s="32"/>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
@@ -5832,7 +5956,7 @@
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
-      <c r="B29" s="29"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="7" t="s">
         <v>12</v>
       </c>
@@ -5844,19 +5968,19 @@
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
       <c r="R29" s="22"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="30"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="32"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="32"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="7"/>
       <c r="AA29" s="7"/>
@@ -5870,7 +5994,7 @@
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
-      <c r="B30" s="29"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="7" t="s">
         <v>13</v>
       </c>
@@ -5882,19 +6006,19 @@
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
       <c r="R30" s="22"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="30"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="32"/>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
@@ -5908,7 +6032,7 @@
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
-      <c r="B31" s="29"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="7" t="s">
         <v>14</v>
       </c>
@@ -5920,19 +6044,19 @@
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
       <c r="R31" s="22"/>
-      <c r="S31" s="30"/>
-      <c r="T31" s="30"/>
-      <c r="U31" s="30"/>
-      <c r="V31" s="30"/>
-      <c r="W31" s="30"/>
-      <c r="X31" s="30"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="32"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
       <c r="AA31" s="7"/>
@@ -5946,7 +6070,7 @@
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
-      <c r="B32" s="29"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="7" t="s">
         <v>15</v>
       </c>
@@ -5958,19 +6082,19 @@
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
       <c r="R32" s="22"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="30"/>
-      <c r="U32" s="30"/>
-      <c r="V32" s="30"/>
-      <c r="W32" s="30"/>
-      <c r="X32" s="30"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="32"/>
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
       <c r="AA32" s="7"/>
@@ -5984,7 +6108,7 @@
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
-      <c r="B33" s="29"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="7" t="s">
         <v>16</v>
       </c>
@@ -5996,19 +6120,19 @@
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
       <c r="R33" s="22"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="30"/>
-      <c r="V33" s="30"/>
-      <c r="W33" s="30"/>
-      <c r="X33" s="30"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="32"/>
       <c r="Y33" s="7"/>
       <c r="Z33" s="7"/>
       <c r="AA33" s="7"/>
@@ -6022,7 +6146,7 @@
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
-      <c r="B34" s="29"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="7" t="s">
         <v>17</v>
       </c>
@@ -6034,19 +6158,19 @@
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
       <c r="R34" s="22"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="30"/>
-      <c r="U34" s="30"/>
-      <c r="V34" s="30"/>
-      <c r="W34" s="30"/>
-      <c r="X34" s="30"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="32"/>
+      <c r="X34" s="32"/>
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
@@ -6060,7 +6184,7 @@
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
-      <c r="B35" s="29"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="7" t="s">
         <v>18</v>
       </c>
@@ -6072,19 +6196,19 @@
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="32"/>
       <c r="R35" s="22"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="30"/>
-      <c r="U35" s="30"/>
-      <c r="V35" s="30"/>
-      <c r="W35" s="30"/>
-      <c r="X35" s="30"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="32"/>
+      <c r="U35" s="32"/>
+      <c r="V35" s="32"/>
+      <c r="W35" s="32"/>
+      <c r="X35" s="32"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
       <c r="AA35" s="7"/>
@@ -6098,7 +6222,7 @@
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
-      <c r="B36" s="29">
+      <c r="B36" s="31">
         <v>500</v>
       </c>
       <c r="C36" s="18" t="s">
@@ -6178,7 +6302,7 @@
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
-      <c r="B37" s="29"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="7" t="s">
         <v>9</v>
       </c>
@@ -6190,52 +6314,52 @@
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
-      <c r="L37" s="30" t="e">
+      <c r="L37" s="32" t="e">
         <f>AVERAGE(D37:D46,F37:F46,H37:H46,J37:J46)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M37" s="30">
+      <c r="M37" s="32">
         <f>MIN(D37:D46,F37:F46,H37:H46,J37:J46)</f>
         <v>0</v>
       </c>
-      <c r="N37" s="30">
+      <c r="N37" s="32">
         <f>MAX(D37:D46,F37:F46,H37:H46,J37:J46)</f>
         <v>0</v>
       </c>
-      <c r="O37" s="30" t="e">
+      <c r="O37" s="32" t="e">
         <f>MEDIAN(D37:D46,F37:F46,H37:H46,J37:J46)</f>
         <v>#NUM!</v>
       </c>
-      <c r="P37" s="30" t="e">
+      <c r="P37" s="32" t="e">
         <f>VAR(D37:D46,F37:F46,H37:H46,J37:J46)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q37" s="30" t="e">
+      <c r="Q37" s="32" t="e">
         <f>_xlfn.STDEV.S(D37:D46,F37:F46,H37:H46,J37:J46)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R37" s="22"/>
-      <c r="S37" s="30" t="e">
+      <c r="S37" s="32" t="e">
         <f>AVERAGE(E37:E46,G37:G46,I37:I46,K37:K46)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T37" s="30">
+      <c r="T37" s="32">
         <f>MIN(E37:E46,G37:G46,I37:I46,K37:K46)</f>
         <v>0</v>
       </c>
-      <c r="U37" s="30">
+      <c r="U37" s="32">
         <f>MAX(E37:E46,G37:G46,I37:I46,K37:K46)</f>
         <v>0</v>
       </c>
-      <c r="V37" s="30" t="e">
+      <c r="V37" s="32" t="e">
         <f>MEDIAN(E37:E46,G37:G46,I37:I46,K37:K46)</f>
         <v>#NUM!</v>
       </c>
-      <c r="W37" s="30" t="e">
+      <c r="W37" s="32" t="e">
         <f>VAR(E37:E46,G37:G46,I37:I46,K37:K46)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X37" s="30" t="e">
+      <c r="X37" s="32" t="e">
         <f>_xlfn.STDEV.S(E37:E46,G37:G46,I37:I46,K37:K46)</f>
         <v>#DIV/0!</v>
       </c>
@@ -6252,7 +6376,7 @@
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
-      <c r="B38" s="29"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="7" t="s">
         <v>10</v>
       </c>
@@ -6264,19 +6388,19 @@
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="32"/>
       <c r="R38" s="22"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="30"/>
-      <c r="U38" s="30"/>
-      <c r="V38" s="30"/>
-      <c r="W38" s="30"/>
-      <c r="X38" s="30"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="32"/>
+      <c r="U38" s="32"/>
+      <c r="V38" s="32"/>
+      <c r="W38" s="32"/>
+      <c r="X38" s="32"/>
       <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
@@ -6290,7 +6414,7 @@
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
-      <c r="B39" s="29"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="7" t="s">
         <v>11</v>
       </c>
@@ -6302,19 +6426,19 @@
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="32"/>
       <c r="R39" s="22"/>
-      <c r="S39" s="30"/>
-      <c r="T39" s="30"/>
-      <c r="U39" s="30"/>
-      <c r="V39" s="30"/>
-      <c r="W39" s="30"/>
-      <c r="X39" s="30"/>
+      <c r="S39" s="32"/>
+      <c r="T39" s="32"/>
+      <c r="U39" s="32"/>
+      <c r="V39" s="32"/>
+      <c r="W39" s="32"/>
+      <c r="X39" s="32"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
       <c r="AA39" s="7"/>
@@ -6328,7 +6452,7 @@
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
-      <c r="B40" s="29"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="7" t="s">
         <v>12</v>
       </c>
@@ -6340,19 +6464,19 @@
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="32"/>
       <c r="R40" s="22"/>
-      <c r="S40" s="30"/>
-      <c r="T40" s="30"/>
-      <c r="U40" s="30"/>
-      <c r="V40" s="30"/>
-      <c r="W40" s="30"/>
-      <c r="X40" s="30"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="32"/>
+      <c r="U40" s="32"/>
+      <c r="V40" s="32"/>
+      <c r="W40" s="32"/>
+      <c r="X40" s="32"/>
       <c r="Y40" s="7"/>
       <c r="Z40" s="7"/>
       <c r="AA40" s="7"/>
@@ -6366,7 +6490,7 @@
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
-      <c r="B41" s="29"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="7" t="s">
         <v>13</v>
       </c>
@@ -6378,19 +6502,19 @@
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="32"/>
       <c r="R41" s="22"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="30"/>
-      <c r="U41" s="30"/>
-      <c r="V41" s="30"/>
-      <c r="W41" s="30"/>
-      <c r="X41" s="30"/>
+      <c r="S41" s="32"/>
+      <c r="T41" s="32"/>
+      <c r="U41" s="32"/>
+      <c r="V41" s="32"/>
+      <c r="W41" s="32"/>
+      <c r="X41" s="32"/>
       <c r="Y41" s="7"/>
       <c r="Z41" s="7"/>
       <c r="AA41" s="7"/>
@@ -6404,7 +6528,7 @@
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
-      <c r="B42" s="29"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="7" t="s">
         <v>14</v>
       </c>
@@ -6416,19 +6540,19 @@
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="32"/>
+      <c r="Q42" s="32"/>
       <c r="R42" s="22"/>
-      <c r="S42" s="30"/>
-      <c r="T42" s="30"/>
-      <c r="U42" s="30"/>
-      <c r="V42" s="30"/>
-      <c r="W42" s="30"/>
-      <c r="X42" s="30"/>
+      <c r="S42" s="32"/>
+      <c r="T42" s="32"/>
+      <c r="U42" s="32"/>
+      <c r="V42" s="32"/>
+      <c r="W42" s="32"/>
+      <c r="X42" s="32"/>
       <c r="Y42" s="7"/>
       <c r="Z42" s="7"/>
       <c r="AA42" s="7"/>
@@ -6442,7 +6566,7 @@
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
-      <c r="B43" s="29"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="7" t="s">
         <v>15</v>
       </c>
@@ -6454,19 +6578,19 @@
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="32"/>
+      <c r="P43" s="32"/>
+      <c r="Q43" s="32"/>
       <c r="R43" s="22"/>
-      <c r="S43" s="30"/>
-      <c r="T43" s="30"/>
-      <c r="U43" s="30"/>
-      <c r="V43" s="30"/>
-      <c r="W43" s="30"/>
-      <c r="X43" s="30"/>
+      <c r="S43" s="32"/>
+      <c r="T43" s="32"/>
+      <c r="U43" s="32"/>
+      <c r="V43" s="32"/>
+      <c r="W43" s="32"/>
+      <c r="X43" s="32"/>
       <c r="Y43" s="7"/>
       <c r="Z43" s="7"/>
       <c r="AA43" s="7"/>
@@ -6480,7 +6604,7 @@
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
-      <c r="B44" s="29"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="7" t="s">
         <v>16</v>
       </c>
@@ -6492,19 +6616,19 @@
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="30"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="32"/>
+      <c r="Q44" s="32"/>
       <c r="R44" s="22"/>
-      <c r="S44" s="30"/>
-      <c r="T44" s="30"/>
-      <c r="U44" s="30"/>
-      <c r="V44" s="30"/>
-      <c r="W44" s="30"/>
-      <c r="X44" s="30"/>
+      <c r="S44" s="32"/>
+      <c r="T44" s="32"/>
+      <c r="U44" s="32"/>
+      <c r="V44" s="32"/>
+      <c r="W44" s="32"/>
+      <c r="X44" s="32"/>
       <c r="Y44" s="7"/>
       <c r="Z44" s="7"/>
       <c r="AA44" s="7"/>
@@ -6518,7 +6642,7 @@
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
-      <c r="B45" s="29"/>
+      <c r="B45" s="31"/>
       <c r="C45" s="7" t="s">
         <v>17</v>
       </c>
@@ -6530,19 +6654,19 @@
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="30"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="32"/>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="32"/>
       <c r="R45" s="22"/>
-      <c r="S45" s="30"/>
-      <c r="T45" s="30"/>
-      <c r="U45" s="30"/>
-      <c r="V45" s="30"/>
-      <c r="W45" s="30"/>
-      <c r="X45" s="30"/>
+      <c r="S45" s="32"/>
+      <c r="T45" s="32"/>
+      <c r="U45" s="32"/>
+      <c r="V45" s="32"/>
+      <c r="W45" s="32"/>
+      <c r="X45" s="32"/>
       <c r="Y45" s="7"/>
       <c r="Z45" s="7"/>
       <c r="AA45" s="7"/>
@@ -6556,7 +6680,7 @@
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
-      <c r="B46" s="29"/>
+      <c r="B46" s="31"/>
       <c r="C46" s="21" t="s">
         <v>18</v>
       </c>
@@ -6568,19 +6692,19 @@
       <c r="I46" s="20"/>
       <c r="J46" s="20"/>
       <c r="K46" s="20"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="30"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="30"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="32"/>
+      <c r="P46" s="32"/>
+      <c r="Q46" s="32"/>
       <c r="R46" s="22"/>
-      <c r="S46" s="30"/>
-      <c r="T46" s="30"/>
-      <c r="U46" s="30"/>
-      <c r="V46" s="30"/>
-      <c r="W46" s="30"/>
-      <c r="X46" s="30"/>
+      <c r="S46" s="32"/>
+      <c r="T46" s="32"/>
+      <c r="U46" s="32"/>
+      <c r="V46" s="32"/>
+      <c r="W46" s="32"/>
+      <c r="X46" s="32"/>
       <c r="Y46" s="7"/>
       <c r="Z46" s="7"/>
       <c r="AA46" s="7"/>
@@ -6594,7 +6718,7 @@
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
-      <c r="B47" s="29">
+      <c r="B47" s="31">
         <v>750</v>
       </c>
       <c r="C47" s="18" t="s">
@@ -6674,7 +6798,7 @@
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
-      <c r="B48" s="29"/>
+      <c r="B48" s="31"/>
       <c r="C48" s="7" t="s">
         <v>9</v>
       </c>
@@ -6686,52 +6810,52 @@
       <c r="I48" s="20"/>
       <c r="J48" s="20"/>
       <c r="K48" s="20"/>
-      <c r="L48" s="30" t="e">
+      <c r="L48" s="32" t="e">
         <f>AVERAGE(D48:D57,F48:F57,H48:H57,J48:J57)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M48" s="30">
+      <c r="M48" s="32">
         <f>MIN(D48:D57,F48:F57,H48:H57,J48:J57)</f>
         <v>0</v>
       </c>
-      <c r="N48" s="30">
+      <c r="N48" s="32">
         <f>MAX(D48:D57,F48:F57,H48:H57,J48:J57)</f>
         <v>0</v>
       </c>
-      <c r="O48" s="30" t="e">
+      <c r="O48" s="32" t="e">
         <f>MEDIAN(D48:D57,F48:F57,H48:H57,J48:J57)</f>
         <v>#NUM!</v>
       </c>
-      <c r="P48" s="30" t="e">
+      <c r="P48" s="32" t="e">
         <f>VAR(D48:D57,F48:F57,H48:H57,J48:J57)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q48" s="30" t="e">
+      <c r="Q48" s="32" t="e">
         <f>_xlfn.STDEV.S(D48:D57,F48:F57,H48:H57,J48:J57)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R48" s="22"/>
-      <c r="S48" s="30" t="e">
+      <c r="S48" s="32" t="e">
         <f>AVERAGE(E48:E57,G48:G57,I48:I57,K48:K57)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T48" s="30">
+      <c r="T48" s="32">
         <f>MIN(E48:E57,G48:G57,I48:I57,K48:K57)</f>
         <v>0</v>
       </c>
-      <c r="U48" s="30">
+      <c r="U48" s="32">
         <f>MAX(E48:E57,G48:G57,I48:I57,K48:K57)</f>
         <v>0</v>
       </c>
-      <c r="V48" s="30" t="e">
+      <c r="V48" s="32" t="e">
         <f>MEDIAN(E48:E57,G48:G57,I48:I57,K48:K57)</f>
         <v>#NUM!</v>
       </c>
-      <c r="W48" s="30" t="e">
+      <c r="W48" s="32" t="e">
         <f>VAR(E48:E57,G48:G57,I48:I57,K48:K57)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X48" s="30" t="e">
+      <c r="X48" s="32" t="e">
         <f>_xlfn.STDEV.S(E48:E57,G48:G57,I48:I57,K48:K57)</f>
         <v>#DIV/0!</v>
       </c>
@@ -6748,7 +6872,7 @@
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
-      <c r="B49" s="29"/>
+      <c r="B49" s="31"/>
       <c r="C49" s="7" t="s">
         <v>10</v>
       </c>
@@ -6760,19 +6884,19 @@
       <c r="I49" s="20"/>
       <c r="J49" s="20"/>
       <c r="K49" s="20"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="30"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="30"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="32"/>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="32"/>
       <c r="R49" s="22"/>
-      <c r="S49" s="30"/>
-      <c r="T49" s="30"/>
-      <c r="U49" s="30"/>
-      <c r="V49" s="30"/>
-      <c r="W49" s="30"/>
-      <c r="X49" s="30"/>
+      <c r="S49" s="32"/>
+      <c r="T49" s="32"/>
+      <c r="U49" s="32"/>
+      <c r="V49" s="32"/>
+      <c r="W49" s="32"/>
+      <c r="X49" s="32"/>
       <c r="Y49" s="7"/>
       <c r="Z49" s="7"/>
       <c r="AA49" s="7"/>
@@ -6786,7 +6910,7 @@
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
-      <c r="B50" s="29"/>
+      <c r="B50" s="31"/>
       <c r="C50" s="7" t="s">
         <v>11</v>
       </c>
@@ -6798,19 +6922,19 @@
       <c r="I50" s="20"/>
       <c r="J50" s="20"/>
       <c r="K50" s="20"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="30"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="32"/>
       <c r="R50" s="22"/>
-      <c r="S50" s="30"/>
-      <c r="T50" s="30"/>
-      <c r="U50" s="30"/>
-      <c r="V50" s="30"/>
-      <c r="W50" s="30"/>
-      <c r="X50" s="30"/>
+      <c r="S50" s="32"/>
+      <c r="T50" s="32"/>
+      <c r="U50" s="32"/>
+      <c r="V50" s="32"/>
+      <c r="W50" s="32"/>
+      <c r="X50" s="32"/>
       <c r="Y50" s="7"/>
       <c r="Z50" s="7"/>
       <c r="AA50" s="7"/>
@@ -6824,7 +6948,7 @@
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
-      <c r="B51" s="29"/>
+      <c r="B51" s="31"/>
       <c r="C51" s="7" t="s">
         <v>12</v>
       </c>
@@ -6836,19 +6960,19 @@
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
       <c r="K51" s="20"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="30"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="32"/>
+      <c r="O51" s="32"/>
+      <c r="P51" s="32"/>
+      <c r="Q51" s="32"/>
       <c r="R51" s="22"/>
-      <c r="S51" s="30"/>
-      <c r="T51" s="30"/>
-      <c r="U51" s="30"/>
-      <c r="V51" s="30"/>
-      <c r="W51" s="30"/>
-      <c r="X51" s="30"/>
+      <c r="S51" s="32"/>
+      <c r="T51" s="32"/>
+      <c r="U51" s="32"/>
+      <c r="V51" s="32"/>
+      <c r="W51" s="32"/>
+      <c r="X51" s="32"/>
       <c r="Y51" s="7"/>
       <c r="Z51" s="7"/>
       <c r="AA51" s="7"/>
@@ -6862,7 +6986,7 @@
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
-      <c r="B52" s="29"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="7" t="s">
         <v>13</v>
       </c>
@@ -6874,19 +6998,19 @@
       <c r="I52" s="20"/>
       <c r="J52" s="20"/>
       <c r="K52" s="20"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="30"/>
-      <c r="N52" s="30"/>
-      <c r="O52" s="30"/>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="30"/>
+      <c r="L52" s="32"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="32"/>
+      <c r="Q52" s="32"/>
       <c r="R52" s="22"/>
-      <c r="S52" s="30"/>
-      <c r="T52" s="30"/>
-      <c r="U52" s="30"/>
-      <c r="V52" s="30"/>
-      <c r="W52" s="30"/>
-      <c r="X52" s="30"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="32"/>
+      <c r="U52" s="32"/>
+      <c r="V52" s="32"/>
+      <c r="W52" s="32"/>
+      <c r="X52" s="32"/>
       <c r="Y52" s="7"/>
       <c r="Z52" s="7"/>
       <c r="AA52" s="7"/>
@@ -6900,7 +7024,7 @@
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
-      <c r="B53" s="29"/>
+      <c r="B53" s="31"/>
       <c r="C53" s="7" t="s">
         <v>14</v>
       </c>
@@ -6912,19 +7036,19 @@
       <c r="I53" s="20"/>
       <c r="J53" s="20"/>
       <c r="K53" s="20"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="30"/>
-      <c r="N53" s="30"/>
-      <c r="O53" s="30"/>
-      <c r="P53" s="30"/>
-      <c r="Q53" s="30"/>
+      <c r="L53" s="32"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="32"/>
+      <c r="O53" s="32"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="32"/>
       <c r="R53" s="22"/>
-      <c r="S53" s="30"/>
-      <c r="T53" s="30"/>
-      <c r="U53" s="30"/>
-      <c r="V53" s="30"/>
-      <c r="W53" s="30"/>
-      <c r="X53" s="30"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="32"/>
+      <c r="U53" s="32"/>
+      <c r="V53" s="32"/>
+      <c r="W53" s="32"/>
+      <c r="X53" s="32"/>
       <c r="Y53" s="7"/>
       <c r="Z53" s="7"/>
       <c r="AA53" s="7"/>
@@ -6938,7 +7062,7 @@
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
-      <c r="B54" s="29"/>
+      <c r="B54" s="31"/>
       <c r="C54" s="7" t="s">
         <v>15</v>
       </c>
@@ -6950,19 +7074,19 @@
       <c r="I54" s="20"/>
       <c r="J54" s="20"/>
       <c r="K54" s="20"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="30"/>
-      <c r="N54" s="30"/>
-      <c r="O54" s="30"/>
-      <c r="P54" s="30"/>
-      <c r="Q54" s="30"/>
+      <c r="L54" s="32"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="32"/>
+      <c r="O54" s="32"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="32"/>
       <c r="R54" s="22"/>
-      <c r="S54" s="30"/>
-      <c r="T54" s="30"/>
-      <c r="U54" s="30"/>
-      <c r="V54" s="30"/>
-      <c r="W54" s="30"/>
-      <c r="X54" s="30"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="32"/>
+      <c r="U54" s="32"/>
+      <c r="V54" s="32"/>
+      <c r="W54" s="32"/>
+      <c r="X54" s="32"/>
       <c r="Y54" s="7"/>
       <c r="Z54" s="7"/>
       <c r="AA54" s="7"/>
@@ -6976,7 +7100,7 @@
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
-      <c r="B55" s="29"/>
+      <c r="B55" s="31"/>
       <c r="C55" s="7" t="s">
         <v>16</v>
       </c>
@@ -6988,19 +7112,19 @@
       <c r="I55" s="20"/>
       <c r="J55" s="20"/>
       <c r="K55" s="20"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="30"/>
-      <c r="P55" s="30"/>
-      <c r="Q55" s="30"/>
+      <c r="L55" s="32"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="32"/>
+      <c r="O55" s="32"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="32"/>
       <c r="R55" s="22"/>
-      <c r="S55" s="30"/>
-      <c r="T55" s="30"/>
-      <c r="U55" s="30"/>
-      <c r="V55" s="30"/>
-      <c r="W55" s="30"/>
-      <c r="X55" s="30"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="32"/>
+      <c r="U55" s="32"/>
+      <c r="V55" s="32"/>
+      <c r="W55" s="32"/>
+      <c r="X55" s="32"/>
       <c r="Y55" s="7"/>
       <c r="Z55" s="7"/>
       <c r="AA55" s="7"/>
@@ -7014,7 +7138,7 @@
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
-      <c r="B56" s="29"/>
+      <c r="B56" s="31"/>
       <c r="C56" s="7" t="s">
         <v>17</v>
       </c>
@@ -7026,19 +7150,19 @@
       <c r="I56" s="20"/>
       <c r="J56" s="20"/>
       <c r="K56" s="20"/>
-      <c r="L56" s="30"/>
-      <c r="M56" s="30"/>
-      <c r="N56" s="30"/>
-      <c r="O56" s="30"/>
-      <c r="P56" s="30"/>
-      <c r="Q56" s="30"/>
+      <c r="L56" s="32"/>
+      <c r="M56" s="32"/>
+      <c r="N56" s="32"/>
+      <c r="O56" s="32"/>
+      <c r="P56" s="32"/>
+      <c r="Q56" s="32"/>
       <c r="R56" s="22"/>
-      <c r="S56" s="30"/>
-      <c r="T56" s="30"/>
-      <c r="U56" s="30"/>
-      <c r="V56" s="30"/>
-      <c r="W56" s="30"/>
-      <c r="X56" s="30"/>
+      <c r="S56" s="32"/>
+      <c r="T56" s="32"/>
+      <c r="U56" s="32"/>
+      <c r="V56" s="32"/>
+      <c r="W56" s="32"/>
+      <c r="X56" s="32"/>
       <c r="Y56" s="7"/>
       <c r="Z56" s="7"/>
       <c r="AA56" s="7"/>
@@ -7052,7 +7176,7 @@
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
-      <c r="B57" s="29"/>
+      <c r="B57" s="31"/>
       <c r="C57" s="21" t="s">
         <v>18</v>
       </c>
@@ -7064,19 +7188,19 @@
       <c r="I57" s="20"/>
       <c r="J57" s="20"/>
       <c r="K57" s="20"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="30"/>
-      <c r="N57" s="30"/>
-      <c r="O57" s="30"/>
-      <c r="P57" s="30"/>
-      <c r="Q57" s="30"/>
+      <c r="L57" s="32"/>
+      <c r="M57" s="32"/>
+      <c r="N57" s="32"/>
+      <c r="O57" s="32"/>
+      <c r="P57" s="32"/>
+      <c r="Q57" s="32"/>
       <c r="R57" s="22"/>
-      <c r="S57" s="30"/>
-      <c r="T57" s="30"/>
-      <c r="U57" s="30"/>
-      <c r="V57" s="30"/>
-      <c r="W57" s="30"/>
-      <c r="X57" s="30"/>
+      <c r="S57" s="32"/>
+      <c r="T57" s="32"/>
+      <c r="U57" s="32"/>
+      <c r="V57" s="32"/>
+      <c r="W57" s="32"/>
+      <c r="X57" s="32"/>
       <c r="Y57" s="7"/>
       <c r="Z57" s="7"/>
       <c r="AA57" s="7"/>
@@ -7090,7 +7214,7 @@
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
-      <c r="B58" s="29">
+      <c r="B58" s="31">
         <v>1000</v>
       </c>
       <c r="C58" s="18" t="s">
@@ -7170,7 +7294,7 @@
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
-      <c r="B59" s="29"/>
+      <c r="B59" s="31"/>
       <c r="C59" s="7" t="s">
         <v>9</v>
       </c>
@@ -7182,52 +7306,52 @@
       <c r="I59" s="20"/>
       <c r="J59" s="20"/>
       <c r="K59" s="20"/>
-      <c r="L59" s="30" t="e">
+      <c r="L59" s="32" t="e">
         <f>AVERAGE(D59:D68,F59:F68,H59:H68,J59:J68)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M59" s="30">
+      <c r="M59" s="32">
         <f>MIN(D59:D68,F59:F68,H59:H68,J59:J68)</f>
         <v>0</v>
       </c>
-      <c r="N59" s="30">
+      <c r="N59" s="32">
         <f>MAX(D59:D68,F59:F68,H59:H68,J59:J68)</f>
         <v>0</v>
       </c>
-      <c r="O59" s="30" t="e">
+      <c r="O59" s="32" t="e">
         <f>MEDIAN(D59:D68,F59:F68,H59:H68,J59:J68)</f>
         <v>#NUM!</v>
       </c>
-      <c r="P59" s="30" t="e">
+      <c r="P59" s="32" t="e">
         <f>VAR(D59:D68,F59:F68,H59:H68,J59:J68)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q59" s="30" t="e">
+      <c r="Q59" s="32" t="e">
         <f>_xlfn.STDEV.S(D59:D68,F59:F68,H59:H68,J59:J68)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R59" s="22"/>
-      <c r="S59" s="30" t="e">
+      <c r="S59" s="32" t="e">
         <f>AVERAGE(E59:E68,G59:G68,I59:I68,K59:K68)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T59" s="30">
+      <c r="T59" s="32">
         <f>MIN(E59:E68,G59:G68,I59:I68,K59:K68)</f>
         <v>0</v>
       </c>
-      <c r="U59" s="30">
+      <c r="U59" s="32">
         <f>MAX(E59:E68,G59:G68,I59:I68,K59:K68)</f>
         <v>0</v>
       </c>
-      <c r="V59" s="30" t="e">
+      <c r="V59" s="32" t="e">
         <f>MEDIAN(E59:E68,G59:G68,I59:I68,K59:K68)</f>
         <v>#NUM!</v>
       </c>
-      <c r="W59" s="30" t="e">
+      <c r="W59" s="32" t="e">
         <f>VAR(E59:E68,G59:G68,I59:I68,K59:K68)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X59" s="30" t="e">
+      <c r="X59" s="32" t="e">
         <f>_xlfn.STDEV.S(E59:E68,G59:G68,I59:I68,K59:K68)</f>
         <v>#DIV/0!</v>
       </c>
@@ -7244,7 +7368,7 @@
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
-      <c r="B60" s="29"/>
+      <c r="B60" s="31"/>
       <c r="C60" s="7" t="s">
         <v>10</v>
       </c>
@@ -7256,19 +7380,19 @@
       <c r="I60" s="20"/>
       <c r="J60" s="20"/>
       <c r="K60" s="20"/>
-      <c r="L60" s="30"/>
-      <c r="M60" s="30"/>
-      <c r="N60" s="30"/>
-      <c r="O60" s="30"/>
-      <c r="P60" s="30"/>
-      <c r="Q60" s="30"/>
+      <c r="L60" s="32"/>
+      <c r="M60" s="32"/>
+      <c r="N60" s="32"/>
+      <c r="O60" s="32"/>
+      <c r="P60" s="32"/>
+      <c r="Q60" s="32"/>
       <c r="R60" s="22"/>
-      <c r="S60" s="30"/>
-      <c r="T60" s="30"/>
-      <c r="U60" s="30"/>
-      <c r="V60" s="30"/>
-      <c r="W60" s="30"/>
-      <c r="X60" s="30"/>
+      <c r="S60" s="32"/>
+      <c r="T60" s="32"/>
+      <c r="U60" s="32"/>
+      <c r="V60" s="32"/>
+      <c r="W60" s="32"/>
+      <c r="X60" s="32"/>
       <c r="Y60" s="7"/>
       <c r="Z60" s="7"/>
       <c r="AA60" s="7"/>
@@ -7282,7 +7406,7 @@
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
-      <c r="B61" s="29"/>
+      <c r="B61" s="31"/>
       <c r="C61" s="7" t="s">
         <v>11</v>
       </c>
@@ -7294,19 +7418,19 @@
       <c r="I61" s="20"/>
       <c r="J61" s="20"/>
       <c r="K61" s="20"/>
-      <c r="L61" s="30"/>
-      <c r="M61" s="30"/>
-      <c r="N61" s="30"/>
-      <c r="O61" s="30"/>
-      <c r="P61" s="30"/>
-      <c r="Q61" s="30"/>
+      <c r="L61" s="32"/>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="32"/>
+      <c r="P61" s="32"/>
+      <c r="Q61" s="32"/>
       <c r="R61" s="22"/>
-      <c r="S61" s="30"/>
-      <c r="T61" s="30"/>
-      <c r="U61" s="30"/>
-      <c r="V61" s="30"/>
-      <c r="W61" s="30"/>
-      <c r="X61" s="30"/>
+      <c r="S61" s="32"/>
+      <c r="T61" s="32"/>
+      <c r="U61" s="32"/>
+      <c r="V61" s="32"/>
+      <c r="W61" s="32"/>
+      <c r="X61" s="32"/>
       <c r="Y61" s="7"/>
       <c r="Z61" s="7"/>
       <c r="AA61" s="7"/>
@@ -7320,7 +7444,7 @@
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
-      <c r="B62" s="29"/>
+      <c r="B62" s="31"/>
       <c r="C62" s="7" t="s">
         <v>12</v>
       </c>
@@ -7332,19 +7456,19 @@
       <c r="I62" s="20"/>
       <c r="J62" s="20"/>
       <c r="K62" s="20"/>
-      <c r="L62" s="30"/>
-      <c r="M62" s="30"/>
-      <c r="N62" s="30"/>
-      <c r="O62" s="30"/>
-      <c r="P62" s="30"/>
-      <c r="Q62" s="30"/>
+      <c r="L62" s="32"/>
+      <c r="M62" s="32"/>
+      <c r="N62" s="32"/>
+      <c r="O62" s="32"/>
+      <c r="P62" s="32"/>
+      <c r="Q62" s="32"/>
       <c r="R62" s="22"/>
-      <c r="S62" s="30"/>
-      <c r="T62" s="30"/>
-      <c r="U62" s="30"/>
-      <c r="V62" s="30"/>
-      <c r="W62" s="30"/>
-      <c r="X62" s="30"/>
+      <c r="S62" s="32"/>
+      <c r="T62" s="32"/>
+      <c r="U62" s="32"/>
+      <c r="V62" s="32"/>
+      <c r="W62" s="32"/>
+      <c r="X62" s="32"/>
       <c r="Y62" s="7"/>
       <c r="Z62" s="7"/>
       <c r="AA62" s="7"/>
@@ -7358,7 +7482,7 @@
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
-      <c r="B63" s="29"/>
+      <c r="B63" s="31"/>
       <c r="C63" s="7" t="s">
         <v>13</v>
       </c>
@@ -7370,19 +7494,19 @@
       <c r="I63" s="20"/>
       <c r="J63" s="20"/>
       <c r="K63" s="20"/>
-      <c r="L63" s="30"/>
-      <c r="M63" s="30"/>
-      <c r="N63" s="30"/>
-      <c r="O63" s="30"/>
-      <c r="P63" s="30"/>
-      <c r="Q63" s="30"/>
+      <c r="L63" s="32"/>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="32"/>
+      <c r="Q63" s="32"/>
       <c r="R63" s="22"/>
-      <c r="S63" s="30"/>
-      <c r="T63" s="30"/>
-      <c r="U63" s="30"/>
-      <c r="V63" s="30"/>
-      <c r="W63" s="30"/>
-      <c r="X63" s="30"/>
+      <c r="S63" s="32"/>
+      <c r="T63" s="32"/>
+      <c r="U63" s="32"/>
+      <c r="V63" s="32"/>
+      <c r="W63" s="32"/>
+      <c r="X63" s="32"/>
       <c r="Y63" s="7"/>
       <c r="Z63" s="7"/>
       <c r="AA63" s="7"/>
@@ -7396,7 +7520,7 @@
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
-      <c r="B64" s="29"/>
+      <c r="B64" s="31"/>
       <c r="C64" s="7" t="s">
         <v>14</v>
       </c>
@@ -7408,19 +7532,19 @@
       <c r="I64" s="20"/>
       <c r="J64" s="20"/>
       <c r="K64" s="20"/>
-      <c r="L64" s="30"/>
-      <c r="M64" s="30"/>
-      <c r="N64" s="30"/>
-      <c r="O64" s="30"/>
-      <c r="P64" s="30"/>
-      <c r="Q64" s="30"/>
+      <c r="L64" s="32"/>
+      <c r="M64" s="32"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="32"/>
+      <c r="P64" s="32"/>
+      <c r="Q64" s="32"/>
       <c r="R64" s="22"/>
-      <c r="S64" s="30"/>
-      <c r="T64" s="30"/>
-      <c r="U64" s="30"/>
-      <c r="V64" s="30"/>
-      <c r="W64" s="30"/>
-      <c r="X64" s="30"/>
+      <c r="S64" s="32"/>
+      <c r="T64" s="32"/>
+      <c r="U64" s="32"/>
+      <c r="V64" s="32"/>
+      <c r="W64" s="32"/>
+      <c r="X64" s="32"/>
       <c r="Y64" s="7"/>
       <c r="Z64" s="7"/>
       <c r="AA64" s="7"/>
@@ -7434,7 +7558,7 @@
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
-      <c r="B65" s="29"/>
+      <c r="B65" s="31"/>
       <c r="C65" s="7" t="s">
         <v>15</v>
       </c>
@@ -7446,19 +7570,19 @@
       <c r="I65" s="20"/>
       <c r="J65" s="20"/>
       <c r="K65" s="20"/>
-      <c r="L65" s="30"/>
-      <c r="M65" s="30"/>
-      <c r="N65" s="30"/>
-      <c r="O65" s="30"/>
-      <c r="P65" s="30"/>
-      <c r="Q65" s="30"/>
+      <c r="L65" s="32"/>
+      <c r="M65" s="32"/>
+      <c r="N65" s="32"/>
+      <c r="O65" s="32"/>
+      <c r="P65" s="32"/>
+      <c r="Q65" s="32"/>
       <c r="R65" s="22"/>
-      <c r="S65" s="30"/>
-      <c r="T65" s="30"/>
-      <c r="U65" s="30"/>
-      <c r="V65" s="30"/>
-      <c r="W65" s="30"/>
-      <c r="X65" s="30"/>
+      <c r="S65" s="32"/>
+      <c r="T65" s="32"/>
+      <c r="U65" s="32"/>
+      <c r="V65" s="32"/>
+      <c r="W65" s="32"/>
+      <c r="X65" s="32"/>
       <c r="Y65" s="7"/>
       <c r="Z65" s="7"/>
       <c r="AA65" s="7"/>
@@ -7472,7 +7596,7 @@
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
-      <c r="B66" s="29"/>
+      <c r="B66" s="31"/>
       <c r="C66" s="7" t="s">
         <v>16</v>
       </c>
@@ -7484,19 +7608,19 @@
       <c r="I66" s="20"/>
       <c r="J66" s="20"/>
       <c r="K66" s="20"/>
-      <c r="L66" s="30"/>
-      <c r="M66" s="30"/>
-      <c r="N66" s="30"/>
-      <c r="O66" s="30"/>
-      <c r="P66" s="30"/>
-      <c r="Q66" s="30"/>
+      <c r="L66" s="32"/>
+      <c r="M66" s="32"/>
+      <c r="N66" s="32"/>
+      <c r="O66" s="32"/>
+      <c r="P66" s="32"/>
+      <c r="Q66" s="32"/>
       <c r="R66" s="22"/>
-      <c r="S66" s="30"/>
-      <c r="T66" s="30"/>
-      <c r="U66" s="30"/>
-      <c r="V66" s="30"/>
-      <c r="W66" s="30"/>
-      <c r="X66" s="30"/>
+      <c r="S66" s="32"/>
+      <c r="T66" s="32"/>
+      <c r="U66" s="32"/>
+      <c r="V66" s="32"/>
+      <c r="W66" s="32"/>
+      <c r="X66" s="32"/>
       <c r="Y66" s="7"/>
       <c r="Z66" s="7"/>
       <c r="AA66" s="7"/>
@@ -7510,7 +7634,7 @@
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
-      <c r="B67" s="29"/>
+      <c r="B67" s="31"/>
       <c r="C67" s="7" t="s">
         <v>17</v>
       </c>
@@ -7522,19 +7646,19 @@
       <c r="I67" s="20"/>
       <c r="J67" s="20"/>
       <c r="K67" s="20"/>
-      <c r="L67" s="30"/>
-      <c r="M67" s="30"/>
-      <c r="N67" s="30"/>
-      <c r="O67" s="30"/>
-      <c r="P67" s="30"/>
-      <c r="Q67" s="30"/>
+      <c r="L67" s="32"/>
+      <c r="M67" s="32"/>
+      <c r="N67" s="32"/>
+      <c r="O67" s="32"/>
+      <c r="P67" s="32"/>
+      <c r="Q67" s="32"/>
       <c r="R67" s="22"/>
-      <c r="S67" s="30"/>
-      <c r="T67" s="30"/>
-      <c r="U67" s="30"/>
-      <c r="V67" s="30"/>
-      <c r="W67" s="30"/>
-      <c r="X67" s="30"/>
+      <c r="S67" s="32"/>
+      <c r="T67" s="32"/>
+      <c r="U67" s="32"/>
+      <c r="V67" s="32"/>
+      <c r="W67" s="32"/>
+      <c r="X67" s="32"/>
       <c r="Y67" s="7"/>
       <c r="Z67" s="7"/>
       <c r="AA67" s="7"/>
@@ -7548,7 +7672,7 @@
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
-      <c r="B68" s="29"/>
+      <c r="B68" s="31"/>
       <c r="C68" s="21" t="s">
         <v>18</v>
       </c>
@@ -7560,19 +7684,19 @@
       <c r="I68" s="20"/>
       <c r="J68" s="20"/>
       <c r="K68" s="20"/>
-      <c r="L68" s="30"/>
-      <c r="M68" s="30"/>
-      <c r="N68" s="30"/>
-      <c r="O68" s="30"/>
-      <c r="P68" s="30"/>
-      <c r="Q68" s="30"/>
+      <c r="L68" s="32"/>
+      <c r="M68" s="32"/>
+      <c r="N68" s="32"/>
+      <c r="O68" s="32"/>
+      <c r="P68" s="32"/>
+      <c r="Q68" s="32"/>
       <c r="R68" s="22"/>
-      <c r="S68" s="30"/>
-      <c r="T68" s="30"/>
-      <c r="U68" s="30"/>
-      <c r="V68" s="30"/>
-      <c r="W68" s="30"/>
-      <c r="X68" s="30"/>
+      <c r="S68" s="32"/>
+      <c r="T68" s="32"/>
+      <c r="U68" s="32"/>
+      <c r="V68" s="32"/>
+      <c r="W68" s="32"/>
+      <c r="X68" s="32"/>
       <c r="Y68" s="7"/>
       <c r="Z68" s="7"/>
       <c r="AA68" s="7"/>
@@ -7586,7 +7710,7 @@
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
-      <c r="B69" s="33" t="s">
+      <c r="B69" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C69" s="25"/>
@@ -7614,12 +7738,12 @@
       <c r="K69" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="L69" s="32" t="s">
+      <c r="L69" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="M69" s="32"/>
-      <c r="N69" s="32"/>
-      <c r="O69" s="32"/>
+      <c r="M69" s="34"/>
+      <c r="N69" s="34"/>
+      <c r="O69" s="34"/>
       <c r="P69" s="27"/>
       <c r="Q69" s="27"/>
       <c r="R69" s="22"/>
@@ -7642,7 +7766,7 @@
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="33"/>
+      <c r="B70" s="35"/>
       <c r="C70" s="26" t="s">
         <v>26</v>
       </c>
@@ -7704,7 +7828,7 @@
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
-      <c r="B71" s="33"/>
+      <c r="B71" s="35"/>
       <c r="C71" s="26" t="s">
         <v>3</v>
       </c>
@@ -7766,7 +7890,7 @@
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="33"/>
+      <c r="B72" s="35"/>
       <c r="C72" s="26" t="s">
         <v>4</v>
       </c>
@@ -7828,7 +7952,7 @@
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="33"/>
+      <c r="B73" s="35"/>
       <c r="C73" s="26" t="s">
         <v>27</v>
       </c>
@@ -7890,7 +8014,7 @@
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="33"/>
+      <c r="B74" s="35"/>
       <c r="C74" s="26" t="s">
         <v>5</v>
       </c>
@@ -7928,7 +8052,7 @@
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="33"/>
+      <c r="B75" s="35"/>
       <c r="C75" s="26" t="s">
         <v>6</v>
       </c>
@@ -7966,7 +8090,7 @@
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="33"/>
+      <c r="B76" s="35"/>
       <c r="C76" s="26" t="s">
         <v>7</v>
       </c>
@@ -8028,7 +8152,7 @@
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="33"/>
+      <c r="B77" s="35"/>
       <c r="C77" s="26" t="s">
         <v>28</v>
       </c>
@@ -8255,11 +8379,11 @@
     <mergeCell ref="V37:V46"/>
     <mergeCell ref="W37:W46"/>
     <mergeCell ref="X37:X46"/>
-    <mergeCell ref="P48:P57"/>
     <mergeCell ref="Q48:Q57"/>
     <mergeCell ref="S48:S57"/>
     <mergeCell ref="U48:U57"/>
     <mergeCell ref="V48:V57"/>
+    <mergeCell ref="T48:T57"/>
     <mergeCell ref="B47:B57"/>
     <mergeCell ref="L48:L57"/>
     <mergeCell ref="M48:M57"/>
@@ -8270,7 +8394,6 @@
     <mergeCell ref="L59:L68"/>
     <mergeCell ref="M59:M68"/>
     <mergeCell ref="N59:N68"/>
-    <mergeCell ref="T48:T57"/>
     <mergeCell ref="T59:T68"/>
     <mergeCell ref="L69:O69"/>
     <mergeCell ref="L2:Q2"/>
@@ -8286,6 +8409,7 @@
     <mergeCell ref="V59:V68"/>
     <mergeCell ref="W59:W68"/>
     <mergeCell ref="X59:X68"/>
+    <mergeCell ref="P48:P57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8321,14 +8445,14 @@
         <v>21</v>
       </c>
       <c r="C1" s="7"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -8348,44 +8472,44 @@
         <v>22</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="34">
+      <c r="C2" s="36">
         <v>5</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34">
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36">
         <v>20</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34">
+      <c r="G2" s="36"/>
+      <c r="H2" s="36">
         <v>50</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34">
+      <c r="I2" s="36"/>
+      <c r="J2" s="36">
         <v>100</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="33" t="s">
+      <c r="K2" s="36"/>
+      <c r="L2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
       <c r="R2" s="14"/>
-      <c r="S2" s="33" t="s">
+      <c r="S2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="29">
+      <c r="B3" s="31">
         <v>50</v>
       </c>
       <c r="C3" s="18" t="s">
@@ -8455,7 +8579,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="29"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
@@ -8467,59 +8591,59 @@
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="30" t="e">
+      <c r="L4" s="32" t="e">
         <f>AVERAGE(D4:D13,F4:F13,H4:H13,J4:J13)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M4" s="30">
+      <c r="M4" s="32">
         <f>MIN(D4:D13,F4:F13,H4:H13,J4:J13)</f>
         <v>0</v>
       </c>
-      <c r="N4" s="30">
+      <c r="N4" s="32">
         <f>MAX(D4:D13,F4:F13,H4:H13,J4:J13)</f>
         <v>0</v>
       </c>
-      <c r="O4" s="30" t="e">
+      <c r="O4" s="32" t="e">
         <f>MEDIAN(D4:D13,F4:F13,H4:H13,J4:J13)</f>
         <v>#NUM!</v>
       </c>
-      <c r="P4" s="30" t="e">
+      <c r="P4" s="32" t="e">
         <f>VAR(D4:D13,F4:F13,H4:H13,J4:J13)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q4" s="30" t="e">
+      <c r="Q4" s="32" t="e">
         <f>_xlfn.STDEV.S(D4:D13,F4:F13,H4:H13,J4:J13)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R4" s="22"/>
-      <c r="S4" s="30" t="e">
+      <c r="S4" s="32" t="e">
         <f>AVERAGE(E4:E13,G4:G13,I4:I13,K4:K13)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T4" s="30">
+      <c r="T4" s="32">
         <f>MIN(E4:E13,G4:G13,I4:I13,K4:K13)</f>
         <v>0</v>
       </c>
-      <c r="U4" s="30">
+      <c r="U4" s="32">
         <f>MAX(E4:E13,G4:G13,I4:I13,K4:K13)</f>
         <v>0</v>
       </c>
-      <c r="V4" s="30" t="e">
+      <c r="V4" s="32" t="e">
         <f>MEDIAN(E4:E13,G4:G13,I4:I13,K4:K13)</f>
         <v>#NUM!</v>
       </c>
-      <c r="W4" s="30" t="e">
+      <c r="W4" s="32" t="e">
         <f>VAR(E4:E13,G4:G13,I4:I13,K4:K13)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X4" s="30" t="e">
+      <c r="X4" s="32" t="e">
         <f>_xlfn.STDEV.S(E4:E13,G4:G13,I4:I13,K4:K13)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="29"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
@@ -8531,23 +8655,23 @@
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
       <c r="R5" s="22"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="29"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
@@ -8559,23 +8683,23 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
       <c r="R6" s="22"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="29"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
@@ -8587,23 +8711,23 @@
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
       <c r="R7" s="22"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="29"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
@@ -8615,23 +8739,23 @@
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
       <c r="R8" s="22"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="29"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
@@ -8643,23 +8767,23 @@
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
       <c r="R9" s="22"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="29"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="7" t="s">
         <v>15</v>
       </c>
@@ -8671,23 +8795,23 @@
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
       <c r="R10" s="22"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="32"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="29"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
@@ -8699,23 +8823,23 @@
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
       <c r="R11" s="22"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="29"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="7" t="s">
         <v>17</v>
       </c>
@@ -8727,23 +8851,23 @@
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
       <c r="R12" s="22"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="32"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="29"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="7" t="s">
         <v>18</v>
       </c>
@@ -8755,23 +8879,23 @@
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
       <c r="R13" s="22"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="29">
+      <c r="B14" s="31">
         <v>100</v>
       </c>
       <c r="C14" s="18" t="s">
@@ -8841,7 +8965,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="B15" s="29"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="7" t="s">
         <v>9</v>
       </c>
@@ -8853,59 +8977,59 @@
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="30" t="e">
+      <c r="L15" s="32" t="e">
         <f>AVERAGE(D15:D24,F15:F24,H15:H24,J15:J24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M15" s="30">
+      <c r="M15" s="32">
         <f>MIN(D15:D24,F15:F24,H15:H24,J15:J24)</f>
         <v>0</v>
       </c>
-      <c r="N15" s="30">
+      <c r="N15" s="32">
         <f>MAX(D15:D24,F15:F24,H15:H24,J15:J24)</f>
         <v>0</v>
       </c>
-      <c r="O15" s="30" t="e">
+      <c r="O15" s="32" t="e">
         <f>MEDIAN(D15:D24,F15:F24,H15:H24,J15:J24)</f>
         <v>#NUM!</v>
       </c>
-      <c r="P15" s="30" t="e">
+      <c r="P15" s="32" t="e">
         <f>VAR(D15:D24,F15:F24,H15:H24,J15:J24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q15" s="30" t="e">
+      <c r="Q15" s="32" t="e">
         <f>_xlfn.STDEV.S(D15:D24,F15:F24,H15:H24,J15:J24)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R15" s="22"/>
-      <c r="S15" s="30" t="e">
+      <c r="S15" s="32" t="e">
         <f>AVERAGE(E15:E24,G15:G24,I15:I24,K15:K24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T15" s="30">
+      <c r="T15" s="32">
         <f>MIN(E15:E24,G15:G24,I15:I24,K15:K24)</f>
         <v>0</v>
       </c>
-      <c r="U15" s="30">
+      <c r="U15" s="32">
         <f>MAX(E15:E24,G15:G24,I15:I24,K15:K24)</f>
         <v>0</v>
       </c>
-      <c r="V15" s="30" t="e">
+      <c r="V15" s="32" t="e">
         <f>MEDIAN(E15:E24,G15:G24,I15:I24,K15:K24)</f>
         <v>#NUM!</v>
       </c>
-      <c r="W15" s="30" t="e">
+      <c r="W15" s="32" t="e">
         <f>VAR(E15:E24,G15:G24,I15:I24,K15:K24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X15" s="30" t="e">
+      <c r="X15" s="32" t="e">
         <f>_xlfn.STDEV.S(E15:E24,G15:G24,I15:I24,K15:K24)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="29"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="7" t="s">
         <v>10</v>
       </c>
@@ -8917,23 +9041,23 @@
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
       <c r="R16" s="22"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" s="29"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="7" t="s">
         <v>11</v>
       </c>
@@ -8945,23 +9069,23 @@
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
       <c r="R17" s="22"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
-      <c r="B18" s="29"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="7" t="s">
         <v>12</v>
       </c>
@@ -8973,23 +9097,23 @@
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
       <c r="R18" s="22"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
-      <c r="B19" s="29"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="7" t="s">
         <v>13</v>
       </c>
@@ -9001,23 +9125,23 @@
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
       <c r="R19" s="22"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
-      <c r="B20" s="29"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="7" t="s">
         <v>14</v>
       </c>
@@ -9029,23 +9153,23 @@
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
       <c r="R20" s="22"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
-      <c r="B21" s="29"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="7" t="s">
         <v>15</v>
       </c>
@@ -9057,23 +9181,23 @@
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
       <c r="R21" s="22"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
-      <c r="B22" s="29"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="7" t="s">
         <v>16</v>
       </c>
@@ -9085,23 +9209,23 @@
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
       <c r="R22" s="22"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
-      <c r="B23" s="29"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="7" t="s">
         <v>17</v>
       </c>
@@ -9113,23 +9237,23 @@
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
       <c r="R23" s="22"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="32"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
-      <c r="B24" s="29"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="7" t="s">
         <v>18</v>
       </c>
@@ -9141,19 +9265,19 @@
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
       <c r="R24" s="22"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="32"/>
+      <c r="X24" s="32"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
@@ -9225,7 +9349,7 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
-      <c r="B26" s="29">
+      <c r="B26" s="31">
         <v>250</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -9239,59 +9363,59 @@
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
-      <c r="L26" s="30" t="e">
+      <c r="L26" s="32" t="e">
         <f>AVERAGE(D26:D35,F26:F35,H26:H35,J26:J35)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M26" s="30">
+      <c r="M26" s="32">
         <f>MIN(D26:D35,F26:F35,H26:H35,J26:J35)</f>
         <v>0</v>
       </c>
-      <c r="N26" s="30">
+      <c r="N26" s="32">
         <f>MAX(D26:D35,F26:F35,H26:H35,J26:J35)</f>
         <v>0</v>
       </c>
-      <c r="O26" s="30" t="e">
+      <c r="O26" s="32" t="e">
         <f>MEDIAN(D26:D35,F26:F35,H26:H35,J26:J35)</f>
         <v>#NUM!</v>
       </c>
-      <c r="P26" s="30" t="e">
+      <c r="P26" s="32" t="e">
         <f>VAR(D26:D35,F26:F35,H26:H35,J26:J35)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q26" s="30" t="e">
+      <c r="Q26" s="32" t="e">
         <f>_xlfn.STDEV.S(D26:D35,F26:F35,H26:H35,J26:J35)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R26" s="22"/>
-      <c r="S26" s="30" t="e">
+      <c r="S26" s="32" t="e">
         <f>AVERAGE(E26:E35,G26:G35,I26:I35,K26:K35)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T26" s="30">
+      <c r="T26" s="32">
         <f>MIN(E26:E35,G26:G35,I26:I35,K26:K35)</f>
         <v>0</v>
       </c>
-      <c r="U26" s="30">
+      <c r="U26" s="32">
         <f>MAX(E26:E35,G26:G35,I26:I35,K26:K35)</f>
         <v>0</v>
       </c>
-      <c r="V26" s="30" t="e">
+      <c r="V26" s="32" t="e">
         <f>MEDIAN(E26:E35,G26:G35,I26:I35,K26:K35)</f>
         <v>#NUM!</v>
       </c>
-      <c r="W26" s="30" t="e">
+      <c r="W26" s="32" t="e">
         <f>VAR(E26:E35,G26:G35,I26:I35,K26:K35)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X26" s="30" t="e">
+      <c r="X26" s="32" t="e">
         <f>_xlfn.STDEV.S(E26:E35,G26:G35,I26:I35,K26:K35)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
-      <c r="B27" s="29"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="7" t="s">
         <v>10</v>
       </c>
@@ -9303,23 +9427,23 @@
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
       <c r="R27" s="22"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="30"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="32"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
-      <c r="B28" s="29"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="7" t="s">
         <v>11</v>
       </c>
@@ -9331,23 +9455,23 @@
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
       <c r="R28" s="22"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="32"/>
+      <c r="X28" s="32"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
-      <c r="B29" s="29"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="7" t="s">
         <v>12</v>
       </c>
@@ -9359,23 +9483,23 @@
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
       <c r="R29" s="22"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="30"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="32"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="32"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
-      <c r="B30" s="29"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="7" t="s">
         <v>13</v>
       </c>
@@ -9387,23 +9511,23 @@
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
       <c r="R30" s="22"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="30"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="32"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
-      <c r="B31" s="29"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="7" t="s">
         <v>14</v>
       </c>
@@ -9415,23 +9539,23 @@
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
       <c r="R31" s="22"/>
-      <c r="S31" s="30"/>
-      <c r="T31" s="30"/>
-      <c r="U31" s="30"/>
-      <c r="V31" s="30"/>
-      <c r="W31" s="30"/>
-      <c r="X31" s="30"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="32"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
-      <c r="B32" s="29"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="7" t="s">
         <v>15</v>
       </c>
@@ -9443,23 +9567,23 @@
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
       <c r="R32" s="22"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="30"/>
-      <c r="U32" s="30"/>
-      <c r="V32" s="30"/>
-      <c r="W32" s="30"/>
-      <c r="X32" s="30"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="32"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
-      <c r="B33" s="29"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="7" t="s">
         <v>16</v>
       </c>
@@ -9471,23 +9595,23 @@
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
       <c r="R33" s="22"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="30"/>
-      <c r="V33" s="30"/>
-      <c r="W33" s="30"/>
-      <c r="X33" s="30"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="32"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
-      <c r="B34" s="29"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="7" t="s">
         <v>17</v>
       </c>
@@ -9499,23 +9623,23 @@
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
       <c r="R34" s="22"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="30"/>
-      <c r="U34" s="30"/>
-      <c r="V34" s="30"/>
-      <c r="W34" s="30"/>
-      <c r="X34" s="30"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="32"/>
+      <c r="X34" s="32"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
-      <c r="B35" s="29"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="7" t="s">
         <v>18</v>
       </c>
@@ -9527,23 +9651,23 @@
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="32"/>
       <c r="R35" s="22"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="30"/>
-      <c r="U35" s="30"/>
-      <c r="V35" s="30"/>
-      <c r="W35" s="30"/>
-      <c r="X35" s="30"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="32"/>
+      <c r="U35" s="32"/>
+      <c r="V35" s="32"/>
+      <c r="W35" s="32"/>
+      <c r="X35" s="32"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
-      <c r="B36" s="29">
+      <c r="B36" s="31">
         <v>500</v>
       </c>
       <c r="C36" s="18" t="s">
@@ -9613,7 +9737,7 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
-      <c r="B37" s="29"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="7" t="s">
         <v>9</v>
       </c>
@@ -9625,59 +9749,59 @@
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
-      <c r="L37" s="30" t="e">
+      <c r="L37" s="32" t="e">
         <f>AVERAGE(D37:D46,F37:F46,H37:H46,J37:J46)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M37" s="30">
+      <c r="M37" s="32">
         <f>MIN(D37:D46,F37:F46,H37:H46,J37:J46)</f>
         <v>0</v>
       </c>
-      <c r="N37" s="30">
+      <c r="N37" s="32">
         <f>MAX(D37:D46,F37:F46,H37:H46,J37:J46)</f>
         <v>0</v>
       </c>
-      <c r="O37" s="30" t="e">
+      <c r="O37" s="32" t="e">
         <f>MEDIAN(D37:D46,F37:F46,H37:H46,J37:J46)</f>
         <v>#NUM!</v>
       </c>
-      <c r="P37" s="30" t="e">
+      <c r="P37" s="32" t="e">
         <f>VAR(D37:D46,F37:F46,H37:H46,J37:J46)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q37" s="30" t="e">
+      <c r="Q37" s="32" t="e">
         <f>_xlfn.STDEV.S(D37:D46,F37:F46,H37:H46,J37:J46)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R37" s="22"/>
-      <c r="S37" s="30" t="e">
+      <c r="S37" s="32" t="e">
         <f>AVERAGE(E37:E46,G37:G46,I37:I46,K37:K46)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T37" s="30">
+      <c r="T37" s="32">
         <f>MIN(E37:E46,G37:G46,I37:I46,K37:K46)</f>
         <v>0</v>
       </c>
-      <c r="U37" s="30">
+      <c r="U37" s="32">
         <f>MAX(E37:E46,G37:G46,I37:I46,K37:K46)</f>
         <v>0</v>
       </c>
-      <c r="V37" s="30" t="e">
+      <c r="V37" s="32" t="e">
         <f>MEDIAN(E37:E46,G37:G46,I37:I46,K37:K46)</f>
         <v>#NUM!</v>
       </c>
-      <c r="W37" s="30" t="e">
+      <c r="W37" s="32" t="e">
         <f>VAR(E37:E46,G37:G46,I37:I46,K37:K46)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X37" s="30" t="e">
+      <c r="X37" s="32" t="e">
         <f>_xlfn.STDEV.S(E37:E46,G37:G46,I37:I46,K37:K46)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
-      <c r="B38" s="29"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="7" t="s">
         <v>10</v>
       </c>
@@ -9689,23 +9813,23 @@
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="32"/>
       <c r="R38" s="22"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="30"/>
-      <c r="U38" s="30"/>
-      <c r="V38" s="30"/>
-      <c r="W38" s="30"/>
-      <c r="X38" s="30"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="32"/>
+      <c r="U38" s="32"/>
+      <c r="V38" s="32"/>
+      <c r="W38" s="32"/>
+      <c r="X38" s="32"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
-      <c r="B39" s="29"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="7" t="s">
         <v>11</v>
       </c>
@@ -9717,23 +9841,23 @@
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="32"/>
       <c r="R39" s="22"/>
-      <c r="S39" s="30"/>
-      <c r="T39" s="30"/>
-      <c r="U39" s="30"/>
-      <c r="V39" s="30"/>
-      <c r="W39" s="30"/>
-      <c r="X39" s="30"/>
+      <c r="S39" s="32"/>
+      <c r="T39" s="32"/>
+      <c r="U39" s="32"/>
+      <c r="V39" s="32"/>
+      <c r="W39" s="32"/>
+      <c r="X39" s="32"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
-      <c r="B40" s="29"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="7" t="s">
         <v>12</v>
       </c>
@@ -9745,23 +9869,23 @@
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="32"/>
       <c r="R40" s="22"/>
-      <c r="S40" s="30"/>
-      <c r="T40" s="30"/>
-      <c r="U40" s="30"/>
-      <c r="V40" s="30"/>
-      <c r="W40" s="30"/>
-      <c r="X40" s="30"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="32"/>
+      <c r="U40" s="32"/>
+      <c r="V40" s="32"/>
+      <c r="W40" s="32"/>
+      <c r="X40" s="32"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
-      <c r="B41" s="29"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="7" t="s">
         <v>13</v>
       </c>
@@ -9773,23 +9897,23 @@
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="32"/>
       <c r="R41" s="22"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="30"/>
-      <c r="U41" s="30"/>
-      <c r="V41" s="30"/>
-      <c r="W41" s="30"/>
-      <c r="X41" s="30"/>
+      <c r="S41" s="32"/>
+      <c r="T41" s="32"/>
+      <c r="U41" s="32"/>
+      <c r="V41" s="32"/>
+      <c r="W41" s="32"/>
+      <c r="X41" s="32"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
-      <c r="B42" s="29"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="7" t="s">
         <v>14</v>
       </c>
@@ -9801,23 +9925,23 @@
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="32"/>
+      <c r="Q42" s="32"/>
       <c r="R42" s="22"/>
-      <c r="S42" s="30"/>
-      <c r="T42" s="30"/>
-      <c r="U42" s="30"/>
-      <c r="V42" s="30"/>
-      <c r="W42" s="30"/>
-      <c r="X42" s="30"/>
+      <c r="S42" s="32"/>
+      <c r="T42" s="32"/>
+      <c r="U42" s="32"/>
+      <c r="V42" s="32"/>
+      <c r="W42" s="32"/>
+      <c r="X42" s="32"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
-      <c r="B43" s="29"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="7" t="s">
         <v>15</v>
       </c>
@@ -9829,23 +9953,23 @@
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="32"/>
+      <c r="P43" s="32"/>
+      <c r="Q43" s="32"/>
       <c r="R43" s="22"/>
-      <c r="S43" s="30"/>
-      <c r="T43" s="30"/>
-      <c r="U43" s="30"/>
-      <c r="V43" s="30"/>
-      <c r="W43" s="30"/>
-      <c r="X43" s="30"/>
+      <c r="S43" s="32"/>
+      <c r="T43" s="32"/>
+      <c r="U43" s="32"/>
+      <c r="V43" s="32"/>
+      <c r="W43" s="32"/>
+      <c r="X43" s="32"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
-      <c r="B44" s="29"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="7" t="s">
         <v>16</v>
       </c>
@@ -9857,23 +9981,23 @@
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="30"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="32"/>
+      <c r="Q44" s="32"/>
       <c r="R44" s="22"/>
-      <c r="S44" s="30"/>
-      <c r="T44" s="30"/>
-      <c r="U44" s="30"/>
-      <c r="V44" s="30"/>
-      <c r="W44" s="30"/>
-      <c r="X44" s="30"/>
+      <c r="S44" s="32"/>
+      <c r="T44" s="32"/>
+      <c r="U44" s="32"/>
+      <c r="V44" s="32"/>
+      <c r="W44" s="32"/>
+      <c r="X44" s="32"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
-      <c r="B45" s="29"/>
+      <c r="B45" s="31"/>
       <c r="C45" s="7" t="s">
         <v>17</v>
       </c>
@@ -9885,23 +10009,23 @@
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="30"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="32"/>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="32"/>
       <c r="R45" s="22"/>
-      <c r="S45" s="30"/>
-      <c r="T45" s="30"/>
-      <c r="U45" s="30"/>
-      <c r="V45" s="30"/>
-      <c r="W45" s="30"/>
-      <c r="X45" s="30"/>
+      <c r="S45" s="32"/>
+      <c r="T45" s="32"/>
+      <c r="U45" s="32"/>
+      <c r="V45" s="32"/>
+      <c r="W45" s="32"/>
+      <c r="X45" s="32"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
-      <c r="B46" s="29"/>
+      <c r="B46" s="31"/>
       <c r="C46" s="21" t="s">
         <v>18</v>
       </c>
@@ -9913,23 +10037,23 @@
       <c r="I46" s="20"/>
       <c r="J46" s="20"/>
       <c r="K46" s="20"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="30"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="30"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="32"/>
+      <c r="P46" s="32"/>
+      <c r="Q46" s="32"/>
       <c r="R46" s="22"/>
-      <c r="S46" s="30"/>
-      <c r="T46" s="30"/>
-      <c r="U46" s="30"/>
-      <c r="V46" s="30"/>
-      <c r="W46" s="30"/>
-      <c r="X46" s="30"/>
+      <c r="S46" s="32"/>
+      <c r="T46" s="32"/>
+      <c r="U46" s="32"/>
+      <c r="V46" s="32"/>
+      <c r="W46" s="32"/>
+      <c r="X46" s="32"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
-      <c r="B47" s="29">
+      <c r="B47" s="31">
         <v>750</v>
       </c>
       <c r="C47" s="18" t="s">
@@ -9999,7 +10123,7 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
-      <c r="B48" s="29"/>
+      <c r="B48" s="31"/>
       <c r="C48" s="7" t="s">
         <v>9</v>
       </c>
@@ -10011,59 +10135,59 @@
       <c r="I48" s="20"/>
       <c r="J48" s="20"/>
       <c r="K48" s="20"/>
-      <c r="L48" s="30" t="e">
+      <c r="L48" s="32" t="e">
         <f>AVERAGE(D48:D57,F48:F57,H48:H57,J48:J57)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M48" s="30">
+      <c r="M48" s="32">
         <f>MIN(D48:D57,F48:F57,H48:H57,J48:J57)</f>
         <v>0</v>
       </c>
-      <c r="N48" s="30">
+      <c r="N48" s="32">
         <f>MAX(D48:D57,F48:F57,H48:H57,J48:J57)</f>
         <v>0</v>
       </c>
-      <c r="O48" s="30" t="e">
+      <c r="O48" s="32" t="e">
         <f>MEDIAN(D48:D57,F48:F57,H48:H57,J48:J57)</f>
         <v>#NUM!</v>
       </c>
-      <c r="P48" s="30" t="e">
+      <c r="P48" s="32" t="e">
         <f>VAR(D48:D57,F48:F57,H48:H57,J48:J57)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q48" s="30" t="e">
+      <c r="Q48" s="32" t="e">
         <f>_xlfn.STDEV.S(D48:D57,F48:F57,H48:H57,J48:J57)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R48" s="22"/>
-      <c r="S48" s="30" t="e">
+      <c r="S48" s="32" t="e">
         <f>AVERAGE(E48:E57,G48:G57,I48:I57,K48:K57)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T48" s="30">
+      <c r="T48" s="32">
         <f>MIN(E48:E57,G48:G57,I48:I57,K48:K57)</f>
         <v>0</v>
       </c>
-      <c r="U48" s="30">
+      <c r="U48" s="32">
         <f>MAX(E48:E57,G48:G57,I48:I57,K48:K57)</f>
         <v>0</v>
       </c>
-      <c r="V48" s="30" t="e">
+      <c r="V48" s="32" t="e">
         <f>MEDIAN(E48:E57,G48:G57,I48:I57,K48:K57)</f>
         <v>#NUM!</v>
       </c>
-      <c r="W48" s="30" t="e">
+      <c r="W48" s="32" t="e">
         <f>VAR(E48:E57,G48:G57,I48:I57,K48:K57)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X48" s="30" t="e">
+      <c r="X48" s="32" t="e">
         <f>_xlfn.STDEV.S(E48:E57,G48:G57,I48:I57,K48:K57)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
-      <c r="B49" s="29"/>
+      <c r="B49" s="31"/>
       <c r="C49" s="7" t="s">
         <v>10</v>
       </c>
@@ -10075,23 +10199,23 @@
       <c r="I49" s="20"/>
       <c r="J49" s="20"/>
       <c r="K49" s="20"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="30"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="30"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="32"/>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="32"/>
       <c r="R49" s="22"/>
-      <c r="S49" s="30"/>
-      <c r="T49" s="30"/>
-      <c r="U49" s="30"/>
-      <c r="V49" s="30"/>
-      <c r="W49" s="30"/>
-      <c r="X49" s="30"/>
+      <c r="S49" s="32"/>
+      <c r="T49" s="32"/>
+      <c r="U49" s="32"/>
+      <c r="V49" s="32"/>
+      <c r="W49" s="32"/>
+      <c r="X49" s="32"/>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
-      <c r="B50" s="29"/>
+      <c r="B50" s="31"/>
       <c r="C50" s="7" t="s">
         <v>11</v>
       </c>
@@ -10103,23 +10227,23 @@
       <c r="I50" s="20"/>
       <c r="J50" s="20"/>
       <c r="K50" s="20"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="30"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="32"/>
       <c r="R50" s="22"/>
-      <c r="S50" s="30"/>
-      <c r="T50" s="30"/>
-      <c r="U50" s="30"/>
-      <c r="V50" s="30"/>
-      <c r="W50" s="30"/>
-      <c r="X50" s="30"/>
+      <c r="S50" s="32"/>
+      <c r="T50" s="32"/>
+      <c r="U50" s="32"/>
+      <c r="V50" s="32"/>
+      <c r="W50" s="32"/>
+      <c r="X50" s="32"/>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
-      <c r="B51" s="29"/>
+      <c r="B51" s="31"/>
       <c r="C51" s="7" t="s">
         <v>12</v>
       </c>
@@ -10131,23 +10255,23 @@
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
       <c r="K51" s="20"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="30"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="32"/>
+      <c r="O51" s="32"/>
+      <c r="P51" s="32"/>
+      <c r="Q51" s="32"/>
       <c r="R51" s="22"/>
-      <c r="S51" s="30"/>
-      <c r="T51" s="30"/>
-      <c r="U51" s="30"/>
-      <c r="V51" s="30"/>
-      <c r="W51" s="30"/>
-      <c r="X51" s="30"/>
+      <c r="S51" s="32"/>
+      <c r="T51" s="32"/>
+      <c r="U51" s="32"/>
+      <c r="V51" s="32"/>
+      <c r="W51" s="32"/>
+      <c r="X51" s="32"/>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
-      <c r="B52" s="29"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="7" t="s">
         <v>13</v>
       </c>
@@ -10159,23 +10283,23 @@
       <c r="I52" s="20"/>
       <c r="J52" s="20"/>
       <c r="K52" s="20"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="30"/>
-      <c r="N52" s="30"/>
-      <c r="O52" s="30"/>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="30"/>
+      <c r="L52" s="32"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="32"/>
+      <c r="Q52" s="32"/>
       <c r="R52" s="22"/>
-      <c r="S52" s="30"/>
-      <c r="T52" s="30"/>
-      <c r="U52" s="30"/>
-      <c r="V52" s="30"/>
-      <c r="W52" s="30"/>
-      <c r="X52" s="30"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="32"/>
+      <c r="U52" s="32"/>
+      <c r="V52" s="32"/>
+      <c r="W52" s="32"/>
+      <c r="X52" s="32"/>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
-      <c r="B53" s="29"/>
+      <c r="B53" s="31"/>
       <c r="C53" s="7" t="s">
         <v>14</v>
       </c>
@@ -10187,23 +10311,23 @@
       <c r="I53" s="20"/>
       <c r="J53" s="20"/>
       <c r="K53" s="20"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="30"/>
-      <c r="N53" s="30"/>
-      <c r="O53" s="30"/>
-      <c r="P53" s="30"/>
-      <c r="Q53" s="30"/>
+      <c r="L53" s="32"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="32"/>
+      <c r="O53" s="32"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="32"/>
       <c r="R53" s="22"/>
-      <c r="S53" s="30"/>
-      <c r="T53" s="30"/>
-      <c r="U53" s="30"/>
-      <c r="V53" s="30"/>
-      <c r="W53" s="30"/>
-      <c r="X53" s="30"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="32"/>
+      <c r="U53" s="32"/>
+      <c r="V53" s="32"/>
+      <c r="W53" s="32"/>
+      <c r="X53" s="32"/>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
-      <c r="B54" s="29"/>
+      <c r="B54" s="31"/>
       <c r="C54" s="7" t="s">
         <v>15</v>
       </c>
@@ -10215,23 +10339,23 @@
       <c r="I54" s="20"/>
       <c r="J54" s="20"/>
       <c r="K54" s="20"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="30"/>
-      <c r="N54" s="30"/>
-      <c r="O54" s="30"/>
-      <c r="P54" s="30"/>
-      <c r="Q54" s="30"/>
+      <c r="L54" s="32"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="32"/>
+      <c r="O54" s="32"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="32"/>
       <c r="R54" s="22"/>
-      <c r="S54" s="30"/>
-      <c r="T54" s="30"/>
-      <c r="U54" s="30"/>
-      <c r="V54" s="30"/>
-      <c r="W54" s="30"/>
-      <c r="X54" s="30"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="32"/>
+      <c r="U54" s="32"/>
+      <c r="V54" s="32"/>
+      <c r="W54" s="32"/>
+      <c r="X54" s="32"/>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
-      <c r="B55" s="29"/>
+      <c r="B55" s="31"/>
       <c r="C55" s="7" t="s">
         <v>16</v>
       </c>
@@ -10243,23 +10367,23 @@
       <c r="I55" s="20"/>
       <c r="J55" s="20"/>
       <c r="K55" s="20"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="30"/>
-      <c r="P55" s="30"/>
-      <c r="Q55" s="30"/>
+      <c r="L55" s="32"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="32"/>
+      <c r="O55" s="32"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="32"/>
       <c r="R55" s="22"/>
-      <c r="S55" s="30"/>
-      <c r="T55" s="30"/>
-      <c r="U55" s="30"/>
-      <c r="V55" s="30"/>
-      <c r="W55" s="30"/>
-      <c r="X55" s="30"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="32"/>
+      <c r="U55" s="32"/>
+      <c r="V55" s="32"/>
+      <c r="W55" s="32"/>
+      <c r="X55" s="32"/>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
-      <c r="B56" s="29"/>
+      <c r="B56" s="31"/>
       <c r="C56" s="7" t="s">
         <v>17</v>
       </c>
@@ -10271,23 +10395,23 @@
       <c r="I56" s="20"/>
       <c r="J56" s="20"/>
       <c r="K56" s="20"/>
-      <c r="L56" s="30"/>
-      <c r="M56" s="30"/>
-      <c r="N56" s="30"/>
-      <c r="O56" s="30"/>
-      <c r="P56" s="30"/>
-      <c r="Q56" s="30"/>
+      <c r="L56" s="32"/>
+      <c r="M56" s="32"/>
+      <c r="N56" s="32"/>
+      <c r="O56" s="32"/>
+      <c r="P56" s="32"/>
+      <c r="Q56" s="32"/>
       <c r="R56" s="22"/>
-      <c r="S56" s="30"/>
-      <c r="T56" s="30"/>
-      <c r="U56" s="30"/>
-      <c r="V56" s="30"/>
-      <c r="W56" s="30"/>
-      <c r="X56" s="30"/>
+      <c r="S56" s="32"/>
+      <c r="T56" s="32"/>
+      <c r="U56" s="32"/>
+      <c r="V56" s="32"/>
+      <c r="W56" s="32"/>
+      <c r="X56" s="32"/>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
-      <c r="B57" s="29"/>
+      <c r="B57" s="31"/>
       <c r="C57" s="21" t="s">
         <v>18</v>
       </c>
@@ -10299,23 +10423,23 @@
       <c r="I57" s="20"/>
       <c r="J57" s="20"/>
       <c r="K57" s="20"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="30"/>
-      <c r="N57" s="30"/>
-      <c r="O57" s="30"/>
-      <c r="P57" s="30"/>
-      <c r="Q57" s="30"/>
+      <c r="L57" s="32"/>
+      <c r="M57" s="32"/>
+      <c r="N57" s="32"/>
+      <c r="O57" s="32"/>
+      <c r="P57" s="32"/>
+      <c r="Q57" s="32"/>
       <c r="R57" s="22"/>
-      <c r="S57" s="30"/>
-      <c r="T57" s="30"/>
-      <c r="U57" s="30"/>
-      <c r="V57" s="30"/>
-      <c r="W57" s="30"/>
-      <c r="X57" s="30"/>
+      <c r="S57" s="32"/>
+      <c r="T57" s="32"/>
+      <c r="U57" s="32"/>
+      <c r="V57" s="32"/>
+      <c r="W57" s="32"/>
+      <c r="X57" s="32"/>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
-      <c r="B58" s="29">
+      <c r="B58" s="31">
         <v>1000</v>
       </c>
       <c r="C58" s="18" t="s">
@@ -10385,7 +10509,7 @@
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
-      <c r="B59" s="29"/>
+      <c r="B59" s="31"/>
       <c r="C59" s="7" t="s">
         <v>9</v>
       </c>
@@ -10397,59 +10521,59 @@
       <c r="I59" s="20"/>
       <c r="J59" s="20"/>
       <c r="K59" s="20"/>
-      <c r="L59" s="30" t="e">
+      <c r="L59" s="32" t="e">
         <f>AVERAGE(D59:D68,F59:F68,H59:H68,J59:J68)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M59" s="30">
+      <c r="M59" s="32">
         <f>MIN(D59:D68,F59:F68,H59:H68,J59:J68)</f>
         <v>0</v>
       </c>
-      <c r="N59" s="30">
+      <c r="N59" s="32">
         <f>MAX(D59:D68,F59:F68,H59:H68,J59:J68)</f>
         <v>0</v>
       </c>
-      <c r="O59" s="30" t="e">
+      <c r="O59" s="32" t="e">
         <f>MEDIAN(D59:D68,F59:F68,H59:H68,J59:J68)</f>
         <v>#NUM!</v>
       </c>
-      <c r="P59" s="30" t="e">
+      <c r="P59" s="32" t="e">
         <f>VAR(D59:D68,F59:F68,H59:H68,J59:J68)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q59" s="30" t="e">
+      <c r="Q59" s="32" t="e">
         <f>_xlfn.STDEV.S(D59:D68,F59:F68,H59:H68,J59:J68)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R59" s="22"/>
-      <c r="S59" s="30" t="e">
+      <c r="S59" s="32" t="e">
         <f>AVERAGE(E59:E68,G59:G68,I59:I68,K59:K68)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T59" s="30">
+      <c r="T59" s="32">
         <f>MIN(E59:E68,G59:G68,I59:I68,K59:K68)</f>
         <v>0</v>
       </c>
-      <c r="U59" s="30">
+      <c r="U59" s="32">
         <f>MAX(E59:E68,G59:G68,I59:I68,K59:K68)</f>
         <v>0</v>
       </c>
-      <c r="V59" s="30" t="e">
+      <c r="V59" s="32" t="e">
         <f>MEDIAN(E59:E68,G59:G68,I59:I68,K59:K68)</f>
         <v>#NUM!</v>
       </c>
-      <c r="W59" s="30" t="e">
+      <c r="W59" s="32" t="e">
         <f>VAR(E59:E68,G59:G68,I59:I68,K59:K68)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X59" s="30" t="e">
+      <c r="X59" s="32" t="e">
         <f>_xlfn.STDEV.S(E59:E68,G59:G68,I59:I68,K59:K68)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
-      <c r="B60" s="29"/>
+      <c r="B60" s="31"/>
       <c r="C60" s="7" t="s">
         <v>10</v>
       </c>
@@ -10461,23 +10585,23 @@
       <c r="I60" s="20"/>
       <c r="J60" s="20"/>
       <c r="K60" s="20"/>
-      <c r="L60" s="30"/>
-      <c r="M60" s="30"/>
-      <c r="N60" s="30"/>
-      <c r="O60" s="30"/>
-      <c r="P60" s="30"/>
-      <c r="Q60" s="30"/>
+      <c r="L60" s="32"/>
+      <c r="M60" s="32"/>
+      <c r="N60" s="32"/>
+      <c r="O60" s="32"/>
+      <c r="P60" s="32"/>
+      <c r="Q60" s="32"/>
       <c r="R60" s="22"/>
-      <c r="S60" s="30"/>
-      <c r="T60" s="30"/>
-      <c r="U60" s="30"/>
-      <c r="V60" s="30"/>
-      <c r="W60" s="30"/>
-      <c r="X60" s="30"/>
+      <c r="S60" s="32"/>
+      <c r="T60" s="32"/>
+      <c r="U60" s="32"/>
+      <c r="V60" s="32"/>
+      <c r="W60" s="32"/>
+      <c r="X60" s="32"/>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
-      <c r="B61" s="29"/>
+      <c r="B61" s="31"/>
       <c r="C61" s="7" t="s">
         <v>11</v>
       </c>
@@ -10489,23 +10613,23 @@
       <c r="I61" s="20"/>
       <c r="J61" s="20"/>
       <c r="K61" s="20"/>
-      <c r="L61" s="30"/>
-      <c r="M61" s="30"/>
-      <c r="N61" s="30"/>
-      <c r="O61" s="30"/>
-      <c r="P61" s="30"/>
-      <c r="Q61" s="30"/>
+      <c r="L61" s="32"/>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="32"/>
+      <c r="P61" s="32"/>
+      <c r="Q61" s="32"/>
       <c r="R61" s="22"/>
-      <c r="S61" s="30"/>
-      <c r="T61" s="30"/>
-      <c r="U61" s="30"/>
-      <c r="V61" s="30"/>
-      <c r="W61" s="30"/>
-      <c r="X61" s="30"/>
+      <c r="S61" s="32"/>
+      <c r="T61" s="32"/>
+      <c r="U61" s="32"/>
+      <c r="V61" s="32"/>
+      <c r="W61" s="32"/>
+      <c r="X61" s="32"/>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
-      <c r="B62" s="29"/>
+      <c r="B62" s="31"/>
       <c r="C62" s="7" t="s">
         <v>12</v>
       </c>
@@ -10517,23 +10641,23 @@
       <c r="I62" s="20"/>
       <c r="J62" s="20"/>
       <c r="K62" s="20"/>
-      <c r="L62" s="30"/>
-      <c r="M62" s="30"/>
-      <c r="N62" s="30"/>
-      <c r="O62" s="30"/>
-      <c r="P62" s="30"/>
-      <c r="Q62" s="30"/>
+      <c r="L62" s="32"/>
+      <c r="M62" s="32"/>
+      <c r="N62" s="32"/>
+      <c r="O62" s="32"/>
+      <c r="P62" s="32"/>
+      <c r="Q62" s="32"/>
       <c r="R62" s="22"/>
-      <c r="S62" s="30"/>
-      <c r="T62" s="30"/>
-      <c r="U62" s="30"/>
-      <c r="V62" s="30"/>
-      <c r="W62" s="30"/>
-      <c r="X62" s="30"/>
+      <c r="S62" s="32"/>
+      <c r="T62" s="32"/>
+      <c r="U62" s="32"/>
+      <c r="V62" s="32"/>
+      <c r="W62" s="32"/>
+      <c r="X62" s="32"/>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
-      <c r="B63" s="29"/>
+      <c r="B63" s="31"/>
       <c r="C63" s="7" t="s">
         <v>13</v>
       </c>
@@ -10545,23 +10669,23 @@
       <c r="I63" s="20"/>
       <c r="J63" s="20"/>
       <c r="K63" s="20"/>
-      <c r="L63" s="30"/>
-      <c r="M63" s="30"/>
-      <c r="N63" s="30"/>
-      <c r="O63" s="30"/>
-      <c r="P63" s="30"/>
-      <c r="Q63" s="30"/>
+      <c r="L63" s="32"/>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="32"/>
+      <c r="Q63" s="32"/>
       <c r="R63" s="22"/>
-      <c r="S63" s="30"/>
-      <c r="T63" s="30"/>
-      <c r="U63" s="30"/>
-      <c r="V63" s="30"/>
-      <c r="W63" s="30"/>
-      <c r="X63" s="30"/>
+      <c r="S63" s="32"/>
+      <c r="T63" s="32"/>
+      <c r="U63" s="32"/>
+      <c r="V63" s="32"/>
+      <c r="W63" s="32"/>
+      <c r="X63" s="32"/>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
-      <c r="B64" s="29"/>
+      <c r="B64" s="31"/>
       <c r="C64" s="7" t="s">
         <v>14</v>
       </c>
@@ -10573,23 +10697,23 @@
       <c r="I64" s="20"/>
       <c r="J64" s="20"/>
       <c r="K64" s="20"/>
-      <c r="L64" s="30"/>
-      <c r="M64" s="30"/>
-      <c r="N64" s="30"/>
-      <c r="O64" s="30"/>
-      <c r="P64" s="30"/>
-      <c r="Q64" s="30"/>
+      <c r="L64" s="32"/>
+      <c r="M64" s="32"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="32"/>
+      <c r="P64" s="32"/>
+      <c r="Q64" s="32"/>
       <c r="R64" s="22"/>
-      <c r="S64" s="30"/>
-      <c r="T64" s="30"/>
-      <c r="U64" s="30"/>
-      <c r="V64" s="30"/>
-      <c r="W64" s="30"/>
-      <c r="X64" s="30"/>
+      <c r="S64" s="32"/>
+      <c r="T64" s="32"/>
+      <c r="U64" s="32"/>
+      <c r="V64" s="32"/>
+      <c r="W64" s="32"/>
+      <c r="X64" s="32"/>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
-      <c r="B65" s="29"/>
+      <c r="B65" s="31"/>
       <c r="C65" s="7" t="s">
         <v>15</v>
       </c>
@@ -10601,23 +10725,23 @@
       <c r="I65" s="20"/>
       <c r="J65" s="20"/>
       <c r="K65" s="20"/>
-      <c r="L65" s="30"/>
-      <c r="M65" s="30"/>
-      <c r="N65" s="30"/>
-      <c r="O65" s="30"/>
-      <c r="P65" s="30"/>
-      <c r="Q65" s="30"/>
+      <c r="L65" s="32"/>
+      <c r="M65" s="32"/>
+      <c r="N65" s="32"/>
+      <c r="O65" s="32"/>
+      <c r="P65" s="32"/>
+      <c r="Q65" s="32"/>
       <c r="R65" s="22"/>
-      <c r="S65" s="30"/>
-      <c r="T65" s="30"/>
-      <c r="U65" s="30"/>
-      <c r="V65" s="30"/>
-      <c r="W65" s="30"/>
-      <c r="X65" s="30"/>
+      <c r="S65" s="32"/>
+      <c r="T65" s="32"/>
+      <c r="U65" s="32"/>
+      <c r="V65" s="32"/>
+      <c r="W65" s="32"/>
+      <c r="X65" s="32"/>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
-      <c r="B66" s="29"/>
+      <c r="B66" s="31"/>
       <c r="C66" s="7" t="s">
         <v>16</v>
       </c>
@@ -10629,23 +10753,23 @@
       <c r="I66" s="20"/>
       <c r="J66" s="20"/>
       <c r="K66" s="20"/>
-      <c r="L66" s="30"/>
-      <c r="M66" s="30"/>
-      <c r="N66" s="30"/>
-      <c r="O66" s="30"/>
-      <c r="P66" s="30"/>
-      <c r="Q66" s="30"/>
+      <c r="L66" s="32"/>
+      <c r="M66" s="32"/>
+      <c r="N66" s="32"/>
+      <c r="O66" s="32"/>
+      <c r="P66" s="32"/>
+      <c r="Q66" s="32"/>
       <c r="R66" s="22"/>
-      <c r="S66" s="30"/>
-      <c r="T66" s="30"/>
-      <c r="U66" s="30"/>
-      <c r="V66" s="30"/>
-      <c r="W66" s="30"/>
-      <c r="X66" s="30"/>
+      <c r="S66" s="32"/>
+      <c r="T66" s="32"/>
+      <c r="U66" s="32"/>
+      <c r="V66" s="32"/>
+      <c r="W66" s="32"/>
+      <c r="X66" s="32"/>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
-      <c r="B67" s="29"/>
+      <c r="B67" s="31"/>
       <c r="C67" s="7" t="s">
         <v>17</v>
       </c>
@@ -10657,23 +10781,23 @@
       <c r="I67" s="20"/>
       <c r="J67" s="20"/>
       <c r="K67" s="20"/>
-      <c r="L67" s="30"/>
-      <c r="M67" s="30"/>
-      <c r="N67" s="30"/>
-      <c r="O67" s="30"/>
-      <c r="P67" s="30"/>
-      <c r="Q67" s="30"/>
+      <c r="L67" s="32"/>
+      <c r="M67" s="32"/>
+      <c r="N67" s="32"/>
+      <c r="O67" s="32"/>
+      <c r="P67" s="32"/>
+      <c r="Q67" s="32"/>
       <c r="R67" s="22"/>
-      <c r="S67" s="30"/>
-      <c r="T67" s="30"/>
-      <c r="U67" s="30"/>
-      <c r="V67" s="30"/>
-      <c r="W67" s="30"/>
-      <c r="X67" s="30"/>
+      <c r="S67" s="32"/>
+      <c r="T67" s="32"/>
+      <c r="U67" s="32"/>
+      <c r="V67" s="32"/>
+      <c r="W67" s="32"/>
+      <c r="X67" s="32"/>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
-      <c r="B68" s="29"/>
+      <c r="B68" s="31"/>
       <c r="C68" s="21" t="s">
         <v>18</v>
       </c>
@@ -10685,23 +10809,23 @@
       <c r="I68" s="20"/>
       <c r="J68" s="20"/>
       <c r="K68" s="20"/>
-      <c r="L68" s="30"/>
-      <c r="M68" s="30"/>
-      <c r="N68" s="30"/>
-      <c r="O68" s="30"/>
-      <c r="P68" s="30"/>
-      <c r="Q68" s="30"/>
+      <c r="L68" s="32"/>
+      <c r="M68" s="32"/>
+      <c r="N68" s="32"/>
+      <c r="O68" s="32"/>
+      <c r="P68" s="32"/>
+      <c r="Q68" s="32"/>
       <c r="R68" s="22"/>
-      <c r="S68" s="30"/>
-      <c r="T68" s="30"/>
-      <c r="U68" s="30"/>
-      <c r="V68" s="30"/>
-      <c r="W68" s="30"/>
-      <c r="X68" s="30"/>
+      <c r="S68" s="32"/>
+      <c r="T68" s="32"/>
+      <c r="U68" s="32"/>
+      <c r="V68" s="32"/>
+      <c r="W68" s="32"/>
+      <c r="X68" s="32"/>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
-      <c r="B69" s="33" t="s">
+      <c r="B69" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C69" s="25"/>
@@ -10729,12 +10853,12 @@
       <c r="K69" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="L69" s="32" t="s">
+      <c r="L69" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="M69" s="32"/>
-      <c r="N69" s="32"/>
-      <c r="O69" s="32"/>
+      <c r="M69" s="34"/>
+      <c r="N69" s="34"/>
+      <c r="O69" s="34"/>
       <c r="P69" s="27"/>
       <c r="Q69" s="27"/>
       <c r="R69" s="22"/>
@@ -10747,7 +10871,7 @@
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="33"/>
+      <c r="B70" s="35"/>
       <c r="C70" s="26" t="s">
         <v>26</v>
       </c>
@@ -10799,7 +10923,7 @@
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
-      <c r="B71" s="33"/>
+      <c r="B71" s="35"/>
       <c r="C71" s="26" t="s">
         <v>3</v>
       </c>
@@ -10851,7 +10975,7 @@
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="33"/>
+      <c r="B72" s="35"/>
       <c r="C72" s="26" t="s">
         <v>4</v>
       </c>
@@ -10903,7 +11027,7 @@
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="33"/>
+      <c r="B73" s="35"/>
       <c r="C73" s="26" t="s">
         <v>27</v>
       </c>
@@ -10955,7 +11079,7 @@
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="33"/>
+      <c r="B74" s="35"/>
       <c r="C74" s="26" t="s">
         <v>5</v>
       </c>
@@ -10983,7 +11107,7 @@
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="33"/>
+      <c r="B75" s="35"/>
       <c r="C75" s="26" t="s">
         <v>6</v>
       </c>
@@ -11011,7 +11135,7 @@
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="33"/>
+      <c r="B76" s="35"/>
       <c r="C76" s="26" t="s">
         <v>7</v>
       </c>
@@ -11063,7 +11187,7 @@
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="33"/>
+      <c r="B77" s="35"/>
       <c r="C77" s="26" t="s">
         <v>28</v>
       </c>
@@ -11206,4 +11330,873 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B1FDFB-F383-49AE-AC05-4D68B5BBC9F4}">
+  <dimension ref="A1:D61"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>5</v>
+      </c>
+      <c r="B1">
+        <v>20</v>
+      </c>
+      <c r="C1">
+        <v>50</v>
+      </c>
+      <c r="D1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="28">
+        <v>1.48592376708984</v>
+      </c>
+      <c r="B2" s="28">
+        <v>5.6769375801086399</v>
+      </c>
+      <c r="C2" s="28">
+        <v>14.538347244262599</v>
+      </c>
+      <c r="D2" s="28">
+        <v>28.527598619460999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="28">
+        <v>1.45933365821838</v>
+      </c>
+      <c r="B3" s="28">
+        <v>5.6553587913513104</v>
+      </c>
+      <c r="C3" s="28">
+        <v>14.3199145793914</v>
+      </c>
+      <c r="D3" s="28">
+        <v>28.583232879638601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="28">
+        <v>1.4817645549774101</v>
+      </c>
+      <c r="B4" s="28">
+        <v>5.6891193389892498</v>
+      </c>
+      <c r="C4" s="28">
+        <v>14.321382522583001</v>
+      </c>
+      <c r="D4" s="28">
+        <v>28.426456451416001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="28">
+        <v>1.49557757377624</v>
+      </c>
+      <c r="B5" s="28">
+        <v>5.6469783782958896</v>
+      </c>
+      <c r="C5" s="28">
+        <v>14.3137023448944</v>
+      </c>
+      <c r="D5" s="28">
+        <v>27.9126877784729</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="28">
+        <v>1.5809016227722099</v>
+      </c>
+      <c r="B6" s="28">
+        <v>5.7609007358550999</v>
+      </c>
+      <c r="C6" s="28">
+        <v>14.261954307556101</v>
+      </c>
+      <c r="D6" s="28">
+        <v>27.791157484054501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="28">
+        <v>1.55577945709228</v>
+      </c>
+      <c r="B7" s="28">
+        <v>5.6726565361022896</v>
+      </c>
+      <c r="C7" s="28">
+        <v>14.294003486633301</v>
+      </c>
+      <c r="D7" s="28">
+        <v>28.432507514953599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="28">
+        <v>1.5335264205932599</v>
+      </c>
+      <c r="B8" s="28">
+        <v>5.6434481143951398</v>
+      </c>
+      <c r="C8" s="28">
+        <v>14.3449490070343</v>
+      </c>
+      <c r="D8" s="28">
+        <v>28.000787734985298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="28">
+        <v>1.6010320186614899</v>
+      </c>
+      <c r="B9" s="28">
+        <v>5.6208794116973797</v>
+      </c>
+      <c r="C9" s="28">
+        <v>14.1740405559539</v>
+      </c>
+      <c r="D9" s="28">
+        <v>28.034798145294101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="28">
+        <v>1.6123309135437001</v>
+      </c>
+      <c r="B10" s="28">
+        <v>5.6611771583557102</v>
+      </c>
+      <c r="C10" s="28">
+        <v>14.2127718925476</v>
+      </c>
+      <c r="D10" s="28">
+        <v>27.870095014572101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="28">
+        <v>1.57086682319641</v>
+      </c>
+      <c r="B11" s="28">
+        <v>5.6555001735687203</v>
+      </c>
+      <c r="C11" s="28">
+        <v>14.300877094268699</v>
+      </c>
+      <c r="D11" s="28">
+        <v>27.915622234344401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="28">
+        <v>3.0389919281005802</v>
+      </c>
+      <c r="B12" s="28">
+        <v>11.3512630462646</v>
+      </c>
+      <c r="C12" s="28">
+        <v>28.250164270401001</v>
+      </c>
+      <c r="D12" s="28">
+        <v>57.229600667953399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="28">
+        <v>2.9654281139373699</v>
+      </c>
+      <c r="B13" s="28">
+        <v>11.17045712471</v>
+      </c>
+      <c r="C13" s="28">
+        <v>28.212723970413201</v>
+      </c>
+      <c r="D13" s="28">
+        <v>55.0887126922607</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="28">
+        <v>3.0147078037261901</v>
+      </c>
+      <c r="B14" s="28">
+        <v>11.2654225826263</v>
+      </c>
+      <c r="C14" s="28">
+        <v>27.894820690155001</v>
+      </c>
+      <c r="D14" s="28">
+        <v>54.8944637775421</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="28">
+        <v>2.9420590400695801</v>
+      </c>
+      <c r="B15" s="28">
+        <v>11.241358995437601</v>
+      </c>
+      <c r="C15" s="28">
+        <v>27.5846714973449</v>
+      </c>
+      <c r="D15" s="28">
+        <v>54.840884923934901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="28">
+        <v>3.0956506729125901</v>
+      </c>
+      <c r="B16" s="28">
+        <v>11.2236020565032</v>
+      </c>
+      <c r="C16" s="28">
+        <v>28.481350898742601</v>
+      </c>
+      <c r="D16" s="28">
+        <v>55.0980706214904</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="28">
+        <v>2.93822121620178</v>
+      </c>
+      <c r="B17" s="28">
+        <v>11.3579075336456</v>
+      </c>
+      <c r="C17" s="28">
+        <v>28.3619947433471</v>
+      </c>
+      <c r="D17" s="28">
+        <v>56.273973703384399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="28">
+        <v>2.93487524986267</v>
+      </c>
+      <c r="B18" s="28">
+        <v>11.383026361465401</v>
+      </c>
+      <c r="C18" s="28">
+        <v>27.9418156147003</v>
+      </c>
+      <c r="D18" s="28">
+        <v>55.744685173034597</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="28">
+        <v>2.9954547882079998</v>
+      </c>
+      <c r="B19" s="28">
+        <v>11.432003736495901</v>
+      </c>
+      <c r="C19" s="28">
+        <v>28.6660847663879</v>
+      </c>
+      <c r="D19" s="28">
+        <v>54.618099212646399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="28">
+        <v>3.1448311805725</v>
+      </c>
+      <c r="B20" s="28">
+        <v>11.287969827651899</v>
+      </c>
+      <c r="C20" s="28">
+        <v>28.247354269027699</v>
+      </c>
+      <c r="D20" s="28">
+        <v>57.171580314636202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="28">
+        <v>2.96293997764587</v>
+      </c>
+      <c r="B21" s="28">
+        <v>11.408981561660701</v>
+      </c>
+      <c r="C21" s="28">
+        <v>28.160342931747401</v>
+      </c>
+      <c r="D21" s="28">
+        <v>55.0156986713409</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="28">
+        <v>7.4260582923889098</v>
+      </c>
+      <c r="B22" s="28">
+        <v>28.720711231231601</v>
+      </c>
+      <c r="C22" s="28">
+        <v>69.041512966156006</v>
+      </c>
+      <c r="D22" s="28">
+        <v>145.87349271774201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="28">
+        <v>7.7139837741851798</v>
+      </c>
+      <c r="B23" s="28">
+        <v>29.872910737991301</v>
+      </c>
+      <c r="C23" s="28">
+        <v>68.540506839752197</v>
+      </c>
+      <c r="D23" s="28">
+        <v>145.78790807723999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="28">
+        <v>7.1701173782348597</v>
+      </c>
+      <c r="B24" s="28">
+        <v>29.652578592300401</v>
+      </c>
+      <c r="C24" s="28">
+        <v>68.762179613113403</v>
+      </c>
+      <c r="D24" s="28">
+        <v>144.32033252715999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="28">
+        <v>7.0260667800903303</v>
+      </c>
+      <c r="B25" s="28">
+        <v>29.032228469848601</v>
+      </c>
+      <c r="C25" s="28">
+        <v>68.622249364852905</v>
+      </c>
+      <c r="D25" s="28">
+        <v>144.196117639541</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="28">
+        <v>6.8729991912841797</v>
+      </c>
+      <c r="B26" s="28">
+        <v>29.694262266159001</v>
+      </c>
+      <c r="C26" s="28">
+        <v>69.513417005538898</v>
+      </c>
+      <c r="D26" s="28">
+        <v>147.34965586662199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="28">
+        <v>6.8491511344909597</v>
+      </c>
+      <c r="B27" s="28">
+        <v>29.516611337661701</v>
+      </c>
+      <c r="C27" s="28">
+        <v>69.9230313301086</v>
+      </c>
+      <c r="D27" s="28">
+        <v>148.26669311523401</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="28">
+        <v>6.8499991893768302</v>
+      </c>
+      <c r="B28" s="28">
+        <v>28.791967153549098</v>
+      </c>
+      <c r="C28" s="28">
+        <v>67.797750949859605</v>
+      </c>
+      <c r="D28" s="28">
+        <v>144.545914411544</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="28">
+        <v>6.8989996910095197</v>
+      </c>
+      <c r="B29" s="28">
+        <v>28.899274110794</v>
+      </c>
+      <c r="C29" s="28">
+        <v>68.779187440872093</v>
+      </c>
+      <c r="D29" s="28">
+        <v>147.29550480842499</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="28">
+        <v>6.8960287570953298</v>
+      </c>
+      <c r="B30" s="28">
+        <v>28.9922888278961</v>
+      </c>
+      <c r="C30" s="28">
+        <v>70.840527057647705</v>
+      </c>
+      <c r="D30" s="28">
+        <v>145.901696443557</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="28">
+        <v>6.9199724197387598</v>
+      </c>
+      <c r="B31" s="28">
+        <v>29.276053190231298</v>
+      </c>
+      <c r="C31" s="28">
+        <v>69.601486206054602</v>
+      </c>
+      <c r="D31" s="28">
+        <v>143.10346627235401</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="28">
+        <v>14.8683004379272</v>
+      </c>
+      <c r="B32" s="28">
+        <v>56.353384733200002</v>
+      </c>
+      <c r="C32" s="28">
+        <v>138.29325056075999</v>
+      </c>
+      <c r="D32" s="28">
+        <v>293.013108253479</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="28">
+        <v>14.3739869594573</v>
+      </c>
+      <c r="B33" s="28">
+        <v>56.452994346618603</v>
+      </c>
+      <c r="C33" s="28">
+        <v>141.613652944564</v>
+      </c>
+      <c r="D33" s="28">
+        <v>298.61290097236599</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="28">
+        <v>14.2722527980804</v>
+      </c>
+      <c r="B34" s="28">
+        <v>55.7557406425476</v>
+      </c>
+      <c r="C34" s="28">
+        <v>137.96008396148599</v>
+      </c>
+      <c r="D34" s="28">
+        <v>291.63929605483997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="28">
+        <v>14.252088546752899</v>
+      </c>
+      <c r="B35" s="28">
+        <v>55.469057321548398</v>
+      </c>
+      <c r="C35" s="28">
+        <v>132.56957530975299</v>
+      </c>
+      <c r="D35" s="28">
+        <v>287.624335765838</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="28">
+        <v>14.3379797935485</v>
+      </c>
+      <c r="B36" s="28">
+        <v>56.203808546066199</v>
+      </c>
+      <c r="C36" s="28">
+        <v>132.589082956314</v>
+      </c>
+      <c r="D36" s="28">
+        <v>284.55009412765497</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="28">
+        <v>14.3370015621185</v>
+      </c>
+      <c r="B37" s="28">
+        <v>55.248907327651899</v>
+      </c>
+      <c r="C37" s="28">
+        <v>132.48443818092301</v>
+      </c>
+      <c r="D37" s="28">
+        <v>288.53472661972</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="28">
+        <v>14.4698390960693</v>
+      </c>
+      <c r="B38" s="28">
+        <v>57.535596609115601</v>
+      </c>
+      <c r="C38" s="28">
+        <v>132.46446681022601</v>
+      </c>
+      <c r="D38" s="28">
+        <v>289.45247387886002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="28">
+        <v>14.444308996200499</v>
+      </c>
+      <c r="B39" s="28">
+        <v>58.079731702804501</v>
+      </c>
+      <c r="C39" s="28">
+        <v>132.588215589523</v>
+      </c>
+      <c r="D39" s="28">
+        <v>289.87139081954899</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="28">
+        <v>14.267618894577</v>
+      </c>
+      <c r="B40" s="28">
+        <v>57.047204017639103</v>
+      </c>
+      <c r="C40" s="28">
+        <v>133.168321847915</v>
+      </c>
+      <c r="D40" s="28">
+        <v>291.905618906021</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="19">
+        <v>14.159195423126199</v>
+      </c>
+      <c r="B41" s="20">
+        <v>57.620109796523998</v>
+      </c>
+      <c r="C41" s="20">
+        <v>134.327000141143</v>
+      </c>
+      <c r="D41" s="20">
+        <v>300.055415391922</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="19">
+        <v>22.398149490356399</v>
+      </c>
+      <c r="B42" s="20">
+        <v>84.830214262008596</v>
+      </c>
+      <c r="C42" s="28">
+        <v>293.013108253479</v>
+      </c>
+      <c r="D42" s="20">
+        <v>329.93113088607703</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="19">
+        <v>21.723781108856201</v>
+      </c>
+      <c r="B43" s="20">
+        <v>84.904719591140704</v>
+      </c>
+      <c r="C43" s="28">
+        <v>298.61290097236599</v>
+      </c>
+      <c r="D43" s="20">
+        <v>327.23848748207001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="19">
+        <v>21.584265708923301</v>
+      </c>
+      <c r="B44" s="20">
+        <v>85.191630601882906</v>
+      </c>
+      <c r="C44" s="28">
+        <v>291.63929605483997</v>
+      </c>
+      <c r="D44" s="20">
+        <v>326.74220132827702</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="19">
+        <v>21.490238904952999</v>
+      </c>
+      <c r="B45" s="20">
+        <v>85.302720546722398</v>
+      </c>
+      <c r="C45" s="28">
+        <v>287.624335765838</v>
+      </c>
+      <c r="D45" s="28">
+        <v>287.624335765838</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="19">
+        <v>21.587779045104899</v>
+      </c>
+      <c r="B46" s="20">
+        <v>85.090676546096802</v>
+      </c>
+      <c r="C46" s="28">
+        <v>284.55009412765497</v>
+      </c>
+      <c r="D46" s="20">
+        <v>313.181856155395</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="19">
+        <v>21.4931092262268</v>
+      </c>
+      <c r="B47" s="20">
+        <v>84.221707105636597</v>
+      </c>
+      <c r="C47" s="28">
+        <v>288.53472661972</v>
+      </c>
+      <c r="D47" s="20">
+        <v>312.70015621185303</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="19">
+        <v>21.495245218276899</v>
+      </c>
+      <c r="B48" s="20">
+        <v>85.131491661071706</v>
+      </c>
+      <c r="C48" s="28">
+        <v>289.45247387886002</v>
+      </c>
+      <c r="D48" s="20">
+        <v>310.55409502983002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="19">
+        <v>21.336215972900298</v>
+      </c>
+      <c r="B49" s="20">
+        <v>86.652469396591101</v>
+      </c>
+      <c r="C49" s="28">
+        <v>289.87139081954899</v>
+      </c>
+      <c r="D49" s="20">
+        <v>309.995369911193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="19">
+        <v>21.485158443450899</v>
+      </c>
+      <c r="B50" s="20">
+        <v>85.177293539047199</v>
+      </c>
+      <c r="C50" s="28">
+        <v>291.905618906021</v>
+      </c>
+      <c r="D50" s="28">
+        <v>289.45247387886002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="19">
+        <v>21.3973422050476</v>
+      </c>
+      <c r="B51" s="20">
+        <v>86.108680248260498</v>
+      </c>
+      <c r="C51" s="20">
+        <v>300.055415391922</v>
+      </c>
+      <c r="D51" s="20">
+        <v>308.42757034301701</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="19">
+        <v>27.721067905426001</v>
+      </c>
+      <c r="B52" s="20">
+        <v>107.869635105133</v>
+      </c>
+      <c r="C52" s="20">
+        <v>329.93113088607703</v>
+      </c>
+      <c r="D52" s="20">
+        <v>579.53112959861699</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="19">
+        <v>27.4450283050537</v>
+      </c>
+      <c r="B53" s="20">
+        <v>107.869537353515</v>
+      </c>
+      <c r="C53" s="20">
+        <v>327.23848748207001</v>
+      </c>
+      <c r="D53" s="20">
+        <v>571.37654733657803</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="19">
+        <v>27.4493632316589</v>
+      </c>
+      <c r="B54" s="20">
+        <v>111.619599103927</v>
+      </c>
+      <c r="C54" s="20">
+        <v>326.74220132827702</v>
+      </c>
+      <c r="D54" s="20">
+        <v>565.47000026702801</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="19">
+        <v>27.433067321777301</v>
+      </c>
+      <c r="B55" s="20">
+        <v>112.14303064346301</v>
+      </c>
+      <c r="C55" s="20">
+        <v>325.37255358695899</v>
+      </c>
+      <c r="D55" s="20">
+        <v>565.88099980354298</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="19">
+        <v>27.254004240036</v>
+      </c>
+      <c r="B56" s="20">
+        <v>111.920485973358</v>
+      </c>
+      <c r="C56" s="20">
+        <v>313.181856155395</v>
+      </c>
+      <c r="D56" s="20">
+        <v>565.83747553825299</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="19">
+        <v>27.386578559875399</v>
+      </c>
+      <c r="B57" s="20">
+        <v>112.160378694534</v>
+      </c>
+      <c r="C57" s="20">
+        <v>312.70015621185303</v>
+      </c>
+      <c r="D57" s="20">
+        <v>608.51054501533497</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="19">
+        <v>27.3820352554321</v>
+      </c>
+      <c r="B58" s="20">
+        <v>112.456122398376</v>
+      </c>
+      <c r="C58" s="20">
+        <v>310.55409502983002</v>
+      </c>
+      <c r="D58" s="20">
+        <v>603.06920957565296</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="19">
+        <v>27.559135198593101</v>
+      </c>
+      <c r="B59" s="20">
+        <v>112.36847972869801</v>
+      </c>
+      <c r="C59" s="20">
+        <v>309.995369911193</v>
+      </c>
+      <c r="D59" s="20">
+        <v>616.38961219787598</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="19">
+        <v>27.305034875869701</v>
+      </c>
+      <c r="B60" s="20">
+        <v>112.541369915008</v>
+      </c>
+      <c r="C60" s="20">
+        <v>308.50347399711598</v>
+      </c>
+      <c r="D60" s="20">
+        <v>614.73193860054005</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="19">
+        <v>27.460001230239801</v>
+      </c>
+      <c r="B61" s="20">
+        <v>112.03665137290901</v>
+      </c>
+      <c r="C61" s="20">
+        <v>308.42757034301701</v>
+      </c>
+      <c r="D61" s="20">
+        <v>583.73539829254105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>